--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="356">
   <si>
     <t>dispositif</t>
   </si>
@@ -124,156 +124,165 @@
     <t>12</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>56</t>
+    <t>47</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>107</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
     <t>117</t>
   </si>
   <si>
@@ -283,22 +292,13 @@
     <t>519</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>67</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>130</t>
   </si>
   <si>
-    <t>241</t>
+    <t>242</t>
   </si>
   <si>
     <t>65</t>
@@ -307,606 +307,615 @@
     <t>38</t>
   </si>
   <si>
-    <t>399</t>
+    <t>119</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>163620.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>297886.40</t>
+  </si>
+  <si>
+    <t>760930.82</t>
+  </si>
+  <si>
+    <t>93000.00</t>
+  </si>
+  <si>
+    <t>1283384.04</t>
+  </si>
+  <si>
+    <t>45600.00</t>
+  </si>
+  <si>
+    <t>23500.00</t>
+  </si>
+  <si>
+    <t>46500.00</t>
+  </si>
+  <si>
+    <t>278500.00</t>
+  </si>
+  <si>
+    <t>120400.00</t>
+  </si>
+  <si>
+    <t>148390.00</t>
+  </si>
+  <si>
+    <t>32093.58</t>
+  </si>
+  <si>
+    <t>149924.23</t>
+  </si>
+  <si>
+    <t>329000.00</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>67391.77</t>
+  </si>
+  <si>
+    <t>94500.00</t>
+  </si>
+  <si>
+    <t>216825.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>410165.66</t>
+  </si>
+  <si>
+    <t>62000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>47000.00</t>
+  </si>
+  <si>
+    <t>71000.00</t>
+  </si>
+  <si>
+    <t>31500.00</t>
+  </si>
+  <si>
+    <t>74000.00</t>
+  </si>
+  <si>
+    <t>79945.00</t>
+  </si>
+  <si>
+    <t>368500.00</t>
+  </si>
+  <si>
+    <t>21500.00</t>
+  </si>
+  <si>
+    <t>641633.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>93500.00</t>
+  </si>
+  <si>
+    <t>47500.00</t>
+  </si>
+  <si>
+    <t>52850.00</t>
+  </si>
+  <si>
+    <t>62500.00</t>
+  </si>
+  <si>
+    <t>139893.00</t>
+  </si>
+  <si>
+    <t>20500.00</t>
+  </si>
+  <si>
+    <t>54000.00</t>
+  </si>
+  <si>
+    <t>118753.26</t>
+  </si>
+  <si>
+    <t>234468.33</t>
+  </si>
+  <si>
+    <t>38100.00</t>
+  </si>
+  <si>
+    <t>480000.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>122500.00</t>
+  </si>
+  <si>
+    <t>24500.00</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>82500.00</t>
+  </si>
+  <si>
+    <t>127000.00</t>
+  </si>
+  <si>
+    <t>239336.66</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>92500.00</t>
+  </si>
+  <si>
+    <t>22500.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>80500.00</t>
+  </si>
+  <si>
+    <t>163987.00</t>
+  </si>
+  <si>
+    <t>375402.00</t>
+  </si>
+  <si>
+    <t>39500.00</t>
+  </si>
+  <si>
+    <t>714000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>97200.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>78500.00</t>
+  </si>
+  <si>
+    <t>157500.00</t>
+  </si>
+  <si>
+    <t>101495.14</t>
+  </si>
+  <si>
+    <t>96000.00</t>
+  </si>
+  <si>
+    <t>179000.00</t>
+  </si>
+  <si>
+    <t>189000.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>64500.00</t>
+  </si>
+  <si>
+    <t>110500.00</t>
+  </si>
+  <si>
+    <t>28200.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>29500.00</t>
+  </si>
+  <si>
+    <t>69500.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>66000.00</t>
+  </si>
+  <si>
+    <t>130377.00</t>
+  </si>
+  <si>
+    <t>489500.00</t>
+  </si>
+  <si>
+    <t>73000.00</t>
+  </si>
+  <si>
+    <t>670500.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>60500.00</t>
+  </si>
+  <si>
+    <t>136000.00</t>
+  </si>
+  <si>
+    <t>73500.00</t>
+  </si>
+  <si>
+    <t>71500.00</t>
+  </si>
+  <si>
+    <t>177500.00</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>237000.00</t>
+  </si>
+  <si>
+    <t>31000.00</t>
+  </si>
+  <si>
+    <t>137500.00</t>
+  </si>
+  <si>
+    <t>85500.00</t>
+  </si>
+  <si>
+    <t>56500.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>88500.00</t>
+  </si>
+  <si>
+    <t>31941.00</t>
+  </si>
+  <si>
+    <t>33500.00</t>
+  </si>
+  <si>
+    <t>103119.00</t>
+  </si>
+  <si>
+    <t>439621.81</t>
+  </si>
+  <si>
+    <t>25500.00</t>
+  </si>
+  <si>
+    <t>70862.79</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>43500.00</t>
+  </si>
+  <si>
+    <t>77500.00</t>
+  </si>
+  <si>
+    <t>116000.00</t>
+  </si>
+  <si>
+    <t>115500.00</t>
+  </si>
+  <si>
+    <t>120653.50</t>
+  </si>
+  <si>
+    <t>257500.00</t>
+  </si>
+  <si>
+    <t>789142.00</t>
+  </si>
+  <si>
+    <t>51500.00</t>
+  </si>
+  <si>
+    <t>1190613.00</t>
+  </si>
+  <si>
+    <t>41500.00</t>
+  </si>
+  <si>
+    <t>309461.56</t>
+  </si>
+  <si>
+    <t>111500.00</t>
+  </si>
+  <si>
+    <t>127500.00</t>
+  </si>
+  <si>
+    <t>26500.00</t>
+  </si>
+  <si>
+    <t>145883.20</t>
+  </si>
+  <si>
+    <t>230159.77</t>
+  </si>
+  <si>
+    <t>92000.00</t>
+  </si>
+  <si>
+    <t>109500.00</t>
+  </si>
+  <si>
+    <t>308120.07</t>
+  </si>
+  <si>
+    <t>792828.00</t>
+  </si>
+  <si>
+    <t>64000.00</t>
+  </si>
+  <si>
+    <t>1364130.76</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>93400.00</t>
+  </si>
+  <si>
+    <t>291000.00</t>
+  </si>
+  <si>
+    <t>77000.00</t>
+  </si>
+  <si>
+    <t>107500.00</t>
+  </si>
+  <si>
+    <t>161000.00</t>
+  </si>
+  <si>
+    <t>295000.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>131000.00</t>
+  </si>
+  <si>
+    <t>347405.00</t>
+  </si>
+  <si>
+    <t>646309.01</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>162272.09</t>
+  </si>
+  <si>
+    <t>40587.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>91000.00</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>175538.00</t>
+  </si>
+  <si>
+    <t>315700.00</t>
+  </si>
+  <si>
+    <t>1043500.00</t>
+  </si>
+  <si>
+    <t>135500.00</t>
+  </si>
+  <si>
+    <t>1905820.00</t>
+  </si>
+  <si>
+    <t>63500.00</t>
+  </si>
+  <si>
+    <t>144000.00</t>
+  </si>
+  <si>
+    <t>326777.50</t>
+  </si>
+  <si>
+    <t>230700.00</t>
+  </si>
+  <si>
+    <t>151500.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>176700.00</t>
+  </si>
+  <si>
+    <t>397000.00</t>
+  </si>
+  <si>
+    <t>26000.00</t>
+  </si>
+  <si>
+    <t>392070.00</t>
+  </si>
+  <si>
+    <t>1085300.00</t>
+  </si>
+  <si>
+    <t>3328842.03</t>
+  </si>
+  <si>
+    <t>2536672.41</t>
+  </si>
+  <si>
+    <t>4319965.00</t>
+  </si>
+  <si>
+    <t>530500.00</t>
+  </si>
+  <si>
+    <t>228500.00</t>
+  </si>
+  <si>
+    <t>419000.00</t>
+  </si>
+  <si>
+    <t>1708830.00</t>
+  </si>
+  <si>
+    <t>777226.00</t>
+  </si>
+  <si>
+    <t>580280.00</t>
+  </si>
+  <si>
+    <t>258000.00</t>
+  </si>
+  <si>
+    <t>523280.00</t>
+  </si>
+  <si>
+    <t>1471000.00</t>
+  </si>
+  <si>
+    <t>84</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>436</t>
-  </si>
-  <si>
-    <t>1312</t>
-  </si>
-  <si>
-    <t>1190</t>
-  </si>
-  <si>
-    <t>1616</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>665</t>
-  </si>
-  <si>
-    <t>34000.00</t>
-  </si>
-  <si>
-    <t>163620.00</t>
-  </si>
-  <si>
-    <t>7500.00</t>
-  </si>
-  <si>
-    <t>297886.40</t>
-  </si>
-  <si>
-    <t>760930.82</t>
-  </si>
-  <si>
-    <t>93000.00</t>
-  </si>
-  <si>
-    <t>1283384.04</t>
-  </si>
-  <si>
-    <t>45600.00</t>
-  </si>
-  <si>
-    <t>23500.00</t>
-  </si>
-  <si>
-    <t>46500.00</t>
-  </si>
-  <si>
-    <t>278500.00</t>
-  </si>
-  <si>
-    <t>120400.00</t>
-  </si>
-  <si>
-    <t>148390.00</t>
-  </si>
-  <si>
-    <t>32093.58</t>
-  </si>
-  <si>
-    <t>149924.23</t>
-  </si>
-  <si>
-    <t>329000.00</t>
-  </si>
-  <si>
-    <t>13500.00</t>
-  </si>
-  <si>
-    <t>67391.77</t>
-  </si>
-  <si>
-    <t>94500.00</t>
-  </si>
-  <si>
-    <t>216825.00</t>
-  </si>
-  <si>
-    <t>22000.00</t>
-  </si>
-  <si>
-    <t>410165.66</t>
-  </si>
-  <si>
-    <t>62000.00</t>
-  </si>
-  <si>
-    <t>18000.00</t>
-  </si>
-  <si>
-    <t>6000.00</t>
-  </si>
-  <si>
-    <t>47000.00</t>
-  </si>
-  <si>
-    <t>71000.00</t>
-  </si>
-  <si>
-    <t>31500.00</t>
-  </si>
-  <si>
-    <t>74000.00</t>
-  </si>
-  <si>
-    <t>76445.00</t>
-  </si>
-  <si>
-    <t>358500.00</t>
-  </si>
-  <si>
-    <t>21500.00</t>
-  </si>
-  <si>
-    <t>637633.00</t>
-  </si>
-  <si>
-    <t>11500.00</t>
-  </si>
-  <si>
-    <t>14000.00</t>
-  </si>
-  <si>
-    <t>16000.00</t>
-  </si>
-  <si>
-    <t>93500.00</t>
-  </si>
-  <si>
-    <t>45500.00</t>
-  </si>
-  <si>
-    <t>52850.00</t>
-  </si>
-  <si>
-    <t>62500.00</t>
-  </si>
-  <si>
-    <t>139893.00</t>
-  </si>
-  <si>
-    <t>20500.00</t>
-  </si>
-  <si>
-    <t>54000.00</t>
-  </si>
-  <si>
-    <t>118753.26</t>
-  </si>
-  <si>
-    <t>232468.33</t>
-  </si>
-  <si>
-    <t>38100.00</t>
-  </si>
-  <si>
-    <t>480000.00</t>
-  </si>
-  <si>
-    <t>9500.00</t>
-  </si>
-  <si>
-    <t>23000.00</t>
-  </si>
-  <si>
-    <t>8000.00</t>
-  </si>
-  <si>
-    <t>48000.00</t>
-  </si>
-  <si>
-    <t>122500.00</t>
-  </si>
-  <si>
-    <t>17000.00</t>
-  </si>
-  <si>
-    <t>68000.00</t>
-  </si>
-  <si>
-    <t>102500.00</t>
-  </si>
-  <si>
-    <t>198836.66</t>
-  </si>
-  <si>
-    <t>75000.00</t>
-  </si>
-  <si>
-    <t>18500.00</t>
-  </si>
-  <si>
-    <t>17500.00</t>
-  </si>
-  <si>
-    <t>19000.00</t>
-  </si>
-  <si>
-    <t>80500.00</t>
-  </si>
-  <si>
-    <t>163987.00</t>
-  </si>
-  <si>
-    <t>375402.00</t>
-  </si>
-  <si>
-    <t>39500.00</t>
-  </si>
-  <si>
-    <t>714000.00</t>
-  </si>
-  <si>
-    <t>12000.00</t>
-  </si>
-  <si>
-    <t>15000.00</t>
-  </si>
-  <si>
-    <t>22500.00</t>
-  </si>
-  <si>
-    <t>97200.00</t>
-  </si>
-  <si>
-    <t>70000.00</t>
-  </si>
-  <si>
-    <t>157500.00</t>
-  </si>
-  <si>
-    <t>10000.00</t>
-  </si>
-  <si>
-    <t>101495.14</t>
-  </si>
-  <si>
-    <t>96000.00</t>
-  </si>
-  <si>
-    <t>179000.00</t>
-  </si>
-  <si>
-    <t>189000.00</t>
-  </si>
-  <si>
-    <t>13000.00</t>
-  </si>
-  <si>
-    <t>64500.00</t>
-  </si>
-  <si>
-    <t>110500.00</t>
-  </si>
-  <si>
-    <t>28200.00</t>
-  </si>
-  <si>
-    <t>24000.00</t>
-  </si>
-  <si>
-    <t>29500.00</t>
-  </si>
-  <si>
-    <t>69500.00</t>
-  </si>
-  <si>
-    <t>16500.00</t>
-  </si>
-  <si>
-    <t>66000.00</t>
-  </si>
-  <si>
-    <t>130377.00</t>
-  </si>
-  <si>
-    <t>489500.00</t>
-  </si>
-  <si>
-    <t>73000.00</t>
-  </si>
-  <si>
-    <t>662500.00</t>
-  </si>
-  <si>
-    <t>9000.00</t>
-  </si>
-  <si>
-    <t>60500.00</t>
-  </si>
-  <si>
-    <t>136000.00</t>
-  </si>
-  <si>
-    <t>73500.00</t>
-  </si>
-  <si>
-    <t>177500.00</t>
-  </si>
-  <si>
-    <t>100000.00</t>
-  </si>
-  <si>
-    <t>237000.00</t>
-  </si>
-  <si>
-    <t>31000.00</t>
-  </si>
-  <si>
-    <t>137500.00</t>
-  </si>
-  <si>
-    <t>85500.00</t>
-  </si>
-  <si>
-    <t>56500.00</t>
-  </si>
-  <si>
-    <t>21000.00</t>
-  </si>
-  <si>
-    <t>88500.00</t>
-  </si>
-  <si>
-    <t>31941.00</t>
-  </si>
-  <si>
-    <t>33500.00</t>
-  </si>
-  <si>
-    <t>101119.00</t>
-  </si>
-  <si>
-    <t>312500.00</t>
-  </si>
-  <si>
-    <t>432621.81</t>
-  </si>
-  <si>
-    <t>66862.79</t>
-  </si>
-  <si>
-    <t>30000.00</t>
-  </si>
-  <si>
-    <t>110000.00</t>
-  </si>
-  <si>
-    <t>115500.00</t>
-  </si>
-  <si>
-    <t>120653.50</t>
-  </si>
-  <si>
-    <t>257500.00</t>
-  </si>
-  <si>
-    <t>789142.00</t>
-  </si>
-  <si>
-    <t>51500.00</t>
-  </si>
-  <si>
-    <t>1190613.00</t>
-  </si>
-  <si>
-    <t>41500.00</t>
-  </si>
-  <si>
-    <t>309461.56</t>
-  </si>
-  <si>
-    <t>111500.00</t>
-  </si>
-  <si>
-    <t>127500.00</t>
-  </si>
-  <si>
-    <t>26500.00</t>
-  </si>
-  <si>
-    <t>145883.20</t>
-  </si>
-  <si>
-    <t>230159.77</t>
-  </si>
-  <si>
-    <t>92000.00</t>
-  </si>
-  <si>
-    <t>109500.00</t>
-  </si>
-  <si>
-    <t>308120.07</t>
-  </si>
-  <si>
-    <t>792828.00</t>
-  </si>
-  <si>
-    <t>64000.00</t>
-  </si>
-  <si>
-    <t>1364130.76</t>
-  </si>
-  <si>
-    <t>19500.00</t>
-  </si>
-  <si>
-    <t>93400.00</t>
-  </si>
-  <si>
-    <t>291000.00</t>
-  </si>
-  <si>
-    <t>77000.00</t>
-  </si>
-  <si>
-    <t>107500.00</t>
-  </si>
-  <si>
-    <t>43500.00</t>
-  </si>
-  <si>
-    <t>161000.00</t>
-  </si>
-  <si>
-    <t>295000.00</t>
-  </si>
-  <si>
-    <t>52000.00</t>
-  </si>
-  <si>
-    <t>131000.00</t>
-  </si>
-  <si>
-    <t>347405.00</t>
-  </si>
-  <si>
-    <t>644309.01</t>
-  </si>
-  <si>
-    <t>11000.00</t>
-  </si>
-  <si>
-    <t>28000.00</t>
-  </si>
-  <si>
-    <t>162272.09</t>
-  </si>
-  <si>
-    <t>40587.00</t>
-  </si>
-  <si>
-    <t>20000.00</t>
-  </si>
-  <si>
-    <t>91000.00</t>
-  </si>
-  <si>
-    <t>44000.00</t>
-  </si>
-  <si>
-    <t>172038.00</t>
-  </si>
-  <si>
-    <t>310200.00</t>
-  </si>
-  <si>
-    <t>1027500.00</t>
-  </si>
-  <si>
-    <t>130000.00</t>
-  </si>
-  <si>
-    <t>1884320.00</t>
-  </si>
-  <si>
-    <t>63500.00</t>
-  </si>
-  <si>
-    <t>33000.00</t>
-  </si>
-  <si>
-    <t>144000.00</t>
-  </si>
-  <si>
-    <t>322777.50</t>
-  </si>
-  <si>
-    <t>230700.00</t>
-  </si>
-  <si>
-    <t>149500.00</t>
-  </si>
-  <si>
-    <t>55000.00</t>
-  </si>
-  <si>
-    <t>174700.00</t>
-  </si>
-  <si>
-    <t>389000.00</t>
-  </si>
-  <si>
-    <t>26000.00</t>
-  </si>
-  <si>
-    <t>392070.00</t>
-  </si>
-  <si>
-    <t>1085300.00</t>
-  </si>
-  <si>
-    <t>3328842.03</t>
-  </si>
-  <si>
-    <t>2536672.41</t>
-  </si>
-  <si>
-    <t>4319965.00</t>
-  </si>
-  <si>
-    <t>530500.00</t>
-  </si>
-  <si>
-    <t>228500.00</t>
-  </si>
-  <si>
-    <t>419000.00</t>
-  </si>
-  <si>
-    <t>1708830.00</t>
-  </si>
-  <si>
-    <t>777226.00</t>
-  </si>
-  <si>
-    <t>580280.00</t>
-  </si>
-  <si>
-    <t>258000.00</t>
-  </si>
-  <si>
-    <t>523280.00</t>
-  </si>
-  <si>
-    <t>1471000.00</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
@@ -914,9 +923,6 @@
   </si>
   <si>
     <t>03</t>
-  </si>
-  <si>
-    <t>32</t>
   </si>
   <si>
     <t>02</t>
@@ -1476,19 +1482,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1502,19 +1508,19 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1528,19 +1534,19 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1554,19 +1560,19 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1580,19 +1586,19 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1606,19 +1612,19 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1632,19 +1638,19 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1658,19 +1664,19 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1684,19 +1690,19 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1710,19 +1716,19 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F11" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1736,19 +1742,19 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1762,19 +1768,19 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1788,19 +1794,19 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F14" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G14" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H14" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1814,19 +1820,19 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G15" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H15" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1840,19 +1846,19 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F16" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G16" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H16" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1866,19 +1872,19 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G17" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H17" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1892,19 +1898,19 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G18" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H18" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1918,19 +1924,19 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1944,19 +1950,19 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H20" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1970,19 +1976,19 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G21" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H21" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1996,19 +2002,19 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G22" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H22" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2022,19 +2028,19 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G23" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H23" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2048,19 +2054,19 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G24" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H24" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2074,19 +2080,19 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G25" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H25" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2100,19 +2106,19 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G26" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H26" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2126,19 +2132,19 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G27" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H27" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2152,19 +2158,19 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G28" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2178,19 +2184,19 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G29" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H29" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2204,19 +2210,19 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F30" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H30" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2230,19 +2236,19 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G31" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H31" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2256,19 +2262,19 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F32" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G32" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H32" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2282,19 +2288,19 @@
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G33" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H33" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2308,19 +2314,19 @@
         <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G34" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H34" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2334,19 +2340,19 @@
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G35" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H35" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2360,19 +2366,19 @@
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G36" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H36" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2386,19 +2392,19 @@
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H37" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2412,19 +2418,19 @@
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G38" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H38" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2438,19 +2444,19 @@
         <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G39" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H39" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2461,22 +2467,22 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G40" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H40" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2487,22 +2493,22 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G41" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H41" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2513,22 +2519,22 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F42" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H42" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2539,22 +2545,22 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F43" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G43" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H43" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2568,19 +2574,19 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
         <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G44" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H44" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2594,19 +2600,19 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
         <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G45" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H45" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2617,22 +2623,22 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
         <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G46" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H46" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2643,22 +2649,22 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
         <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G47" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H47" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2672,19 +2678,19 @@
         <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
         <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G48" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H48" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2695,22 +2701,22 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E49" t="s">
         <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G49" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H49" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2724,19 +2730,19 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E50" t="s">
         <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G50" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H50" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2747,22 +2753,22 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E51" t="s">
         <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G51" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H51" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2776,19 +2782,19 @@
         <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E52" t="s">
         <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G52" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H52" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2802,19 +2808,19 @@
         <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53" t="s">
         <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G53" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H53" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2828,19 +2834,19 @@
         <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E54" t="s">
         <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G54" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H54" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2854,19 +2860,19 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E55" t="s">
         <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G55" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H55" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2877,22 +2883,22 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E56" t="s">
         <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G56" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H56" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2903,22 +2909,22 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E57" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F57" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G57" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H57" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2929,22 +2935,22 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E58" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F58" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G58" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H58" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2955,22 +2961,22 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D59" t="s">
         <v>172</v>
       </c>
       <c r="E59" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F59" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G59" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H59" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2981,22 +2987,22 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
         <v>173</v>
       </c>
       <c r="E60" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F60" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G60" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H60" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3007,22 +3013,22 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D61" t="s">
         <v>174</v>
       </c>
       <c r="E61" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F61" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G61" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H61" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3033,22 +3039,22 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E62" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F62" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G62" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H62" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3059,22 +3065,22 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="E63" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G63" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H63" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3085,22 +3091,22 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D64" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E64" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F64" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G64" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H64" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3111,22 +3117,22 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E65" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F65" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G65" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H65" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3137,22 +3143,22 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E66" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F66" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G66" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H66" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3163,22 +3169,22 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F67" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G67" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H67" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3192,19 +3198,19 @@
         <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F68" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G68" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H68" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3215,22 +3221,22 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F69" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G69" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H69" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3241,22 +3247,22 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F70" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G70" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H70" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3267,22 +3273,22 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E71" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F71" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G71" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H71" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3293,22 +3299,22 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E72" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F72" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H72" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3319,22 +3325,22 @@
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E73" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F73" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G73" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H73" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3348,19 +3354,19 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E74" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F74" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G74" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H74" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3374,19 +3380,19 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E75" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F75" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G75" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H75" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3397,22 +3403,22 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E76" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F76" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G76" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H76" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3423,22 +3429,22 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D77" t="s">
         <v>187</v>
       </c>
       <c r="E77" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F77" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G77" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H77" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3452,19 +3458,19 @@
         <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F78" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G78" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H78" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3475,22 +3481,22 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D79" t="s">
         <v>188</v>
       </c>
       <c r="E79" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F79" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G79" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H79" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3504,19 +3510,19 @@
         <v>42</v>
       </c>
       <c r="D80" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E80" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F80" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G80" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H80" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3527,22 +3533,22 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D81" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E81" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F81" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G81" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H81" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3553,22 +3559,22 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D82" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E82" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F82" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G82" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H82" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3582,19 +3588,19 @@
         <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E83" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F83" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G83" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H83" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3608,19 +3614,19 @@
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E84" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F84" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G84" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H84" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3634,19 +3640,19 @@
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E85" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F85" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G85" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H85" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3657,22 +3663,22 @@
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E86" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F86" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G86" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H86" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3686,19 +3692,19 @@
         <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E87" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F87" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G87" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H87" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3709,22 +3715,22 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E88" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F88" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G88" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H88" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3735,22 +3741,22 @@
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D89" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E89" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F89" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G89" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H89" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3764,19 +3770,19 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E90" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F90" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G90" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H90" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3790,19 +3796,19 @@
         <v>40</v>
       </c>
       <c r="D91" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E91" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F91" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G91" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H91" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3813,22 +3819,22 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D92" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E92" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F92" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G92" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H92" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3839,22 +3845,22 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D93" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E93" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F93" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G93" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H93" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3868,19 +3874,19 @@
         <v>35</v>
       </c>
       <c r="D94" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E94" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F94" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G94" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H94" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3891,22 +3897,22 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D95" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E95" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F95" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G95" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H95" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3920,19 +3926,19 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E96" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F96" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G96" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H96" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3946,19 +3952,19 @@
         <v>34</v>
       </c>
       <c r="D97" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E97" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F97" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G97" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H97" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3969,22 +3975,22 @@
         <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D98" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E98" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F98" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G98" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H98" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3998,19 +4004,19 @@
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E99" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F99" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G99" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H99" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4024,19 +4030,19 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E100" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F100" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G100" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H100" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4050,19 +4056,19 @@
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E101" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F101" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G101" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H101" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4076,19 +4082,19 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E102" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F102" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G102" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H102" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4102,19 +4108,19 @@
         <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E103" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F103" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G103" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H103" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4128,19 +4134,19 @@
         <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E104" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F104" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G104" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H104" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4154,19 +4160,19 @@
         <v>19</v>
       </c>
       <c r="D105" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E105" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F105" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G105" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H105" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4177,22 +4183,22 @@
         <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D106" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E106" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F106" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G106" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H106" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4203,22 +4209,22 @@
         <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D107" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E107" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F107" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G107" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H107" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4229,22 +4235,22 @@
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D108" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E108" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F108" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G108" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H108" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4255,22 +4261,22 @@
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D109" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E109" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F109" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G109" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H109" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4284,19 +4290,19 @@
         <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E110" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F110" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G110" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H110" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4310,19 +4316,19 @@
         <v>38</v>
       </c>
       <c r="D111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E111" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F111" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G111" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H111" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4336,19 +4342,19 @@
         <v>32</v>
       </c>
       <c r="D112" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E112" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F112" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G112" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H112" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4359,22 +4365,22 @@
         <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D113" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E113" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F113" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G113" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H113" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4385,22 +4391,22 @@
         <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D114" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E114" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F114" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G114" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H114" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4414,19 +4420,19 @@
         <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E115" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F115" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G115" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H115" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4440,19 +4446,19 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E116" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F116" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G116" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H116" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4463,22 +4469,22 @@
         <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D117" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E117" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F117" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G117" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H117" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4489,22 +4495,22 @@
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D118" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E118" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F118" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G118" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H118" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4518,19 +4524,19 @@
         <v>41</v>
       </c>
       <c r="D119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E119" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F119" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G119" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H119" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4541,22 +4547,22 @@
         <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D120" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E120" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F120" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G120" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H120" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4567,22 +4573,22 @@
         <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E121" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F121" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G121" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H121" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4596,19 +4602,19 @@
         <v>70</v>
       </c>
       <c r="D122" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E122" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F122" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G122" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H122" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4622,19 +4628,19 @@
         <v>71</v>
       </c>
       <c r="D123" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E123" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F123" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G123" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H123" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4648,19 +4654,19 @@
         <v>72</v>
       </c>
       <c r="D124" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E124" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F124" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G124" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H124" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4674,19 +4680,19 @@
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E125" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F125" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G125" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H125" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4700,19 +4706,19 @@
         <v>40</v>
       </c>
       <c r="D126" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E126" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F126" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G126" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H126" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4726,19 +4732,19 @@
         <v>40</v>
       </c>
       <c r="D127" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E127" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F127" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G127" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H127" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4752,19 +4758,19 @@
         <v>73</v>
       </c>
       <c r="D128" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E128" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F128" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G128" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H128" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4775,22 +4781,22 @@
         <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D129" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E129" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F129" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G129" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H129" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4804,19 +4810,19 @@
         <v>42</v>
       </c>
       <c r="D130" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E130" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F130" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G130" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H130" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4830,19 +4836,19 @@
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E131" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F131" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G131" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H131" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4853,22 +4859,22 @@
         <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D132" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E132" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F132" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G132" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H132" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4879,22 +4885,22 @@
         <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D133" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E133" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F133" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G133" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H133" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4908,19 +4914,19 @@
         <v>35</v>
       </c>
       <c r="D134" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E134" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G134" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H134" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4934,19 +4940,19 @@
         <v>74</v>
       </c>
       <c r="D135" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E135" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G135" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H135" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4957,22 +4963,22 @@
         <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D136" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E136" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G136" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H136" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4983,22 +4989,22 @@
         <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D137" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="E137" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G137" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H137" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5012,19 +5018,19 @@
         <v>42</v>
       </c>
       <c r="D138" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E138" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G138" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H138" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5035,22 +5041,22 @@
         <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D139" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E139" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G139" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H139" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5061,22 +5067,22 @@
         <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D140" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="E140" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G140" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H140" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5090,19 +5096,19 @@
         <v>41</v>
       </c>
       <c r="D141" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E141" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G141" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H141" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5116,19 +5122,19 @@
         <v>41</v>
       </c>
       <c r="D142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E142" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G142" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H142" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5139,22 +5145,22 @@
         <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D143" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E143" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G143" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H143" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5168,19 +5174,19 @@
         <v>35</v>
       </c>
       <c r="D144" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E144" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G144" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H144" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5191,22 +5197,22 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="E145" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G145" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H145" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5220,19 +5226,19 @@
         <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E146" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G146" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H146" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5243,22 +5249,22 @@
         <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D147" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="E147" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G147" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H147" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5269,22 +5275,22 @@
         <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D148" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E148" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G148" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H148" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5295,22 +5301,22 @@
         <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D149" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E149" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F149" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G149" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H149" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5321,22 +5327,22 @@
         <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D150" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E150" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F150" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G150" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H150" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5347,22 +5353,22 @@
         <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D151" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E151" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F151" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G151" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H151" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5373,22 +5379,22 @@
         <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D152" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E152" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F152" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G152" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H152" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5402,19 +5408,19 @@
         <v>33</v>
       </c>
       <c r="D153" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E153" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F153" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G153" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H153" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5425,22 +5431,22 @@
         <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D154" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E154" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F154" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G154" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H154" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5454,19 +5460,19 @@
         <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E155" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F155" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G155" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H155" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5480,19 +5486,19 @@
         <v>26</v>
       </c>
       <c r="D156" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E156" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F156" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G156" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H156" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5506,19 +5512,19 @@
         <v>32</v>
       </c>
       <c r="D157" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E157" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F157" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G157" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H157" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5529,22 +5535,22 @@
         <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D158" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E158" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F158" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G158" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H158" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5555,22 +5561,22 @@
         <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D159" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E159" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F159" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G159" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H159" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5581,22 +5587,22 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D160" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E160" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F160" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G160" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H160" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5610,19 +5616,19 @@
         <v>18</v>
       </c>
       <c r="D161" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E161" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F161" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G161" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H161" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5633,22 +5639,22 @@
         <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D162" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E162" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F162" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G162" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H162" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5659,22 +5665,22 @@
         <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D163" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E163" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F163" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G163" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H163" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5685,22 +5691,22 @@
         <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D164" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E164" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G164" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H164" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5711,22 +5717,22 @@
         <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D165" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E165" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G165" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H165" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5737,22 +5743,22 @@
         <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D166" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E166" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G166" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H166" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5763,22 +5769,22 @@
         <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D167" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E167" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G167" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H167" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5789,22 +5795,22 @@
         <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D168" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E168" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F168" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G168" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H168" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5815,22 +5821,22 @@
         <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D169" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E169" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F169" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G169" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H169" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5844,19 +5850,19 @@
         <v>71</v>
       </c>
       <c r="D170" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E170" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F170" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G170" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H170" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5867,22 +5873,22 @@
         <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D171" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E171" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F171" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G171" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H171" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5893,22 +5899,22 @@
         <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D172" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E172" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F172" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G172" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H172" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5919,22 +5925,22 @@
         <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D173" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E173" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F173" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G173" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H173" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5948,19 +5954,19 @@
         <v>34</v>
       </c>
       <c r="D174" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E174" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F174" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G174" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H174" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5971,22 +5977,22 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D175" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E175" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F175" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G175" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H175" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6000,19 +6006,19 @@
         <v>17</v>
       </c>
       <c r="D176" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="E176" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F176" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G176" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H176" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6023,22 +6029,22 @@
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D177" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E177" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F177" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G177" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H177" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6049,22 +6055,22 @@
         <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D178" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E178" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F178" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G178" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H178" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6078,19 +6084,19 @@
         <v>35</v>
       </c>
       <c r="D179" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E179" t="s">
         <v>21</v>
       </c>
       <c r="F179" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G179" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H179" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6101,22 +6107,22 @@
         <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D180" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E180" t="s">
         <v>21</v>
       </c>
       <c r="F180" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G180" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H180" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6127,22 +6133,22 @@
         <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D181" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E181" t="s">
         <v>21</v>
       </c>
       <c r="F181" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G181" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H181" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6156,19 +6162,19 @@
         <v>93</v>
       </c>
       <c r="D182" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E182" t="s">
         <v>21</v>
       </c>
       <c r="F182" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G182" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H182" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6182,19 +6188,19 @@
         <v>18</v>
       </c>
       <c r="D183" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E183" t="s">
         <v>21</v>
       </c>
       <c r="F183" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G183" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H183" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6208,19 +6214,19 @@
         <v>94</v>
       </c>
       <c r="D184" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E184" t="s">
         <v>21</v>
       </c>
       <c r="F184" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G184" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H184" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6234,19 +6240,19 @@
         <v>41</v>
       </c>
       <c r="D185" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E185" t="s">
         <v>21</v>
       </c>
       <c r="F185" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G185" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H185" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6260,19 +6266,19 @@
         <v>40</v>
       </c>
       <c r="D186" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E186" t="s">
         <v>21</v>
       </c>
       <c r="F186" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G186" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H186" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6286,19 +6292,19 @@
         <v>71</v>
       </c>
       <c r="D187" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E187" t="s">
         <v>21</v>
       </c>
       <c r="F187" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G187" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H187" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6312,19 +6318,19 @@
         <v>95</v>
       </c>
       <c r="D188" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E188" t="s">
         <v>21</v>
       </c>
       <c r="F188" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G188" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H188" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6338,19 +6344,19 @@
         <v>17</v>
       </c>
       <c r="D189" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E189" t="s">
         <v>21</v>
       </c>
       <c r="F189" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G189" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H189" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6361,22 +6367,22 @@
         <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D190" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E190" t="s">
         <v>21</v>
       </c>
       <c r="F190" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G190" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H190" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6390,19 +6396,19 @@
         <v>42</v>
       </c>
       <c r="D191" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E191" t="s">
         <v>21</v>
       </c>
       <c r="F191" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G191" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H191" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6416,19 +6422,19 @@
         <v>96</v>
       </c>
       <c r="D192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E192" t="s">
         <v>21</v>
       </c>
       <c r="F192" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G192" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H192" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6442,19 +6448,19 @@
         <v>95</v>
       </c>
       <c r="D193" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E193" t="s">
         <v>21</v>
       </c>
       <c r="F193" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G193" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H193" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6465,22 +6471,22 @@
         <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D194" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E194" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F194" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G194" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H194" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6491,22 +6497,22 @@
         <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D195" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E195" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F195" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G195" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H195" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6517,22 +6523,22 @@
         <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D196" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E196" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F196" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G196" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H196" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6543,22 +6549,22 @@
         <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D197" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E197" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F197" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G197" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H197" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6569,22 +6575,22 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D198" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E198" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F198" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G198" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H198" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6598,19 +6604,19 @@
         <v>99</v>
       </c>
       <c r="D199" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E199" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F199" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G199" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H199" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6621,22 +6627,22 @@
         <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D200" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E200" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F200" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G200" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H200" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6650,19 +6656,19 @@
         <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>273</v>
+        <v>176</v>
       </c>
       <c r="E201" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F201" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G201" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H201" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6676,19 +6682,19 @@
         <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E202" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F202" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G202" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H202" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6702,19 +6708,19 @@
         <v>100</v>
       </c>
       <c r="D203" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E203" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F203" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G203" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H203" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6728,19 +6734,19 @@
         <v>70</v>
       </c>
       <c r="D204" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E204" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F204" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G204" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H204" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6754,19 +6760,19 @@
         <v>101</v>
       </c>
       <c r="D205" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E205" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F205" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G205" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H205" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6780,19 +6786,19 @@
         <v>102</v>
       </c>
       <c r="D206" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E206" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F206" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G206" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H206" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6803,22 +6809,22 @@
         <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D207" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E207" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F207" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G207" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H207" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6829,22 +6835,22 @@
         <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D208" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E208" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F208" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G208" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H208" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6858,19 +6864,19 @@
         <v>38</v>
       </c>
       <c r="D209" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E209" t="s">
         <v>18</v>
       </c>
       <c r="F209" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G209" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H209" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6881,22 +6887,22 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D210" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E210" t="s">
         <v>18</v>
       </c>
       <c r="F210" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G210" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H210" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6910,19 +6916,19 @@
         <v>40</v>
       </c>
       <c r="D211" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E211" t="s">
         <v>18</v>
       </c>
       <c r="F211" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G211" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H211" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6936,19 +6942,19 @@
         <v>18</v>
       </c>
       <c r="D212" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E212" t="s">
         <v>18</v>
       </c>
       <c r="F212" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G212" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H212" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6959,22 +6965,22 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D213" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E213" t="s">
         <v>18</v>
       </c>
       <c r="F213" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G213" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H213" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6985,22 +6991,22 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D214" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E214" t="s">
         <v>18</v>
       </c>
       <c r="F214" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G214" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H214" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7011,22 +7017,22 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D215" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E215" t="s">
         <v>18</v>
       </c>
       <c r="F215" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G215" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H215" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7037,22 +7043,22 @@
         <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D216" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E216" t="s">
         <v>18</v>
       </c>
       <c r="F216" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G216" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H216" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7063,22 +7069,22 @@
         <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D217" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E217" t="s">
         <v>18</v>
       </c>
       <c r="F217" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G217" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H217" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7089,22 +7095,22 @@
         <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D218" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E218" t="s">
         <v>18</v>
       </c>
       <c r="F218" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G218" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H218" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7115,22 +7121,22 @@
         <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D219" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E219" t="s">
         <v>18</v>
       </c>
       <c r="F219" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G219" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H219" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7141,22 +7147,22 @@
         <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D220" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E220" t="s">
         <v>18</v>
       </c>
       <c r="F220" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G220" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H220" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7167,22 +7173,22 @@
         <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D221" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E221" t="s">
         <v>18</v>
       </c>
       <c r="F221" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G221" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H221" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7193,22 +7199,22 @@
         <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D222" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E222" t="s">
         <v>18</v>
       </c>
       <c r="F222" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G222" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H222" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7219,22 +7225,22 @@
         <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D223" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E223" t="s">
         <v>18</v>
       </c>
       <c r="F223" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G223" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H223" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7245,22 +7251,22 @@
         <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D224" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E224" t="s">
         <v>18</v>
       </c>
       <c r="F224" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G224" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H224" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7271,22 +7277,22 @@
         <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D225" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E225" t="s">
         <v>18</v>
       </c>
       <c r="F225" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G225" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H225" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H230"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,12 +657,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>834794.82</t>
+          <t>842794.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +741,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>566</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1547509.46</t>
+          <t>1549509.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +783,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>49600.00</t>
+          <t>51600.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -841,12 +909,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>322000.00</t>
+          <t>324000.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,12 +993,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>168390.00</t>
+          <t>170688.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1051,12 +1119,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>351000.00</t>
+          <t>354500.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1161,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1135,12 +1203,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>67391.77</t>
+          <t>71391.77</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1177,12 +1245,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94500.00</t>
+          <t>108000.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1287,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>216825.00</t>
+          <t>248325.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1329,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1371,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>410165.66</t>
+          <t>440665.66</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1413,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>62000.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1365,12 +1433,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1455,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>65500.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1407,12 +1475,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1502,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1449,12 +1517,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1539,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>17500.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1491,12 +1559,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -1513,12 +1581,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>47000.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1533,12 +1601,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1623,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>71000.00</t>
+          <t>53000.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1575,12 +1643,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -1597,32 +1665,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>35000.00</t>
+          <t>77000.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bretagne</t>
+          <t>Bourgogne-Franche-Comté</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1707,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>74000.00</t>
+          <t>35000.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1659,12 +1727,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1749,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>85945.00</t>
+          <t>74000.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1701,12 +1769,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -1723,12 +1791,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>414908.00</t>
+          <t>85945.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1743,12 +1811,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1833,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>21500.00</t>
+          <t>414908.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1785,12 +1853,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1875,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>864496.00</t>
+          <t>21500.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1827,12 +1895,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1917,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>864496.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1869,12 +1937,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1959,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1911,12 +1979,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -1933,12 +2001,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1953,12 +2021,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -1975,12 +2043,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>95500.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1995,12 +2063,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2085,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>55500.00</t>
+          <t>95500.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2037,12 +2105,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2127,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>58350.00</t>
+          <t>55500.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2079,12 +2147,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2169,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>74551.38</t>
+          <t>58350.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2121,12 +2189,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2211,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>145893.00</t>
+          <t>74551.38</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2163,12 +2231,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -2185,32 +2253,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>32500.00</t>
+          <t>145893.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Centre-Val de Loire</t>
+          <t>Bretagne</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2295,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>58000.00</t>
+          <t>32500.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2247,12 +2315,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2337,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>118753.26</t>
+          <t>58000.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2289,12 +2357,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2379,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>255968.33</t>
+          <t>118753.26</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2331,12 +2399,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -2353,12 +2421,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>44100.00</t>
+          <t>255968.33</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2373,12 +2441,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2463,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>554975.00</t>
+          <t>44100.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2415,12 +2483,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2505,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>13100.00</t>
+          <t>560975.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2457,12 +2525,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -2479,12 +2547,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>13100.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2499,12 +2567,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2589,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2541,12 +2609,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2631,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>62500.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2651,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2673,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>25000.00</t>
+          <t>62500.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2625,12 +2693,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2715,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>51000.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2667,12 +2735,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2757,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>51000.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2777,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2799,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>100456.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2751,12 +2819,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2841,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>128500.00</t>
+          <t>104456.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2861,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -2815,32 +2883,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>23000.00</t>
+          <t>128500.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Corse</t>
+          <t>Centre-Val de Loire</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2925,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>23000.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2877,12 +2945,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -2899,12 +2967,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>65000.00</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2919,12 +2987,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -2941,12 +3009,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>133500.00</t>
+          <t>65000.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +3029,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -2983,12 +3051,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>241336.66</t>
+          <t>133500.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3071,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3093,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>241336.66</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3113,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3135,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>23500.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3155,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3177,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>84500.00</t>
+          <t>23500.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3197,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3219,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>26500.00</t>
+          <t>84500.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3239,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3261,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13000.00</t>
+          <t>26500.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3281,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3303,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>17500.00</t>
+          <t>13000.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3323,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -3277,32 +3345,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>23000.00</t>
+          <t>17500.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3387,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>80500.00</t>
+          <t>23000.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3407,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3429,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>171987.00</t>
+          <t>80500.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3449,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3471,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>436402.00</t>
+          <t>177987.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3491,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3513,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>43000.00</t>
+          <t>436402.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3533,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3555,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>875025.74</t>
+          <t>43000.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3575,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3597,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>875025.74</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3617,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3644,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3659,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3681,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>24500.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3701,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3723,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>123200.00</t>
+          <t>24500.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3743,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3765,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>58000.00</t>
+          <t>123200.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3785,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3807,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>79500.00</t>
+          <t>58000.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3827,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3849,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>79500.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3869,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3891,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>101829.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3911,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3933,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>180500.00</t>
+          <t>103829.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3953,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -3907,32 +3975,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>182500.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -3949,12 +4017,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>107495.14</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +4037,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -3991,12 +4059,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>107500.00</t>
+          <t>107495.14</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4079,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4101,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>193000.00</t>
+          <t>107500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4121,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4143,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>193000.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4163,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4185,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>207000.00</t>
+          <t>35500.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4205,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4227,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>22500.00</t>
+          <t>207000.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4247,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4269,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>22500.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4289,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4311,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4331,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4353,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>70500.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4373,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4395,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>114500.00</t>
+          <t>70500.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4415,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4437,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>30200.00</t>
+          <t>114500.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4457,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4479,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>30200.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4499,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4521,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>33000.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4541,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4563,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>79500.00</t>
+          <t>33000.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4583,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -4537,32 +4605,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>22500.00</t>
+          <t>79500.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4647,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>22500.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4667,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4689,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>9000.00</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4641,12 +4709,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4731,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22500.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4683,12 +4751,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4773,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>22500.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4725,12 +4793,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -4752,7 +4820,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4767,12 +4835,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4862,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4809,12 +4877,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -4831,12 +4899,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4851,12 +4919,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4941,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4893,12 +4961,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -4915,32 +4983,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -4957,12 +5025,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>68000.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4977,12 +5045,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -4999,12 +5067,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>144877.00</t>
+          <t>68000.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5019,12 +5087,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5109,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>513500.00</t>
+          <t>144877.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5061,12 +5129,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5151,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>85471.58</t>
+          <t>513500.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5103,12 +5171,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5193,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>822328.55</t>
+          <t>85471.58</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5145,12 +5213,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5235,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>9000.00</t>
+          <t>822328.55</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5187,12 +5255,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5209,12 +5277,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5229,12 +5297,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5251,12 +5319,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>62500.00</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5271,12 +5339,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -5293,12 +5361,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>148000.00</t>
+          <t>62500.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5313,12 +5381,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5335,12 +5403,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>61079.76</t>
+          <t>148000.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5355,12 +5423,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5445,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>98220.65</t>
+          <t>61079.76</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5397,12 +5465,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5487,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>98220.65</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5439,12 +5507,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5529,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>98271.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5481,12 +5549,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5571,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>198500.00</t>
+          <t>98271.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5523,12 +5591,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5545,32 +5613,32 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>198500.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5587,12 +5655,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>392070.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5607,12 +5675,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5697,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>392070.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5649,12 +5717,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5671,19 +5739,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>8000.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>26500.00</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F127" t="inlineStr">
         <is>
           <t>Île-de-France</t>
@@ -5691,12 +5759,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
     </row>
@@ -5713,12 +5781,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1085300.00</t>
+          <t>26500.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5733,12 +5801,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -5755,12 +5823,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1311</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>3326842.03</t>
+          <t>1085300.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5775,12 +5843,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -5797,12 +5865,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1187</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2530672.41</t>
+          <t>3326842.03</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5817,12 +5885,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5907,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>1187</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>4319965.00</t>
+          <t>2530672.41</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5859,12 +5927,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5949,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>530500.00</t>
+          <t>4319965.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5901,12 +5969,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5923,12 +5991,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>228500.00</t>
+          <t>530500.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5943,12 +6011,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5965,12 +6033,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>423000.00</t>
+          <t>228500.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5985,12 +6053,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6007,12 +6075,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1702830.00</t>
+          <t>423000.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6027,12 +6095,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6049,12 +6117,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>725</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>775226.00</t>
+          <t>1702830.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6069,12 +6137,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6091,12 +6159,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>328</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>574280.00</t>
+          <t>775226.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6111,12 +6179,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6133,12 +6201,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>252</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>258000.00</t>
+          <t>574280.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6153,12 +6221,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6175,12 +6243,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>521280.00</t>
+          <t>258000.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6195,12 +6263,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6285,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1471000.00</t>
+          <t>521280.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6237,12 +6305,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6259,32 +6327,32 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>665</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>1471000.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6301,12 +6369,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>110000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6321,12 +6389,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -6343,12 +6411,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>96500.00</t>
+          <t>110000.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6363,12 +6431,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -6385,12 +6453,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>270500.00</t>
+          <t>96500.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6405,12 +6473,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6427,12 +6495,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>270500.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6447,12 +6515,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6469,12 +6537,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>177000.00</t>
+          <t>38000.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6489,12 +6557,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6579,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>177000.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6531,12 +6599,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6553,12 +6621,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6573,12 +6641,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -6595,12 +6663,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6615,12 +6683,12 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6637,12 +6705,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>101000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6657,12 +6725,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6679,12 +6747,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>63984.00</t>
+          <t>101000.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6699,12 +6767,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6721,12 +6789,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>63984.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6741,12 +6809,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6763,12 +6831,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6783,12 +6851,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6805,12 +6873,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>25000.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6825,12 +6893,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -6847,12 +6915,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>114000.00</t>
+          <t>25000.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6867,12 +6935,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6889,32 +6957,32 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>37441.00</t>
+          <t>114000.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6936,7 +7004,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>37441.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6951,12 +7019,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -6973,12 +7041,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>113619.00</t>
+          <t>35500.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6993,12 +7061,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7015,12 +7083,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>354500.00</t>
+          <t>113619.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7035,12 +7103,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7057,12 +7125,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>354500.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7077,12 +7145,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7167,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>513121.81</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7119,12 +7187,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7209,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>513121.81</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7161,12 +7229,12 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7183,12 +7251,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7203,12 +7271,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7293,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7245,12 +7313,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7267,12 +7335,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>84862.79</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7287,12 +7355,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7309,12 +7377,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>84862.79</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7329,12 +7397,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7419,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>32000.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7371,12 +7439,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7393,12 +7461,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>18500.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7413,12 +7481,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7435,12 +7503,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>78000.00</t>
+          <t>18500.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7455,12 +7523,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7477,12 +7545,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>121500.00</t>
+          <t>78000.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7497,12 +7565,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7519,7 +7587,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7529,22 +7597,22 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7629,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>126153.50</t>
+          <t>121500.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7581,12 +7649,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7603,12 +7671,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>265000.00</t>
+          <t>126153.50</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7623,12 +7691,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7713,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>814642.00</t>
+          <t>265000.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7665,12 +7733,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7755,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>65500.00</t>
+          <t>816642.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7707,12 +7775,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7729,12 +7797,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1497302.79</t>
+          <t>65500.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7749,12 +7817,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7839,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>504</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>55000.00</t>
+          <t>1502802.79</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7791,12 +7859,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7813,12 +7881,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>55000.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7833,12 +7901,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7923,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>62000.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7875,12 +7943,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7965,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>357013.56</t>
+          <t>62000.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7917,12 +7985,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7939,12 +8007,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>120426.00</t>
+          <t>357013.56</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7959,12 +8027,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7981,12 +8049,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>140000.00</t>
+          <t>120426.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8001,12 +8069,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8023,12 +8091,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>140000.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8043,12 +8111,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8133,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>213855.29</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8085,12 +8153,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8175,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>250696.77</t>
+          <t>213855.29</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8127,12 +8195,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8149,32 +8217,32 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>92000.00</t>
+          <t>250696.77</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8259,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>111500.00</t>
+          <t>92000.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8211,12 +8279,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8301,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>310120.07</t>
+          <t>111500.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8253,12 +8321,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8343,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>798828.00</t>
+          <t>310120.07</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8295,12 +8363,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8385,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>64000.00</t>
+          <t>798828.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8337,12 +8405,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8359,12 +8427,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1364130.76</t>
+          <t>64000.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8379,12 +8447,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8469,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>35000.00</t>
+          <t>1364130.76</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8421,12 +8489,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8511,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>35000.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8463,12 +8531,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8553,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>93400.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8505,12 +8573,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8595,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>291000.00</t>
+          <t>93400.00</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8547,12 +8615,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8637,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>77000.00</t>
+          <t>291000.00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8589,12 +8657,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8611,12 +8679,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>107500.00</t>
+          <t>77000.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8631,12 +8699,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8721,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>107500.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8673,12 +8741,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8763,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>161000.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8715,12 +8783,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8805,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>295000.00</t>
+          <t>161000.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8757,12 +8825,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8779,32 +8847,32 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>295000.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8889,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>52000.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8841,12 +8909,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8931,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>133000.00</t>
+          <t>57000.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8883,12 +8951,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8973,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>357405.00</t>
+          <t>133000.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8925,12 +8993,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8947,12 +9015,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>363405.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8967,12 +9035,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8989,12 +9057,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>658309.01</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9009,12 +9077,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9099,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>11000.00</t>
+          <t>663809.01</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9051,12 +9119,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9073,12 +9141,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>11000.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9093,12 +9161,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9183,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9135,12 +9203,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9157,12 +9225,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>164272.09</t>
+          <t>28000.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9177,12 +9245,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9267,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>40587.00</t>
+          <t>166272.09</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9219,12 +9287,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9309,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>56500.00</t>
+          <t>40587.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9261,12 +9329,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9351,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9303,12 +9371,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9393,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>91000.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9345,12 +9413,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9435,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>139500.00</t>
+          <t>95000.00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9387,12 +9455,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9409,32 +9477,32 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>44000.00</t>
+          <t>143500.00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9519,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>172038.00</t>
+          <t>44000.00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9471,12 +9539,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9561,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>325700.00</t>
+          <t>172038.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9513,12 +9581,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9603,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>1044000.00</t>
+          <t>325700.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9555,12 +9623,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9645,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>406</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>135500.00</t>
+          <t>1044000.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9597,12 +9665,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9687,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>1909320.00</t>
+          <t>135500.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9639,12 +9707,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9661,12 +9729,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>744</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>1909320.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9681,12 +9749,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9771,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>39000.00</t>
+          <t>63500.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9723,12 +9791,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9813,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>146000.00</t>
+          <t>39000.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9765,12 +9833,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9855,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>335777.50</t>
+          <t>146000.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9807,12 +9875,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9897,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>234700.00</t>
+          <t>335777.50</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9849,12 +9917,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9871,12 +9939,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>149500.00</t>
+          <t>234700.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9891,12 +9959,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9913,12 +9981,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>55000.00</t>
+          <t>149500.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9933,12 +10001,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9955,12 +10023,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>174700.00</t>
+          <t>55000.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9975,12 +10043,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9997,30 +10065,72 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>174700.00</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
           <t>187</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
+      <c r="D231" t="inlineStr">
         <is>
           <t>396500.00</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="H231" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>194120.00</t>
+          <t>197620.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>322386.40</t>
+          <t>327886.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>327</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>854794.82</t>
+          <t>862794.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>105000.00</t>
+          <t>109000.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>600</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1688500.43</t>
+          <t>1786500.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>139900.00</t>
+          <t>143400.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>182688.98</t>
+          <t>198688.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>288761.32</t>
+          <t>308861.32</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>358100.00</t>
+          <t>362100.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>282325.00</t>
+          <t>284325.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>886496.00</t>
+          <t>933034.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>22000.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>95500.00</t>
+          <t>103500.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>65500.00</t>
+          <t>67500.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>145893.00</t>
+          <t>147893.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>255968.33</t>
+          <t>257968.33</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>44100.00</t>
+          <t>46100.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>560975.00</t>
+          <t>596975.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>13100.00</t>
+          <t>20684.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>62500.00</t>
+          <t>66500.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>104456.00</t>
+          <t>114456.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>183487.00</t>
+          <t>186987.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>436402.00</t>
+          <t>440402.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>49991.00</t>
+          <t>51991.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>947014.74</t>
+          <t>1022140.74</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>123200.00</t>
+          <t>127200.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>58000.00</t>
+          <t>79127.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>79500.00</t>
+          <t>81500.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>117889.00</t>
+          <t>119889.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>144877.00</t>
+          <t>146877.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>513500.00</t>
+          <t>515500.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5209,12 +5209,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>85471.58</t>
+          <t>95647.58</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>842626.55</t>
+          <t>907312.55</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>9000.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>62500.00</t>
+          <t>66500.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>150000.00</t>
+          <t>154000.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>61079.76</t>
+          <t>63079.76</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>98220.65</t>
+          <t>101720.65</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>108271.00</t>
+          <t>131651.77</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>198500.00</t>
+          <t>200500.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -7015,32 +7015,32 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>37441.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>37441.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7077,12 +7077,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7099,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>113619.00</t>
+          <t>35500.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7119,12 +7119,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>354500.00</t>
+          <t>113619.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7161,12 +7161,12 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7183,12 +7183,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>354500.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7225,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>513121.81</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7245,12 +7245,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7267,12 +7267,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>513121.81</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7287,12 +7287,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7309,12 +7309,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7329,12 +7329,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7351,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7393,12 +7393,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>84862.79</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7413,12 +7413,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7435,12 +7435,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>84862.79</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7455,12 +7455,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7477,12 +7477,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>32000.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7497,12 +7497,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7519,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>18500.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7539,12 +7539,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7561,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>78000.00</t>
+          <t>18500.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7603,12 +7603,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>121500.00</t>
+          <t>78000.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7655,22 +7655,22 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7687,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>126153.50</t>
+          <t>123500.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7707,12 +7707,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7729,12 +7729,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>265000.00</t>
+          <t>126153.50</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7749,12 +7749,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7771,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>820142.00</t>
+          <t>265000.00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7791,12 +7791,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7813,12 +7813,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>65500.00</t>
+          <t>826142.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7833,12 +7833,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7855,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1502802.79</t>
+          <t>75500.00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7875,12 +7875,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>521</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>55000.00</t>
+          <t>1628939.79</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7917,12 +7917,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7939,12 +7939,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>65000.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>62000.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8001,12 +8001,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8023,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>357013.56</t>
+          <t>65500.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>120426.00</t>
+          <t>359013.56</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8107,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>140000.00</t>
+          <t>120426.00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8127,12 +8127,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8149,12 +8149,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>140000.00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8169,12 +8169,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>213855.29</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>250696.77</t>
+          <t>243287.13</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8253,12 +8253,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8275,32 +8275,32 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>96000.00</t>
+          <t>252696.77</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>123500.00</t>
+          <t>96000.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8337,12 +8337,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8359,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>332120.07</t>
+          <t>123500.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8379,12 +8379,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>862828.00</t>
+          <t>332120.07</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8421,12 +8421,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>72000.00</t>
+          <t>862828.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>1436630.76</t>
+          <t>72000.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8505,12 +8505,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>1436630.76</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8589,12 +8589,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>97400.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8631,12 +8631,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>303000.00</t>
+          <t>97400.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8673,12 +8673,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>85000.00</t>
+          <t>303000.00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8715,12 +8715,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>118500.00</t>
+          <t>85000.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8757,12 +8757,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>51500.00</t>
+          <t>118500.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>172500.00</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>305000.00</t>
+          <t>172500.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8905,32 +8905,32 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>305000.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>57000.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8967,12 +8967,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8989,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>144000.00</t>
+          <t>57000.00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9009,12 +9009,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>388405.00</t>
+          <t>144000.00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9051,12 +9051,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9073,12 +9073,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>388405.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9093,12 +9093,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>825056.92</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9135,12 +9135,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>825056.92</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9177,12 +9177,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9219,12 +9219,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9241,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>31112.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9283,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>173687.09</t>
+          <t>31112.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>42587.00</t>
+          <t>173687.09</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9345,12 +9345,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9367,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>42587.00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9387,12 +9387,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>63500.00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>121850.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>145500.00</t>
+          <t>121850.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9535,32 +9535,32 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>44000.00</t>
+          <t>145500.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>172038.00</t>
+          <t>44000.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9597,12 +9597,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>325700.00</t>
+          <t>172038.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9639,12 +9639,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9661,12 +9661,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>1044000.00</t>
+          <t>325700.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9681,12 +9681,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>406</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>135500.00</t>
+          <t>1044000.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>1909320.00</t>
+          <t>135500.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9765,12 +9765,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9787,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>744</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>1909320.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9807,12 +9807,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>39000.00</t>
+          <t>63500.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9849,12 +9849,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9871,12 +9871,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>146000.00</t>
+          <t>39000.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9891,12 +9891,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>335777.50</t>
+          <t>146000.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9933,12 +9933,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>234700.00</t>
+          <t>335777.50</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9975,12 +9975,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9997,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>149500.00</t>
+          <t>234700.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10017,12 +10017,12 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>55000.00</t>
+          <t>149500.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10059,12 +10059,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10081,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>174700.00</t>
+          <t>55000.00</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10101,12 +10101,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -10123,30 +10123,72 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>174700.00</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
           <t>187</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
+      <c r="D234" t="inlineStr">
         <is>
           <t>396500.00</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
+      <c r="H234" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>197620.00</t>
+          <t>217620.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>332</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>862794.82</t>
+          <t>875794.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>606</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1786500.43</t>
+          <t>1840000.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>62770.00</t>
+          <t>69770.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>324000.00</t>
+          <t>326000.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>143400.00</t>
+          <t>145400.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>308861.32</t>
+          <t>313861.32</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>32500.00</t>
+          <t>42500.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>257968.33</t>
+          <t>267468.33</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>596975.00</t>
+          <t>630880.45</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>20684.00</t>
+          <t>24184.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>128500.00</t>
+          <t>134500.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>13000.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>36500.00</t>
+          <t>46000.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>37350.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>73623.00</t>
+          <t>173258.15</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>21500.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>24487.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4935,12 +4935,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>23965.92</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4977,12 +4977,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>34706.00</t>
+          <t>28965.92</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5019,12 +5019,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5041,32 +5041,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>44706.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>68000.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>146877.00</t>
+          <t>74500.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5145,12 +5145,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>515500.00</t>
+          <t>148877.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5187,12 +5187,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -5209,12 +5209,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>95647.58</t>
+          <t>519500.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>907312.55</t>
+          <t>110547.58</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5271,12 +5271,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>992861.07</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5313,12 +5313,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5355,12 +5355,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>66500.00</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5397,12 +5397,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>154000.00</t>
+          <t>66500.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5439,12 +5439,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>63079.76</t>
+          <t>176751.79</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5481,12 +5481,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>101720.65</t>
+          <t>83079.76</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5523,12 +5523,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>101720.65</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5565,12 +5565,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>131651.77</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5607,12 +5607,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>200500.00</t>
+          <t>141651.77</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5649,12 +5649,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5671,32 +5671,32 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>200500.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>392070.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>392070.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5797,19 +5797,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>8000.00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>26500.00</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>Île-de-France</t>
@@ -5817,12 +5817,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1085300.00</t>
+          <t>26500.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5859,12 +5859,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1311</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>3326842.03</t>
+          <t>1085300.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5901,12 +5901,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1187</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2530672.41</t>
+          <t>3330842.03</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5943,12 +5943,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>1193</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>4319965.00</t>
+          <t>2542672.41</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5985,12 +5985,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>530500.00</t>
+          <t>4331965.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6027,12 +6027,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6049,12 +6049,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>228500.00</t>
+          <t>532500.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -6091,12 +6091,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>423000.00</t>
+          <t>230500.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6111,12 +6111,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1702830.00</t>
+          <t>423000.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6153,12 +6153,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>728</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>775226.00</t>
+          <t>1708830.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6195,12 +6195,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>574280.00</t>
+          <t>777226.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6237,12 +6237,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>252</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>258000.00</t>
+          <t>574280.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6279,12 +6279,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>521280.00</t>
+          <t>258000.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6321,12 +6321,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1471000.00</t>
+          <t>523280.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6363,12 +6363,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6385,32 +6385,32 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>665</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>1471000.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>110000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6447,12 +6447,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>96500.00</t>
+          <t>110000.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6489,12 +6489,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>270500.00</t>
+          <t>96500.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>270500.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6573,12 +6573,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>177000.00</t>
+          <t>38000.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6615,12 +6615,12 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>177000.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6657,12 +6657,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6679,12 +6679,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6699,12 +6699,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -6721,12 +6721,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6741,12 +6741,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6763,12 +6763,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>101000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6783,12 +6783,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6805,12 +6805,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>63984.00</t>
+          <t>101000.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6825,12 +6825,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6847,12 +6847,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>63984.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6889,12 +6889,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6909,12 +6909,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>25000.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6951,12 +6951,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -6973,12 +6973,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>114000.00</t>
+          <t>25000.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6993,12 +6993,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7015,32 +7015,32 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>114000.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7057,32 +7057,32 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>37441.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>37441.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7119,12 +7119,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>113619.00</t>
+          <t>35500.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7161,12 +7161,12 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7183,12 +7183,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>354500.00</t>
+          <t>113619.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7225,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>354500.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7245,12 +7245,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7267,12 +7267,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>513121.81</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7287,12 +7287,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7309,12 +7309,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>513121.81</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7329,12 +7329,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7351,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7393,12 +7393,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7413,12 +7413,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7435,12 +7435,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>84862.79</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7455,12 +7455,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7477,12 +7477,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>84862.79</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7497,12 +7497,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7519,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>32000.00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7539,12 +7539,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7561,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>18500.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7603,12 +7603,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>78000.00</t>
+          <t>18500.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7645,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>121500.00</t>
+          <t>78000.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7665,12 +7665,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7687,32 +7687,32 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>123500.00</t>
+          <t>121500.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7729,12 +7729,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>126153.50</t>
+          <t>123500.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7749,12 +7749,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7771,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>265000.00</t>
+          <t>128153.50</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7791,12 +7791,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7813,12 +7813,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>826142.00</t>
+          <t>269000.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7833,12 +7833,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7855,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>318</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>75500.00</t>
+          <t>835142.00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7875,12 +7875,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1628939.79</t>
+          <t>77500.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7917,12 +7917,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7939,12 +7939,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>534</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>65000.00</t>
+          <t>1712464.91</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>65000.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8001,12 +8001,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8023,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>65500.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>359013.56</t>
+          <t>67500.00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8107,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>120426.00</t>
+          <t>384795.00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8127,12 +8127,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8149,12 +8149,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>140000.00</t>
+          <t>121926.00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8169,12 +8169,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>146000.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>243287.13</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8253,12 +8253,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8275,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>252696.77</t>
+          <t>247287.13</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8295,12 +8295,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8317,32 +8317,32 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>96000.00</t>
+          <t>257196.77</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8359,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>123500.00</t>
+          <t>96000.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8379,12 +8379,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>332120.07</t>
+          <t>123500.00</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8421,12 +8421,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>862828.00</t>
+          <t>332120.07</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>72000.00</t>
+          <t>862828.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8505,12 +8505,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>1436630.76</t>
+          <t>72000.00</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>1436630.76</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8589,12 +8589,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8631,12 +8631,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>97400.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8673,12 +8673,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>303000.00</t>
+          <t>97400.00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8715,12 +8715,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>85000.00</t>
+          <t>303000.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8757,12 +8757,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>118500.00</t>
+          <t>85000.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>51500.00</t>
+          <t>118500.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>172500.00</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>305000.00</t>
+          <t>172500.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8947,32 +8947,32 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>305000.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8989,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>57000.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9009,12 +9009,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>144000.00</t>
+          <t>57000.00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9051,12 +9051,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9073,12 +9073,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>388405.00</t>
+          <t>144000.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9093,12 +9093,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>388405.00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9135,12 +9135,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>825056.92</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9177,12 +9177,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9199,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>825056.92</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9219,12 +9219,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9283,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>31112.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>173687.09</t>
+          <t>31112.00</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9345,12 +9345,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9367,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>42587.00</t>
+          <t>173687.09</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9387,12 +9387,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>42587.00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>63500.00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>121850.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9535,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>145500.00</t>
+          <t>121850.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9555,12 +9555,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9577,32 +9577,32 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>44000.00</t>
+          <t>145500.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>172038.00</t>
+          <t>44000.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9639,12 +9639,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9661,12 +9661,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>325700.00</t>
+          <t>172038.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9681,12 +9681,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>1044000.00</t>
+          <t>325700.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>406</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>135500.00</t>
+          <t>1044000.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9765,12 +9765,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9787,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>1909320.00</t>
+          <t>135500.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9807,12 +9807,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>744</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>1909320.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9849,12 +9849,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9871,12 +9871,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>39000.00</t>
+          <t>63500.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9891,12 +9891,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>146000.00</t>
+          <t>39000.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9933,12 +9933,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>335777.50</t>
+          <t>146000.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9975,12 +9975,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9997,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>234700.00</t>
+          <t>335777.50</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10017,12 +10017,12 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>149500.00</t>
+          <t>234700.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10059,12 +10059,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10081,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>55000.00</t>
+          <t>149500.00</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10101,12 +10101,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10123,12 +10123,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>174700.00</t>
+          <t>55000.00</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -10165,30 +10165,72 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>174700.00</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
           <t>187</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
+      <c r="D235" t="inlineStr">
         <is>
           <t>396500.00</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F235" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
+      <c r="H235" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>217620.00</t>
+          <t>219620.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>28400.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>469165.66</t>
+          <t>502665.66</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1387,19 +1387,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10045.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>67500.00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>Bourgogne-Franche-Comté</t>
@@ -1407,12 +1407,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>71500.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17500.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1533,12 +1533,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>55000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>84500.00</t>
+          <t>70450.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -1639,32 +1639,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>35000.00</t>
+          <t>86500.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bretagne</t>
+          <t>Bourgogne-Franche-Comté</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>74000.00</t>
+          <t>38500.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>85945.00</t>
+          <t>74000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>417908.00</t>
+          <t>85945.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>21500.00</t>
+          <t>417908.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>933034.00</t>
+          <t>23500.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>977334.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1953,12 +1953,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>103500.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2037,12 +2037,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>67500.00</t>
+          <t>103500.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>58350.00</t>
+          <t>67500.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>78034.54</t>
+          <t>58350.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>147893.00</t>
+          <t>90034.54</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -2227,32 +2227,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>42500.00</t>
+          <t>149893.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Centre-Val de Loire</t>
+          <t>Bretagne</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>60000.00</t>
+          <t>42500.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>118753.26</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2331,12 +2331,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>267468.33</t>
+          <t>118753.26</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>46100.00</t>
+          <t>267468.33</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2415,12 +2415,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>630880.45</t>
+          <t>46100.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>24184.00</t>
+          <t>630880.45</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>24184.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>66500.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2625,12 +2625,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>66500.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2667,12 +2667,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>51000.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>51000.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>114456.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>134500.00</t>
+          <t>114456.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -2857,32 +2857,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>25000.00</t>
+          <t>134500.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Corse</t>
+          <t>Centre-Val de Loire</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>25000.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>67000.00</t>
+          <t>38000.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>148500.00</t>
+          <t>67000.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>274836.66</t>
+          <t>148500.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>274836.66</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>27500.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>92000.00</t>
+          <t>27500.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>26500.00</t>
+          <t>92000.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>26500.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>18500.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>23000.00</t>
+          <t>18500.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -3371,22 +3371,22 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>80500.00</t>
+          <t>23000.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>186987.00</t>
+          <t>80500.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>440402.00</t>
+          <t>186987.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>51991.00</t>
+          <t>440402.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1022140.74</t>
+          <t>51991.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>1022140.74</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>24500.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>127200.00</t>
+          <t>24500.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>79127.00</t>
+          <t>127200.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>81500.00</t>
+          <t>79127.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>81500.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>119889.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>182500.00</t>
+          <t>119889.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -3991,32 +3991,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>182500.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>107495.14</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>107500.00</t>
+          <t>107495.14</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>193000.00</t>
+          <t>107500.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>193000.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>207000.00</t>
+          <t>35500.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>22500.00</t>
+          <t>207000.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>22500.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>70500.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>114500.00</t>
+          <t>70500.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>30200.00</t>
+          <t>114500.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>30200.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>33000.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>79500.00</t>
+          <t>33000.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -4621,32 +4621,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>79500.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>46000.00</t>
+          <t>10551.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>37350.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>48000.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4767,12 +4767,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>173258.15</t>
+          <t>37350.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>24487.00</t>
+          <t>173258.15</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4935,12 +4935,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>24487.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4977,12 +4977,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>28965.92</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5019,12 +5019,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>44706.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5083,32 +5083,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>28965.92</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5125,32 +5125,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>74500.00</t>
+          <t>44706.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>148877.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5187,12 +5187,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -5209,12 +5209,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>519500.00</t>
+          <t>76500.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>110547.58</t>
+          <t>148877.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5271,12 +5271,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>992861.07</t>
+          <t>527000.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5313,12 +5313,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>112547.58</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5355,12 +5355,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>1155117.83</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5397,12 +5397,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>66500.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5439,12 +5439,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>176751.79</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5481,12 +5481,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>83079.76</t>
+          <t>70500.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5523,12 +5523,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>101720.65</t>
+          <t>182217.79</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5565,12 +5565,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>95079.76</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5607,12 +5607,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>141651.77</t>
+          <t>117976.65</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5649,12 +5649,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5671,12 +5671,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>200500.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -5713,32 +5713,32 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>178626.77</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5755,32 +5755,32 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>392070.00</t>
+          <t>216500.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5817,12 +5817,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -5839,19 +5839,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>394070.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>26500.00</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>Île-de-France</t>
@@ -5859,12 +5859,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1085300.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5901,12 +5901,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
     </row>
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>3330842.03</t>
+          <t>26500.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5943,12 +5943,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1193</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2542672.41</t>
+          <t>1085300.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5985,12 +5985,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>4331965.00</t>
+          <t>3330842.03</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6027,12 +6027,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6049,12 +6049,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>532500.00</t>
+          <t>2544672.41</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6091,12 +6091,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>230500.00</t>
+          <t>4331965.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6111,12 +6111,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>423000.00</t>
+          <t>537500.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6153,12 +6153,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1708830.00</t>
+          <t>230500.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6195,12 +6195,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>777226.00</t>
+          <t>423000.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6237,12 +6237,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>574280.00</t>
+          <t>1710830.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6279,12 +6279,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>258000.00</t>
+          <t>777226.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6321,12 +6321,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>252</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>523280.00</t>
+          <t>574280.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6363,12 +6363,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1471000.00</t>
+          <t>258000.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6405,12 +6405,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -6427,32 +6427,32 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>523280.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6469,32 +6469,32 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>666</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>110000.00</t>
+          <t>1473000.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>96500.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>270500.00</t>
+          <t>110000.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6573,12 +6573,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>96500.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6615,12 +6615,12 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>177000.00</t>
+          <t>270500.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6657,12 +6657,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6679,12 +6679,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>38000.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6699,12 +6699,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6721,12 +6721,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>177000.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6741,12 +6741,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6783,12 +6783,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -6805,12 +6805,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>101000.00</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6825,12 +6825,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6847,12 +6847,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>63984.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6889,12 +6889,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>101000.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6909,12 +6909,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>63984.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6951,12 +6951,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6973,12 +6973,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>25000.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6993,12 +6993,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7015,12 +7015,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>114000.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7035,12 +7035,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7057,32 +7057,32 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>25000.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7099,32 +7099,32 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>37441.00</t>
+          <t>114000.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7141,32 +7141,32 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7183,12 +7183,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>113619.00</t>
+          <t>37441.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7225,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>354500.00</t>
+          <t>35500.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7245,12 +7245,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7267,12 +7267,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>113619.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7287,12 +7287,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7309,12 +7309,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>513121.81</t>
+          <t>354500.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7329,12 +7329,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7356,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7393,12 +7393,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>513121.81</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7413,12 +7413,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7435,12 +7435,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7455,12 +7455,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7477,12 +7477,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>84862.79</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7497,12 +7497,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7519,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7539,12 +7539,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7561,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>84862.79</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7603,12 +7603,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>18500.00</t>
+          <t>32000.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7645,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>78000.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7665,12 +7665,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7687,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>121500.00</t>
+          <t>18500.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7707,12 +7707,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7729,32 +7729,32 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>123500.00</t>
+          <t>78000.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7771,32 +7771,32 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>128153.50</t>
+          <t>121500.00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7813,12 +7813,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>269000.00</t>
+          <t>123500.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7833,12 +7833,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7855,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>835142.00</t>
+          <t>128153.50</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7875,12 +7875,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>77500.00</t>
+          <t>272500.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7917,12 +7917,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7939,12 +7939,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>322</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>1712464.91</t>
+          <t>844642.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>65000.00</t>
+          <t>82300.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8001,12 +8001,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8023,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>544</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>1797064.91</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>67500.00</t>
+          <t>65000.00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8107,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>384795.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8127,12 +8127,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8149,12 +8149,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>121926.00</t>
+          <t>69500.00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8169,12 +8169,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>146000.00</t>
+          <t>386795.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>133926.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8253,12 +8253,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8275,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>247287.13</t>
+          <t>146000.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8295,12 +8295,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>257196.77</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8337,12 +8337,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8359,32 +8359,32 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>96000.00</t>
+          <t>259287.13</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8401,32 +8401,32 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>123500.00</t>
+          <t>259196.77</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>332120.07</t>
+          <t>96000.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>862828.00</t>
+          <t>128500.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8505,12 +8505,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>72000.00</t>
+          <t>332120.07</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>340</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>1436630.76</t>
+          <t>870828.00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8589,12 +8589,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>72000.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8631,12 +8631,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>556</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>1448630.76</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8673,12 +8673,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>97400.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8715,12 +8715,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>303000.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8757,12 +8757,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>85000.00</t>
+          <t>99400.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>118500.00</t>
+          <t>305000.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>51500.00</t>
+          <t>85000.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>172500.00</t>
+          <t>120500.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>305000.00</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8967,12 +8967,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8989,32 +8989,32 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>172500.00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9031,32 +9031,32 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>57000.00</t>
+          <t>305000.00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9073,12 +9073,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>144000.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9093,12 +9093,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>388405.00</t>
+          <t>57000.00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9135,12 +9135,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>144000.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9177,12 +9177,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9199,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>825056.92</t>
+          <t>388405.00</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9219,12 +9219,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9241,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9283,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>825056.92</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>31112.00</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9345,12 +9345,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9367,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>173687.09</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9387,12 +9387,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>42587.00</t>
+          <t>31112.00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>173687.09</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>42587.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9535,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>121850.00</t>
+          <t>63500.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9555,12 +9555,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>145500.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9597,12 +9597,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9619,32 +9619,32 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>44000.00</t>
+          <t>121850.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9661,32 +9661,32 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>172038.00</t>
+          <t>145500.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>325700.00</t>
+          <t>44000.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>1044000.00</t>
+          <t>172038.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9765,12 +9765,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9787,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>135500.00</t>
+          <t>325700.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9807,12 +9807,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>406</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1909320.00</t>
+          <t>1044000.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9849,12 +9849,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9871,12 +9871,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>135500.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9891,12 +9891,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>744</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>39000.00</t>
+          <t>1909320.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9933,12 +9933,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>146000.00</t>
+          <t>63500.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9975,12 +9975,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9997,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>335777.50</t>
+          <t>39000.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10017,12 +10017,12 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>234700.00</t>
+          <t>146000.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10059,12 +10059,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10081,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>149500.00</t>
+          <t>335777.50</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10101,12 +10101,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10123,12 +10123,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>55000.00</t>
+          <t>234700.00</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>174700.00</t>
+          <t>149500.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10185,12 +10185,12 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10207,30 +10207,114 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>55000.00</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Santé humaine et action sociale</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>174700.00</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
           <t>187</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
+      <c r="D237" t="inlineStr">
         <is>
           <t>396500.00</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
+      <c r="H237" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>284325.00</t>
+          <t>310325.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>502665.66</t>
+          <t>644215.95</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>71500.00</t>
+          <t>78572.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>70450.00</t>
+          <t>88731.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>86500.00</t>
+          <t>98500.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>977334.00</t>
+          <t>1007334.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>630880.45</t>
+          <t>649660.64</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>134500.00</t>
+          <t>136500.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>186987.00</t>
+          <t>188987.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1022140.74</t>
+          <t>1024140.74</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>127200.00</t>
+          <t>137200.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>79127.00</t>
+          <t>81127.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>81500.00</t>
+          <t>83500.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>119889.00</t>
+          <t>129889.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>182500.00</t>
+          <t>184500.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>17000.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>48000.00</t>
+          <t>70088.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>37350.00</t>
+          <t>41350.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>27219.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>173258.15</t>
+          <t>240558.15</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>24487.00</t>
+          <t>44267.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>34395.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>21100.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>28965.92</t>
+          <t>62965.92</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>44706.00</t>
+          <t>54556.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5209,12 +5209,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>76500.00</t>
+          <t>78500.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>148877.00</t>
+          <t>153877.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>527000.00</t>
+          <t>539000.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>112547.58</t>
+          <t>116547.58</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1155117.83</t>
+          <t>1275323.44</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>182217.79</t>
+          <t>186217.79</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>95079.76</t>
+          <t>117079.76</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>117976.65</t>
+          <t>128476.65</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>178626.77</t>
+          <t>203312.77</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>216500.00</t>
+          <t>238500.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>224</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>523280.00</t>
+          <t>526780.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -9199,12 +9199,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>388405.00</t>
+          <t>390405.00</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9283,12 +9283,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>825056.92</t>
+          <t>906256.92</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>29972.00</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9409,12 +9409,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>31112.00</t>
+          <t>33112.00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9451,12 +9451,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>173687.09</t>
+          <t>183687.09</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>42587.00</t>
+          <t>62587.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9535,12 +9535,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>72600.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>44000.00</t>
+          <t>48000.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>172038.00</t>
+          <t>180038.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9787,12 +9787,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>325700.00</t>
+          <t>335700.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9829,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>425</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1044000.00</t>
+          <t>1095753.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9871,12 +9871,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>135500.00</t>
+          <t>155500.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>785</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1909320.00</t>
+          <t>2204253.23</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>81500.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9997,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>39000.00</t>
+          <t>44000.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>146000.00</t>
+          <t>152000.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10081,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>335777.50</t>
+          <t>428594.19</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10123,12 +10123,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>234700.00</t>
+          <t>244819.00</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>149500.00</t>
+          <t>171972.92</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10207,12 +10207,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>55000.00</t>
+          <t>60500.00</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>174700.00</t>
+          <t>260230.02</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10291,12 +10291,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>396500.00</t>
+          <t>400500.00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>74000.00</t>
+          <t>76000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1007334.00</t>
+          <t>1063418.49</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>27653.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>103500.00</t>
+          <t>115500.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>67500.00</t>
+          <t>71000.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>90034.54</t>
+          <t>96034.54</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>149893.00</t>
+          <t>151893.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1024140.74</t>
+          <t>1040140.74</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>83500.00</t>
+          <t>85500.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>240558.15</t>
+          <t>250558.15</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>153877.00</t>
+          <t>157377.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>539000.00</t>
+          <t>541000.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>116547.58</t>
+          <t>128547.58</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>356</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1275323.44</t>
+          <t>1326823.44</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>186217.79</t>
+          <t>190543.68</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>117079.76</t>
+          <t>119079.76</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>128476.65</t>
+          <t>130756.65</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>203312.77</t>
+          <t>209002.77</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>41280.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>394070.00</t>
+          <t>429570.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>26500.00</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>460</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1085300.00</t>
+          <t>1140300.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>3330842.03</t>
+          <t>3710863.03</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1194</t>
+          <t>1475</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2544672.41</t>
+          <t>3484646.97</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1808</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>4331965.00</t>
+          <t>5754318.67</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>537500.00</t>
+          <t>667402.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>230500.00</t>
+          <t>238500.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>423000.00</t>
+          <t>472000.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>802</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1710830.00</t>
+          <t>2005343.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>372</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>777226.00</t>
+          <t>962766.49</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>574280.00</t>
+          <t>677106.11</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>258000.00</t>
+          <t>279500.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>526780.00</t>
+          <t>679519.41</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>705</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1473000.00</t>
+          <t>1610696.82</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7813,12 +7813,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>123500.00</t>
+          <t>135500.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7897,12 +7897,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>272500.00</t>
+          <t>279500.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7939,12 +7939,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>844642.00</t>
+          <t>856642.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7981,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>82300.00</t>
+          <t>87574.12</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8023,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>1797064.91</t>
+          <t>1875555.91</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8191,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>386795.00</t>
+          <t>392795.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8233,12 +8233,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>133926.00</t>
+          <t>143926.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8359,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>259287.13</t>
+          <t>352627.48</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>259196.77</t>
+          <t>261196.77</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>48000.00</t>
+          <t>51250.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>180038.00</t>
+          <t>185538.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9787,12 +9787,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>335700.00</t>
+          <t>341200.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9829,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>432</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1095753.00</t>
+          <t>1109753.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9871,12 +9871,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>155500.00</t>
+          <t>173288.64</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>813</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2204253.23</t>
+          <t>2433851.10</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>81500.00</t>
+          <t>85500.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9997,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>44000.00</t>
+          <t>52000.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>152000.00</t>
+          <t>158000.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10081,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>428594.19</t>
+          <t>466494.19</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10123,12 +10123,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>244819.00</t>
+          <t>269229.00</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>171972.92</t>
+          <t>177972.92</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10207,12 +10207,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>60500.00</t>
+          <t>62500.00</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>260230.02</t>
+          <t>274427.77</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10291,12 +10291,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>400500.00</t>
+          <t>410500.00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>193000.00</t>
+          <t>199000.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>207000.00</t>
+          <t>227000.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>17000.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>70500.00</t>
+          <t>78500.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>114500.00</t>
+          <t>122000.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>30200.00</t>
+          <t>32200.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>33000.00</t>
+          <t>39000.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>17000.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>70088.00</t>
+          <t>74088.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>27219.00</t>
+          <t>39219.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>250558.15</t>
+          <t>264558.15</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>34395.00</t>
+          <t>36395.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5209,12 +5209,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>78500.00</t>
+          <t>88500.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>157377.00</t>
+          <t>159377.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>541000.00</t>
+          <t>568500.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>128547.58</t>
+          <t>130547.58</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1326823.44</t>
+          <t>1414095.13</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>30300.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>190543.68</t>
+          <t>223743.68</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>119079.76</t>
+          <t>127079.76</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>130756.65</t>
+          <t>139375.82</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>209002.77</t>
+          <t>228502.77</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>238500.00</t>
+          <t>253366.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>429570.00</t>
+          <t>431570.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>465</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1140300.00</t>
+          <t>1156300.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1428</t>
+          <t>1442</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>3710863.03</t>
+          <t>3746863.03</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>3484646.97</t>
+          <t>3584218.81</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>5754318.67</t>
+          <t>5983296.04</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>667402.00</t>
+          <t>694602.04</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>472000.00</t>
+          <t>478950.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>811</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2005343.00</t>
+          <t>2050940.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>962766.49</t>
+          <t>987753.49</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>677106.11</t>
+          <t>689626.11</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>279500.00</t>
+          <t>283500.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>679519.41</t>
+          <t>697519.41</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>709</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1610696.82</t>
+          <t>1629096.82</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8023,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>557</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>1875555.91</t>
+          <t>1897555.91</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8191,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>392795.00</t>
+          <t>396795.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8359,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>352627.48</t>
+          <t>366012.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>261196.77</t>
+          <t>263196.77</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>128500.00</t>
+          <t>141500.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>332120.07</t>
+          <t>336120.07</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>355</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>870828.00</t>
+          <t>935423.34</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>72000.00</t>
+          <t>79468.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8653,12 +8653,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>1448630.76</t>
+          <t>1835678.47</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>99400.00</t>
+          <t>101400.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>305000.00</t>
+          <t>355366.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>85000.00</t>
+          <t>96150.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>120500.00</t>
+          <t>135338.97</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8989,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>172500.00</t>
+          <t>241695.20</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>305000.00</t>
+          <t>311000.00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -66,74 +66,6 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>327886.40</t>
+          <t>331886.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -657,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>875794.82</t>
+          <t>893510.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -699,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>109000.00</t>
+          <t>117000.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -741,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>614</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1840000.43</t>
+          <t>1883584.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -909,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>326000.00</t>
+          <t>328000.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -951,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>145400.00</t>
+          <t>147400.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1077,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>313861.32</t>
+          <t>325861.32</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1161,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17500.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1203,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>82391.77</t>
+          <t>86391.77</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1287,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>310325.00</t>
+          <t>322325.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1329,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>28400.00</t>
+          <t>31300.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1371,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>644215.95</t>
+          <t>782512.85</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1455,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10045.69</t>
+          <t>17495.69</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1497,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>78572.00</t>
+          <t>83572.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1539,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1581,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>23500.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1665,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>88731.00</t>
+          <t>132557.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1707,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>98500.00</t>
+          <t>106500.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1959,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>320</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1063418.49</t>
+          <t>1174976.49</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2085,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>27653.00</t>
+          <t>31653.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2127,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>115500.00</t>
+          <t>117500.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2169,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>71000.00</t>
+          <t>75000.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2211,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>58350.00</t>
+          <t>62971.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2253,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>96034.54</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2273,12 +2205,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>151893.00</t>
+          <t>96034.54</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2315,12 +2247,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -2337,32 +2269,32 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>42500.00</t>
+          <t>151893.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Centre-Val de Loire</t>
+          <t>Bretagne</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>60000.00</t>
+          <t>42500.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2399,12 +2331,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>118753.26</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2441,12 +2373,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -2463,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>267468.33</t>
+          <t>118753.26</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2483,12 +2415,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -2505,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>46100.00</t>
+          <t>267468.33</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2525,12 +2457,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -2547,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>649660.64</t>
+          <t>46100.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2567,12 +2499,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -2589,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>24184.00</t>
+          <t>649660.64</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2609,12 +2541,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2568,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>24184.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2651,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -2673,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2693,12 +2625,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -2715,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>66500.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2735,12 +2667,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -2757,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>66500.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2777,12 +2709,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -2799,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>51000.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2819,12 +2751,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>51000.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2861,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -2883,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>114456.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2903,12 +2835,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -2925,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>136500.00</t>
+          <t>114456.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2945,12 +2877,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -2967,32 +2899,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>25000.00</t>
+          <t>136500.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Corse</t>
+          <t>Centre-Val de Loire</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -3009,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>25000.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3029,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -3051,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>67000.00</t>
+          <t>38000.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3071,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>148500.00</t>
+          <t>67000.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3113,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -3135,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>274836.66</t>
+          <t>148500.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3155,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -3177,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>274836.66</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3197,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -3219,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>27500.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3239,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>92000.00</t>
+          <t>27500.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3281,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -3303,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>26500.00</t>
+          <t>92000.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3323,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -3345,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>26500.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3365,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -3387,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>18500.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3407,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -3429,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>23000.00</t>
+          <t>18500.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3449,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -3481,22 +3413,22 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -3513,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>80500.00</t>
+          <t>23000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3533,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>188987.00</t>
+          <t>84500.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3575,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -3597,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>440402.00</t>
+          <t>192487.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3617,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -3639,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>51991.00</t>
+          <t>444402.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3659,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -3681,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1040140.74</t>
+          <t>61991.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3701,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -3723,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>356</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>1164308.78</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3743,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -3765,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3785,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -3807,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>24500.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3827,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -3849,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>137200.00</t>
+          <t>24500.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3869,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -3891,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>81127.00</t>
+          <t>159200.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3911,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -3933,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>85500.00</t>
+          <t>91127.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3953,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -3975,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>85500.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3995,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -4017,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>129889.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4037,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -4059,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>184500.00</t>
+          <t>152846.08</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4079,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -4101,32 +4033,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>190500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -4143,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>107495.14</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4163,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -4185,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>107500.00</t>
+          <t>111495.14</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4205,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -4227,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>199000.00</t>
+          <t>113000.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4247,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4269,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>205000.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4289,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -4311,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>227000.00</t>
+          <t>41500.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4331,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -4353,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>22500.00</t>
+          <t>259000.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4373,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -4395,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>22500.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4415,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -4437,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>17000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4457,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -4479,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>78500.00</t>
+          <t>17000.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4499,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -4521,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>122000.00</t>
+          <t>78500.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4541,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -4563,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>32200.00</t>
+          <t>124000.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4583,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -4605,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>37700.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4625,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -4647,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>39000.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4667,12 +4599,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -4689,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>79500.00</t>
+          <t>41000.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4709,12 +4641,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -4731,32 +4663,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>10551.00</t>
+          <t>81500.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -4773,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>10551.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4793,12 +4725,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>74088.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4835,12 +4767,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>41350.00</t>
+          <t>74088.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4877,12 +4809,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4899,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>39219.00</t>
+          <t>41350.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4919,12 +4851,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -4941,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>264558.15</t>
+          <t>39219.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4961,12 +4893,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -4983,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>264558.15</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5003,12 +4935,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5025,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>44267.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5045,12 +4977,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5067,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>36395.00</t>
+          <t>44267.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5087,12 +5019,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5109,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>21100.00</t>
+          <t>36395.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5129,12 +5061,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5151,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>62965.92</t>
+          <t>21100.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5171,12 +5103,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5193,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>54556.00</t>
+          <t>62965.92</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5213,12 +5145,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5235,32 +5167,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>54556.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5277,12 +5209,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>88500.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5297,12 +5229,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -5319,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>159377.00</t>
+          <t>88500.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5339,12 +5271,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5361,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>568500.00</t>
+          <t>159377.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5381,12 +5313,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -5403,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>130547.58</t>
+          <t>568500.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5423,12 +5355,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -5445,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1414095.13</t>
+          <t>130547.58</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5465,12 +5397,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -5487,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>1414095.13</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5507,12 +5439,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5529,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>30300.00</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5549,12 +5481,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5571,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>70500.00</t>
+          <t>30300.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5591,12 +5523,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -5613,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>223743.68</t>
+          <t>70500.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5633,12 +5565,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5655,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>127079.76</t>
+          <t>223743.68</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5675,12 +5607,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5697,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>139375.82</t>
+          <t>127079.76</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5717,12 +5649,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5739,12 +5671,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>139375.82</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5759,12 +5691,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5781,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>228502.77</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5801,12 +5733,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -5823,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>253366.00</t>
+          <t>228502.77</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5843,12 +5775,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5865,32 +5797,32 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>41280.00</t>
+          <t>253366.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5907,12 +5839,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>431570.00</t>
+          <t>41280.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5927,12 +5859,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -5949,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>431570.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5969,12 +5901,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5991,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>30500.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6011,12 +5943,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
     </row>
@@ -6033,12 +5965,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1156300.00</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6053,12 +5985,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -6075,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1442</t>
+          <t>465</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>3746863.03</t>
+          <t>1156300.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6095,12 +6027,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6117,12 +6049,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>3584218.81</t>
+          <t>3748863.03</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6137,12 +6069,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6159,12 +6091,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>5983296.04</t>
+          <t>3584218.81</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6179,12 +6111,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6201,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>694602.04</t>
+          <t>5983296.04</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6221,12 +6153,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6243,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>238500.00</t>
+          <t>694602.04</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6263,12 +6195,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -6285,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>478950.00</t>
+          <t>238500.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6305,12 +6237,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6327,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2050940.00</t>
+          <t>478950.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6347,12 +6279,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6369,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>811</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>987753.49</t>
+          <t>2050940.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6389,12 +6321,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6411,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>689626.11</t>
+          <t>987753.49</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6431,12 +6363,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6453,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>283500.00</t>
+          <t>689626.11</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6473,12 +6405,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6495,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>697519.41</t>
+          <t>283500.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6515,12 +6447,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -6537,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1629096.82</t>
+          <t>697519.41</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6557,12 +6489,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6579,32 +6511,32 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>709</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>1629096.82</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6621,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>110000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6641,12 +6573,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -6663,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>96500.00</t>
+          <t>110000.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6683,12 +6615,12 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -6705,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>270500.00</t>
+          <t>96500.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6725,12 +6657,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6747,12 +6679,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>270500.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6767,12 +6699,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6789,12 +6721,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>177000.00</t>
+          <t>38000.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6809,12 +6741,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6831,12 +6763,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>177000.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6851,12 +6783,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6873,12 +6805,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6893,12 +6825,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -6915,12 +6847,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6935,12 +6867,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6957,12 +6889,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>101000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6977,12 +6909,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6999,12 +6931,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>63984.00</t>
+          <t>101000.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7019,12 +6951,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7041,12 +6973,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>63984.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7061,12 +6993,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7083,12 +7015,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7103,12 +7035,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7125,12 +7057,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>25000.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7145,12 +7077,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7167,12 +7099,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>114000.00</t>
+          <t>25000.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7187,12 +7119,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7209,32 +7141,32 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>114000.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7251,32 +7183,32 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>37441.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7298,7 +7230,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>37441.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7313,12 +7245,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7335,12 +7267,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>113619.00</t>
+          <t>35500.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7355,12 +7287,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7377,12 +7309,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>354500.00</t>
+          <t>113619.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7397,12 +7329,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7419,12 +7351,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>354500.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7439,12 +7371,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7461,12 +7393,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>513121.81</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7481,12 +7413,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7503,12 +7435,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>513121.81</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7523,12 +7455,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7545,12 +7477,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7565,12 +7497,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7587,12 +7519,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7607,12 +7539,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7629,12 +7561,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>84862.79</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7649,12 +7581,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7671,12 +7603,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>84862.79</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7691,12 +7623,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7713,12 +7645,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>32000.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7733,12 +7665,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7755,12 +7687,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>18500.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7775,12 +7707,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7797,12 +7729,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>78000.00</t>
+          <t>18500.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7817,12 +7749,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7839,12 +7771,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>121500.00</t>
+          <t>78000.00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7859,12 +7791,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7881,32 +7813,32 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>135500.00</t>
+          <t>121500.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7923,12 +7855,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>128153.50</t>
+          <t>145500.00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7943,12 +7875,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7965,12 +7897,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>279500.00</t>
+          <t>128153.50</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7985,12 +7917,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8007,12 +7939,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>856642.00</t>
+          <t>279500.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8027,12 +7959,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8049,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>326</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>87574.12</t>
+          <t>860642.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8069,12 +8001,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8091,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>1897555.91</t>
+          <t>89574.12</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8111,12 +8043,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8133,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>558</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>65000.00</t>
+          <t>1907555.91</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8153,12 +8085,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8175,12 +8107,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>65000.00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8195,12 +8127,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8217,12 +8149,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>69500.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8237,12 +8169,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8259,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>396795.00</t>
+          <t>73000.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8279,12 +8211,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8301,12 +8233,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>143926.00</t>
+          <t>396795.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8321,12 +8253,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8343,12 +8275,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>146000.00</t>
+          <t>143926.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8363,12 +8295,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8385,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>146000.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8405,12 +8337,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8427,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>366012.00</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8447,12 +8379,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8469,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>263196.77</t>
+          <t>366012.00</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8489,12 +8421,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8511,32 +8443,32 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>96000.00</t>
+          <t>265196.77</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8553,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>141500.00</t>
+          <t>96000.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8573,12 +8505,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8595,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>336120.07</t>
+          <t>141500.00</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8615,12 +8547,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8637,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>935423.34</t>
+          <t>336120.07</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8657,12 +8589,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8679,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>355</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>79468.00</t>
+          <t>935423.34</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8699,12 +8631,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8721,12 +8653,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>1835678.47</t>
+          <t>79468.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8741,12 +8673,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8763,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>1835678.47</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8783,12 +8715,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8805,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8825,12 +8757,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8847,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>101400.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8867,12 +8799,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8889,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>355366.00</t>
+          <t>101400.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8909,12 +8841,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8931,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>96150.00</t>
+          <t>355366.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8951,12 +8883,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8973,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>135338.97</t>
+          <t>96150.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8993,12 +8925,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9015,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>51500.00</t>
+          <t>135338.97</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9035,12 +8967,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9057,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>241695.20</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9077,12 +9009,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9099,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>311000.00</t>
+          <t>241695.20</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9119,12 +9051,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9141,32 +9073,32 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>311000.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9183,12 +9115,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>57000.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9203,12 +9135,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9225,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>144000.00</t>
+          <t>57000.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9245,12 +9177,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9267,12 +9199,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>390405.00</t>
+          <t>144000.00</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9287,12 +9219,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9309,12 +9241,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>390405.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9329,12 +9261,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9351,12 +9283,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>906256.92</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9371,12 +9303,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9393,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>29972.00</t>
+          <t>906256.92</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9413,12 +9345,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9435,12 +9367,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>29972.00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9455,12 +9387,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9477,12 +9409,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>33112.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9497,12 +9429,12 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9519,12 +9451,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>183687.09</t>
+          <t>33112.00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9539,12 +9471,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9561,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>62587.00</t>
+          <t>193687.09</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9581,12 +9513,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9603,12 +9535,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>72600.00</t>
+          <t>62587.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9623,12 +9555,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9645,12 +9577,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>72600.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9665,12 +9597,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9687,12 +9619,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>121850.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9707,12 +9639,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9729,12 +9661,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>145500.00</t>
+          <t>121850.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9749,12 +9681,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9771,32 +9703,32 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>51250.00</t>
+          <t>145500.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9813,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>185538.00</t>
+          <t>51250.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9833,12 +9765,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9855,12 +9787,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>341200.00</t>
+          <t>187538.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9875,12 +9807,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9897,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1109753.00</t>
+          <t>345200.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9917,12 +9849,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9939,12 +9871,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>173288.64</t>
+          <t>1140583.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9959,12 +9891,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9981,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2433851.10</t>
+          <t>188788.64</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -10001,12 +9933,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -10023,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>839</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>85500.00</t>
+          <t>2617473.62</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -10043,12 +9975,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -10065,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>52000.00</t>
+          <t>89500.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10085,12 +10017,12 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -10107,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>158000.00</t>
+          <t>52000.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10127,12 +10059,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10149,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>466494.19</t>
+          <t>160000.00</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10169,12 +10101,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10191,12 +10123,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>269229.00</t>
+          <t>479494.19</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10211,12 +10143,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10233,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>177972.92</t>
+          <t>298476.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10253,12 +10185,12 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10275,12 +10207,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>62500.00</t>
+          <t>205972.92</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10295,12 +10227,12 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10317,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>274427.77</t>
+          <t>64500.00</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10337,12 +10269,12 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -10359,12 +10291,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>410500.00</t>
+          <t>322804.77</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10379,10 +10311,52 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>417103.00</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
+      <c r="H238" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>615</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1883584.36</t>
+          <t>1893584.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>60000.00</t>
+          <t>63500.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>267468.33</t>
+          <t>271468.33</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>649660.64</t>
+          <t>752162.59</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>66500.00</t>
+          <t>70500.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>114456.00</t>
+          <t>124456.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>192487.00</t>
+          <t>199487.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>444402.00</t>
+          <t>446402.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>61991.00</t>
+          <t>63991.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1164308.78</t>
+          <t>1256755.04</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>24500.00</t>
+          <t>36500.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>159200.00</t>
+          <t>171200.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>85500.00</t>
+          <t>87500.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>152846.08</t>
+          <t>182846.08</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>10551.00</t>
+          <t>15351.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>30709.84</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>74088.00</t>
+          <t>85860.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>41350.00</t>
+          <t>58850.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>264558.15</t>
+          <t>286558.15</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>44267.00</t>
+          <t>46267.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>36395.00</t>
+          <t>41895.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>54556.00</t>
+          <t>56556.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5209,12 +5209,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>88500.00</t>
+          <t>90500.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>159377.00</t>
+          <t>161377.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>568500.00</t>
+          <t>572500.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>130547.58</t>
+          <t>132547.58</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>381</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1414095.13</t>
+          <t>1485612.45</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>127079.76</t>
+          <t>138579.76</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>253366.00</t>
+          <t>257519.44</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7981,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>328</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>860642.00</t>
+          <t>873788.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8065,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1907555.91</t>
+          <t>1940016.91</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>146000.00</t>
+          <t>148000.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>366012.00</t>
+          <t>368012.00</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>265196.77</t>
+          <t>267196.77</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -9115,12 +9115,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>44000.00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>57000.00</t>
+          <t>60523.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9199,12 +9199,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>144000.00</t>
+          <t>149500.00</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9241,12 +9241,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>390405.00</t>
+          <t>421905.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9283,12 +9283,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>36000.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>906256.92</t>
+          <t>993845.50</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>193687.09</t>
+          <t>203687.09</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9535,12 +9535,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>62587.00</t>
+          <t>76587.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9661,12 +9661,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>121850.00</t>
+          <t>141270.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>145500.00</t>
+          <t>147500.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9787,12 +9787,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>187538.00</t>
+          <t>192538.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9829,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>345200.00</t>
+          <t>347200.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9871,12 +9871,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>442</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>1140583.00</t>
+          <t>1142583.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>188788.64</t>
+          <t>190788.64</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>842</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2617473.62</t>
+          <t>2642473.62</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>298476.00</t>
+          <t>300476.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>64500.00</t>
+          <t>66500.00</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>110000.00</t>
+          <t>113500.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>322325.00</t>
+          <t>342175.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>782512.85</t>
+          <t>888553.74</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17495.69</t>
+          <t>20024.69</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>35500.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>23500.00</t>
+          <t>33450.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>132557.00</t>
+          <t>134557.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1256755.04</t>
+          <t>1311082.04</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>36500.00</t>
+          <t>38500.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>171200.00</t>
+          <t>183200.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>190500.00</t>
+          <t>200500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>572500.00</t>
+          <t>580500.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>132547.58</t>
+          <t>136547.58</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1485612.45</t>
+          <t>1551756.95</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>223743.68</t>
+          <t>229243.68</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>138579.76</t>
+          <t>142579.76</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>228502.77</t>
+          <t>248773.75</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>257519.44</t>
+          <t>265266.44</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>3584218.81</t>
+          <t>3590218.81</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>812</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2050940.00</t>
+          <t>2052940.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>689626.11</t>
+          <t>691626.11</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>110000.00</t>
+          <t>124000.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>96500.00</t>
+          <t>109500.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6679,12 +6679,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>270500.00</t>
+          <t>301000.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6721,12 +6721,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>44000.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6763,12 +6763,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>177000.00</t>
+          <t>199000.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6889,12 +6889,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6931,12 +6931,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>101000.00</t>
+          <t>113800.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6973,12 +6973,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>63984.00</t>
+          <t>71984.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7015,12 +7015,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7057,12 +7057,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7099,12 +7099,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>25000.00</t>
+          <t>38500.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7141,12 +7141,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>114000.00</t>
+          <t>120000.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7225,12 +7225,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>37441.00</t>
+          <t>63441.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7267,12 +7267,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7309,12 +7309,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>113619.00</t>
+          <t>124119.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7351,12 +7351,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>354500.00</t>
+          <t>396000.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7393,12 +7393,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>22000.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7435,12 +7435,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>513121.81</t>
+          <t>889608.27</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7477,12 +7477,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>50703.43</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7561,12 +7561,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>28000.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7603,12 +7603,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>84862.79</t>
+          <t>143858.79</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7645,12 +7645,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>40000.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7687,12 +7687,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>65650.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7729,12 +7729,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>18500.00</t>
+          <t>24500.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7771,12 +7771,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>78000.00</t>
+          <t>168307.95</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7813,12 +7813,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>121500.00</t>
+          <t>153000.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7939,12 +7939,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>279500.00</t>
+          <t>281500.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7981,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>873788.00</t>
+          <t>875788.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8065,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>574</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1940016.91</t>
+          <t>2001174.27</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8107,12 +8107,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>65000.00</t>
+          <t>75000.00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8275,12 +8275,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>143926.00</t>
+          <t>147926.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>148000.00</t>
+          <t>158000.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>368012.00</t>
+          <t>396004.50</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>267196.77</t>
+          <t>269196.77</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>83572.00</t>
+          <t>93572.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>42500.00</t>
+          <t>44500.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>752162.59</t>
+          <t>826162.59</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>24184.00</t>
+          <t>26184.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>124456.00</t>
+          <t>134456.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>23000.00</t>
+          <t>33000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>84500.00</t>
+          <t>86500.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>199487.00</t>
+          <t>201487.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>446402.00</t>
+          <t>448402.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>381</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1311082.04</t>
+          <t>1351082.04</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>87500.00</t>
+          <t>89500.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>182846.08</t>
+          <t>199866.08</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>15351.00</t>
+          <t>17351.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>30709.84</t>
+          <t>32709.84</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>85860.00</t>
+          <t>101360.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>58850.00</t>
+          <t>64850.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>286558.15</t>
+          <t>310626.15</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>46267.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5019,12 +5019,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>41895.00</t>
+          <t>54267.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>21100.00</t>
+          <t>47895.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>62965.92</t>
+          <t>23100.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5145,12 +5145,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>56556.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5187,12 +5187,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -5209,32 +5209,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>66840.92</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5251,32 +5251,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>90500.00</t>
+          <t>61666.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>161377.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5313,12 +5313,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>580500.00</t>
+          <t>90500.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5355,12 +5355,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>136547.58</t>
+          <t>161377.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5397,12 +5397,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1551756.95</t>
+          <t>580500.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5439,12 +5439,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>136547.58</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5481,12 +5481,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>30300.00</t>
+          <t>1551756.95</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5523,12 +5523,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>70500.00</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5565,12 +5565,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>229243.68</t>
+          <t>30300.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5607,12 +5607,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>142579.76</t>
+          <t>70500.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5649,12 +5649,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5671,12 +5671,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>139375.82</t>
+          <t>229243.68</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>142579.76</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>248773.75</t>
+          <t>139375.82</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>265266.44</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5817,12 +5817,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -5839,32 +5839,32 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>41280.00</t>
+          <t>248773.75</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5881,32 +5881,32 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>431570.00</t>
+          <t>265266.44</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>41280.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5943,12 +5943,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>30500.00</t>
+          <t>431570.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5985,12 +5985,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1156300.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6027,12 +6027,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
     </row>
@@ -6049,12 +6049,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>3748863.03</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -6091,12 +6091,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>465</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>3590218.81</t>
+          <t>1156300.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6111,12 +6111,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>5983296.04</t>
+          <t>3748863.03</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6153,12 +6153,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>694602.04</t>
+          <t>3590218.81</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6195,12 +6195,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>238500.00</t>
+          <t>5983296.04</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6237,12 +6237,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>478950.00</t>
+          <t>694602.04</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6279,12 +6279,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2052940.00</t>
+          <t>238500.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6321,12 +6321,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>987753.49</t>
+          <t>478950.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6363,12 +6363,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>812</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>691626.11</t>
+          <t>2052940.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6405,12 +6405,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>283500.00</t>
+          <t>987753.49</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6447,12 +6447,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>697519.41</t>
+          <t>691626.11</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6489,12 +6489,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1629096.82</t>
+          <t>283500.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -6553,32 +6553,32 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>697519.41</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6595,32 +6595,32 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>709</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>124000.00</t>
+          <t>1629096.82</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>109500.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6657,12 +6657,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -6679,12 +6679,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>301000.00</t>
+          <t>127500.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6699,12 +6699,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -6721,12 +6721,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>44000.00</t>
+          <t>119000.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6741,12 +6741,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6763,12 +6763,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>199000.00</t>
+          <t>317000.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6783,12 +6783,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6805,12 +6805,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>49500.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6825,12 +6825,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6847,12 +6847,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>201155.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6889,12 +6889,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6909,12 +6909,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>113800.00</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6951,12 +6951,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6973,12 +6973,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>71984.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6993,12 +6993,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7015,12 +7015,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>113800.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7035,12 +7035,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7057,12 +7057,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>79484.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7077,12 +7077,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7099,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>38500.00</t>
+          <t>29500.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7119,12 +7119,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>120000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7161,12 +7161,12 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7183,32 +7183,32 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>38500.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7225,32 +7225,32 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>63441.00</t>
+          <t>124000.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7267,32 +7267,32 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7309,12 +7309,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>124119.00</t>
+          <t>63441.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7329,12 +7329,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7351,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>396000.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7393,12 +7393,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>124119.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7413,12 +7413,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7435,12 +7435,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>889608.27</t>
+          <t>396000.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7455,12 +7455,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7477,12 +7477,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>50703.43</t>
+          <t>22000.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7497,12 +7497,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7519,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>889608.27</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7539,12 +7539,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7561,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>50703.43</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7603,12 +7603,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>143858.79</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7645,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>40000.00</t>
+          <t>28000.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7665,12 +7665,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7687,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>65650.00</t>
+          <t>143858.79</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7707,12 +7707,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7729,12 +7729,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>24500.00</t>
+          <t>40000.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7749,12 +7749,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7771,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>168307.95</t>
+          <t>65650.00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7791,12 +7791,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7813,12 +7813,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>153000.00</t>
+          <t>24500.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7833,12 +7833,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7855,32 +7855,32 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>145500.00</t>
+          <t>168307.95</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7897,32 +7897,32 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>128153.50</t>
+          <t>153000.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7939,12 +7939,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>281500.00</t>
+          <t>152300.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>875788.00</t>
+          <t>130153.50</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8001,12 +8001,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8023,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>89574.12</t>
+          <t>281500.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2001174.27</t>
+          <t>875788.00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8107,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>75000.00</t>
+          <t>89574.12</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8127,12 +8127,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8149,12 +8149,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>2021674.27</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8169,12 +8169,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>73000.00</t>
+          <t>75000.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>396795.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8253,12 +8253,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8275,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>147926.00</t>
+          <t>73000.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8295,12 +8295,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>158000.00</t>
+          <t>410795.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8337,12 +8337,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8359,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>147926.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8379,12 +8379,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>396004.50</t>
+          <t>161505.00</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8421,12 +8421,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>269196.77</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8485,32 +8485,32 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>96000.00</t>
+          <t>408304.50</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8527,32 +8527,32 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>141500.00</t>
+          <t>279196.77</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>336120.07</t>
+          <t>96000.00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8589,12 +8589,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>935423.34</t>
+          <t>141500.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8631,12 +8631,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>79468.00</t>
+          <t>336120.07</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8673,12 +8673,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>356</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>1835678.47</t>
+          <t>937423.34</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8715,12 +8715,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>79468.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8757,12 +8757,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>1835678.47</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>101400.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>355366.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>96150.00</t>
+          <t>101400.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>135338.97</t>
+          <t>357366.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8967,12 +8967,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8989,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>51500.00</t>
+          <t>96150.00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9009,12 +9009,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>241695.20</t>
+          <t>135338.97</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9051,12 +9051,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9073,12 +9073,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>311000.00</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9093,12 +9093,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9115,32 +9115,32 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>44000.00</t>
+          <t>241695.20</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9157,32 +9157,32 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>60523.00</t>
+          <t>311000.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9199,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>149500.00</t>
+          <t>44000.00</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9219,12 +9219,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9241,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>421905.00</t>
+          <t>60523.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9283,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>36000.00</t>
+          <t>149500.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>993845.50</t>
+          <t>421905.00</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9345,12 +9345,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9367,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>29972.00</t>
+          <t>36000.00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9387,12 +9387,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>993845.50</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>33112.00</t>
+          <t>29972.00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>203687.09</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9535,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>76587.00</t>
+          <t>33112.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9555,12 +9555,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>72600.00</t>
+          <t>203687.09</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9597,12 +9597,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>76587.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9639,12 +9639,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9661,12 +9661,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>141270.00</t>
+          <t>72600.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9681,12 +9681,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>147500.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9745,32 +9745,32 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>51250.00</t>
+          <t>141270.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9787,32 +9787,32 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>192538.00</t>
+          <t>147500.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>347200.00</t>
+          <t>51250.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9849,12 +9849,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9871,12 +9871,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>1142583.00</t>
+          <t>192538.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9891,12 +9891,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>190788.64</t>
+          <t>347200.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9933,12 +9933,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>442</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2642473.62</t>
+          <t>1142583.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9975,12 +9975,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9997,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>89500.00</t>
+          <t>190788.64</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10017,12 +10017,12 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>842</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>52000.00</t>
+          <t>2642473.62</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10059,12 +10059,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -10081,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>160000.00</t>
+          <t>89500.00</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10101,12 +10101,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -10123,12 +10123,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>479494.19</t>
+          <t>52000.00</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>300476.00</t>
+          <t>160000.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10185,12 +10185,12 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10207,12 +10207,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>205972.92</t>
+          <t>479494.19</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10227,12 +10227,12 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>66500.00</t>
+          <t>300476.00</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10269,12 +10269,12 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10291,12 +10291,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>322804.77</t>
+          <t>205972.92</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10311,12 +10311,12 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10333,30 +10333,114 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>66500.00</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Santé humaine et action sociale</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>322804.77</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
+      <c r="D240" t="inlineStr">
         <is>
           <t>417103.00</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
+      <c r="H240" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>342175.00</t>
+          <t>344175.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>888553.74</t>
+          <t>960488.74</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93572.00</t>
+          <t>103572.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106500.00</t>
+          <t>110000.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>38500.00</t>
+          <t>40500.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>76000.00</t>
+          <t>78000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>417908.00</t>
+          <t>427908.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>330</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1174976.49</t>
+          <t>1247535.03</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>31653.00</t>
+          <t>33653.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>117500.00</t>
+          <t>123000.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>62971.00</t>
+          <t>64971.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>151893.00</t>
+          <t>165893.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>44500.00</t>
+          <t>46500.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>86500.00</t>
+          <t>88500.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>201487.00</t>
+          <t>204987.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>448402.00</t>
+          <t>464722.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>391</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1351082.04</t>
+          <t>1444130.70</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>183200.00</t>
+          <t>195200.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>200500.00</t>
+          <t>220500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>580500.00</t>
+          <t>590208.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>136547.58</t>
+          <t>138827.58</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1551756.95</t>
+          <t>1589448.95</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>248773.75</t>
+          <t>260773.75</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>431570.00</t>
+          <t>498120.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>30500.00</t>
+          <t>36500.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>507</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1156300.00</t>
+          <t>1258146.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>1595</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>3748863.03</t>
+          <t>4224883.03</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>1847</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>3590218.81</t>
+          <t>4468785.61</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>2066</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>5983296.04</t>
+          <t>7409219.66</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>306</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>694602.04</t>
+          <t>805652.04</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>238500.00</t>
+          <t>271000.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>478950.00</t>
+          <t>543800.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>890</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2052940.00</t>
+          <t>2258188.25</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>424</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>987753.49</t>
+          <t>1142753.49</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>691626.11</t>
+          <t>791700.16</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>283500.00</t>
+          <t>317000.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>697519.41</t>
+          <t>907421.68</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>771</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1629096.82</t>
+          <t>1820612.82</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7351,12 +7351,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>47500.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7435,12 +7435,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>396000.00</t>
+          <t>400000.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7519,12 +7519,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>889608.27</t>
+          <t>986840.94</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7687,12 +7687,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>143858.79</t>
+          <t>171058.79</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7729,12 +7729,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>40000.00</t>
+          <t>50000.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7813,12 +7813,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>24500.00</t>
+          <t>26500.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>168307.95</t>
+          <t>182307.95</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7897,12 +7897,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>153000.00</t>
+          <t>155000.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -8023,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>281500.00</t>
+          <t>285000.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8065,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>875788.00</t>
+          <t>899788.00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8107,12 +8107,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>89574.12</t>
+          <t>91574.12</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8149,12 +8149,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>582</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2021674.27</t>
+          <t>2027674.27</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>410795.00</t>
+          <t>430633.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>408304.50</t>
+          <t>426180.50</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -9199,12 +9199,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>44000.00</t>
+          <t>49078.00</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>421905.00</t>
+          <t>427905.00</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9409,12 +9409,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>993845.50</t>
+          <t>1017845.50</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9577,12 +9577,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>203687.09</t>
+          <t>207687.09</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9619,12 +9619,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>76587.00</t>
+          <t>78587.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>141270.00</t>
+          <t>153270.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>1142583.00</t>
+          <t>1144583.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>331886.40</t>
+          <t>333886.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>117000.00</t>
+          <t>121000.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>624</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1893584.36</t>
+          <t>1966440.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>69770.00</t>
+          <t>73270.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>328000.00</t>
+          <t>338000.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>147400.00</t>
+          <t>159400.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>198688.98</t>
+          <t>200688.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>325861.32</t>
+          <t>334861.32</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>362100.00</t>
+          <t>364100.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>78000.00</t>
+          <t>88000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1247535.03</t>
+          <t>1271388.03</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>123000.00</t>
+          <t>125000.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>165893.00</t>
+          <t>167893.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>46500.00</t>
+          <t>48500.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>271468.33</t>
+          <t>273468.33</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>394</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1444130.70</t>
+          <t>1458004.70</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>220500.00</t>
+          <t>227510.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>31555.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>111495.14</t>
+          <t>145495.14</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>113000.00</t>
+          <t>125000.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>205000.00</t>
+          <t>243405.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>41500.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>259000.00</t>
+          <t>356902.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>22500.00</t>
+          <t>24500.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>17000.00</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>78500.00</t>
+          <t>102500.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>124000.00</t>
+          <t>139979.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>37700.00</t>
+          <t>47700.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>41000.00</t>
+          <t>46830.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>81500.00</t>
+          <t>93500.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>17351.00</t>
+          <t>21909.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>101360.00</t>
+          <t>107360.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>39219.00</t>
+          <t>41219.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>310626.15</t>
+          <t>348657.15</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>47895.00</t>
+          <t>49895.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>61666.00</t>
+          <t>65666.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>138827.58</t>
+          <t>144676.45</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H240"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>88500.00</t>
+          <t>92500.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>204987.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>464722.00</t>
+          <t>208987.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>63991.00</t>
+          <t>482722.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1458004.70</t>
+          <t>63991.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>417</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>1635769.58</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>38500.00</t>
+          <t>17000.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>195200.00</t>
+          <t>49569.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>91127.00</t>
+          <t>213064.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>89500.00</t>
+          <t>93127.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>95500.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>199866.08</t>
+          <t>22500.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>227510.00</t>
+          <t>239866.08</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -4075,32 +4075,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>31555.00</t>
+          <t>229510.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>145495.14</t>
+          <t>31555.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>125000.00</t>
+          <t>145495.14</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>243405.00</t>
+          <t>125000.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>243405.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>356902.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>24500.00</t>
+          <t>356902.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>15500.00</t>
+          <t>24500.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>102500.00</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>139979.00</t>
+          <t>102500.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>47700.00</t>
+          <t>139979.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>47700.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>46830.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4641,12 +4641,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>93500.00</t>
+          <t>46830.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -4705,32 +4705,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>21909.00</t>
+          <t>93500.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>32709.84</t>
+          <t>21909.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4767,12 +4767,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>107360.00</t>
+          <t>32709.84</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>64850.00</t>
+          <t>107360.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>41219.00</t>
+          <t>64850.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>348657.15</t>
+          <t>41219.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4935,12 +4935,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>348657.15</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4977,12 +4977,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5019,12 +5019,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>54267.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>49895.00</t>
+          <t>54267.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>23100.00</t>
+          <t>49895.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5145,12 +5145,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>23100.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5187,12 +5187,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5209,12 +5209,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>66840.92</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>65666.00</t>
+          <t>66840.92</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5271,12 +5271,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5293,32 +5293,32 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>65666.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>90500.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5355,12 +5355,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>161377.00</t>
+          <t>102500.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5397,12 +5397,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>590208.00</t>
+          <t>165377.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5439,12 +5439,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>144676.45</t>
+          <t>597708.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5481,12 +5481,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1589448.95</t>
+          <t>182976.45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5523,12 +5523,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>411</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>1690502.18</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5565,12 +5565,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>30300.00</t>
+          <t>25000.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5607,12 +5607,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>70500.00</t>
+          <t>40017.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5649,12 +5649,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -5671,12 +5671,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>229243.68</t>
+          <t>70500.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>142579.76</t>
+          <t>232743.68</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>139375.82</t>
+          <t>148579.76</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>151925.82</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5817,12 +5817,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>260773.75</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5859,12 +5859,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>265266.44</t>
+          <t>269190.75</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5901,12 +5901,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5923,32 +5923,32 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>41280.00</t>
+          <t>274626.44</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>498120.00</t>
+          <t>41280.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5985,12 +5985,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>502120.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6027,12 +6027,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -6049,12 +6049,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>36500.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
     </row>
@@ -6091,12 +6091,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1258146.00</t>
+          <t>36500.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6111,12 +6111,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>514</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>4224883.03</t>
+          <t>1275146.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6153,12 +6153,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1847</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4468785.61</t>
+          <t>4290083.03</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6195,12 +6195,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2066</t>
+          <t>1910</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>7409219.66</t>
+          <t>4647179.47</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6237,12 +6237,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>805652.04</t>
+          <t>7909171.53</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6279,12 +6279,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>271000.00</t>
+          <t>853003.04</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6321,12 +6321,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>543800.00</t>
+          <t>273000.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6363,12 +6363,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>224</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2258188.25</t>
+          <t>554800.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6405,12 +6405,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>911</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1142753.49</t>
+          <t>2327443.25</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6447,12 +6447,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>791700.16</t>
+          <t>1192371.49</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6489,12 +6489,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>327</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>317000.00</t>
+          <t>803700.16</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>907421.68</t>
+          <t>335000.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6573,12 +6573,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1820612.82</t>
+          <t>1015421.68</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6615,12 +6615,12 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6637,32 +6637,32 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>789</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>1868312.82</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6679,22 +6679,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>127500.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6721,22 +6721,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>119000.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6763,22 +6763,22 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>317000.00</t>
+          <t>39900.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6805,32 +6805,32 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>49500.00</t>
+          <t>117904.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6847,32 +6847,32 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>201155.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6889,32 +6889,32 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6936,27 +6936,27 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6973,12 +6973,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6993,12 +6993,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7015,12 +7015,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>113800.00</t>
+          <t>127500.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7035,12 +7035,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7057,12 +7057,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>79484.00</t>
+          <t>119000.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7077,12 +7077,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7099,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>29500.00</t>
+          <t>317000.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7119,12 +7119,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>49500.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7161,12 +7161,12 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7183,12 +7183,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>38500.00</t>
+          <t>201155.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7225,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>124000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7245,12 +7245,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7267,32 +7267,32 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7309,32 +7309,32 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>63441.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7351,32 +7351,32 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>47500.00</t>
+          <t>113800.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7393,32 +7393,32 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>124119.00</t>
+          <t>79484.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7435,32 +7435,32 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>400000.00</t>
+          <t>29500.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7477,32 +7477,32 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7519,32 +7519,32 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>986840.94</t>
+          <t>38500.00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7561,32 +7561,32 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>50703.43</t>
+          <t>124000.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7603,32 +7603,32 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>8400.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7645,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>63441.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7665,12 +7665,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7687,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>171058.79</t>
+          <t>47500.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7707,12 +7707,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7729,12 +7729,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>50000.00</t>
+          <t>124119.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7749,12 +7749,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7771,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>65650.00</t>
+          <t>400000.00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7791,12 +7791,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>26500.00</t>
+          <t>22000.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7833,12 +7833,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7855,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>182307.95</t>
+          <t>986840.94</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7875,12 +7875,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>155000.00</t>
+          <t>50703.43</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7917,12 +7917,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7939,32 +7939,32 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>152300.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7981,32 +7981,32 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>130153.50</t>
+          <t>28000.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8023,32 +8023,32 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>285000.00</t>
+          <t>171058.79</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8065,32 +8065,32 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>899788.00</t>
+          <t>50000.00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8107,32 +8107,32 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>91574.12</t>
+          <t>65650.00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8149,32 +8149,32 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2027674.27</t>
+          <t>26500.00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8191,32 +8191,32 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>75000.00</t>
+          <t>182307.95</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8233,32 +8233,32 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>155000.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8275,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>73000.00</t>
+          <t>152300.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8295,12 +8295,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>430633.00</t>
+          <t>130153.50</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8337,12 +8337,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8359,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>147926.00</t>
+          <t>285000.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8379,12 +8379,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>161505.00</t>
+          <t>907288.00</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8421,12 +8421,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>30500.00</t>
+          <t>91574.12</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>591</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>426180.50</t>
+          <t>2096871.11</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8505,12 +8505,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>279196.77</t>
+          <t>75000.00</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8569,32 +8569,32 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>96000.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8611,32 +8611,32 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>141500.00</t>
+          <t>73000.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8653,32 +8653,32 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>336120.07</t>
+          <t>440633.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8695,32 +8695,32 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>937423.34</t>
+          <t>157926.00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8737,32 +8737,32 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>79468.00</t>
+          <t>161505.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8779,32 +8779,32 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>1835678.47</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8821,32 +8821,32 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>462180.50</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8863,32 +8863,32 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>279196.77</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>101400.00</t>
+          <t>96000.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>357366.00</t>
+          <t>141500.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8967,12 +8967,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8989,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>96150.00</t>
+          <t>336120.07</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9009,12 +9009,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>356</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>135338.97</t>
+          <t>937423.34</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9051,12 +9051,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9073,12 +9073,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>51500.00</t>
+          <t>79468.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9093,12 +9093,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>241695.20</t>
+          <t>1835678.47</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9135,12 +9135,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>311000.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9177,12 +9177,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9199,32 +9199,32 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>49078.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9241,32 +9241,32 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>60523.00</t>
+          <t>101400.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9283,32 +9283,32 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>149500.00</t>
+          <t>357366.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9325,32 +9325,32 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>427905.00</t>
+          <t>96150.00</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9367,32 +9367,32 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>36000.00</t>
+          <t>135338.97</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9409,32 +9409,32 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1017845.50</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9451,32 +9451,32 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>29972.00</t>
+          <t>241695.20</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9493,32 +9493,32 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>311000.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9535,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>33112.00</t>
+          <t>49078.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9555,12 +9555,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>207687.09</t>
+          <t>60523.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9597,12 +9597,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>78587.00</t>
+          <t>149500.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9639,12 +9639,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9661,12 +9661,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>72600.00</t>
+          <t>427905.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9681,12 +9681,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>36000.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>153270.00</t>
+          <t>1029845.50</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9765,12 +9765,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9787,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>147500.00</t>
+          <t>29972.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9807,12 +9807,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9829,32 +9829,32 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>51250.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9871,32 +9871,32 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>192538.00</t>
+          <t>35112.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9913,32 +9913,32 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>347200.00</t>
+          <t>225187.09</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9955,32 +9955,32 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>1144583.00</t>
+          <t>78587.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9997,32 +9997,32 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>190788.64</t>
+          <t>72600.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10039,32 +10039,32 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2642473.62</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -10081,32 +10081,32 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>89500.00</t>
+          <t>167270.00</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -10123,32 +10123,32 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>52000.00</t>
+          <t>147500.00</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>160000.00</t>
+          <t>51250.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10185,12 +10185,12 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -10207,12 +10207,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>479494.19</t>
+          <t>192538.00</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10227,12 +10227,12 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>300476.00</t>
+          <t>347200.00</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10269,12 +10269,12 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -10291,12 +10291,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>205972.92</t>
+          <t>1144583.00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10311,12 +10311,12 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -10333,12 +10333,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>66500.00</t>
+          <t>190788.64</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10353,12 +10353,12 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -10375,12 +10375,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>842</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>322804.77</t>
+          <t>2642473.62</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10395,12 +10395,12 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -10417,30 +10417,366 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>89500.00</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Information et communication</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>52000.00</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Activités financières et d'assurance</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>160000.00</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Activités immobilières</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>479494.19</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Activités spécialisées, scientifiques et techniques</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>300476.00</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Activités de services administratifs et de soutien</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>205972.92</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Enseignement</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>66500.00</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Santé humaine et action sociale</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>322804.77</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
+      <c r="D248" t="inlineStr">
         <is>
           <t>417103.00</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
+      <c r="F248" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
+      <c r="H248" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>826162.59</t>
+          <t>876892.59</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>70500.00</t>
+          <t>82500.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>51000.00</t>
+          <t>53000.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>134456.00</t>
+          <t>146456.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>136500.00</t>
+          <t>138500.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>33000.00</t>
+          <t>35000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>208987.00</t>
+          <t>210987.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>482722.00</t>
+          <t>487193.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>420</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1635769.58</t>
+          <t>1665769.58</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>229510.00</t>
+          <t>231510.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>597708.00</t>
+          <t>599708.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>182976.45</t>
+          <t>196976.45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>414</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1690502.18</t>
+          <t>1712502.18</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>269190.75</t>
+          <t>272186.75</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>274626.44</t>
+          <t>276626.44</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -8359,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>285000.00</t>
+          <t>290000.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>594</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2096871.11</t>
+          <t>2118871.11</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>279196.77</t>
+          <t>281196.77</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -9661,12 +9661,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>427905.00</t>
+          <t>429905.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>36000.00</t>
+          <t>48000.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>1029845.50</t>
+          <t>1049983.50</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>225187.09</t>
+          <t>227187.09</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>78587.00</t>
+          <t>82587.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9997,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>72600.00</t>
+          <t>74600.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10081,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>167270.00</t>
+          <t>177270.00</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H248"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>35000.00</t>
+          <t>45000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>92500.00</t>
+          <t>100917.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>487193.00</t>
+          <t>503193.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1665769.58</t>
+          <t>1710769.58</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>213064.00</t>
+          <t>215064.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>93127.00</t>
+          <t>95127.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>239866.08</t>
+          <t>248536.08</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>231510.00</t>
+          <t>241510.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>102500.00</t>
+          <t>106500.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>32709.84</t>
+          <t>34709.84</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>107360.00</t>
+          <t>132360.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>64850.00</t>
+          <t>68850.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>41219.00</t>
+          <t>45913.61</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>348657.15</t>
+          <t>386288.21</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>23500.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>66840.92</t>
+          <t>76840.92</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>65666.00</t>
+          <t>69197.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -7603,12 +7603,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>8400.00</t>
+          <t>20400.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7645,32 +7645,32 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>63441.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7687,32 +7687,32 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>47500.00</t>
+          <t>32000.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7729,12 +7729,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>124119.00</t>
+          <t>63441.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7749,12 +7749,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7771,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>400000.00</t>
+          <t>47500.00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7791,12 +7791,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7813,12 +7813,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>124119.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7833,12 +7833,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7855,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>986840.94</t>
+          <t>400000.00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7875,12 +7875,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>50703.43</t>
+          <t>22000.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7917,12 +7917,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7939,12 +7939,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>986840.94</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>50703.43</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8001,12 +8001,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8023,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>171058.79</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>50000.00</t>
+          <t>28000.00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8107,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>65650.00</t>
+          <t>171058.79</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8127,12 +8127,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8149,12 +8149,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>26500.00</t>
+          <t>50000.00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8169,12 +8169,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>182307.95</t>
+          <t>65650.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>155000.00</t>
+          <t>26500.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8253,12 +8253,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8275,32 +8275,32 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>152300.00</t>
+          <t>182307.95</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8317,32 +8317,32 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>130153.50</t>
+          <t>155000.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8359,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>290000.00</t>
+          <t>152300.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8379,12 +8379,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>907288.00</t>
+          <t>130153.50</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8421,12 +8421,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>91574.12</t>
+          <t>290000.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>340</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2118871.11</t>
+          <t>918288.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8505,12 +8505,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>75000.00</t>
+          <t>91574.12</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>606</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>2193053.66</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8589,12 +8589,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>73000.00</t>
+          <t>79738.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8631,12 +8631,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>440633.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8673,12 +8673,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>157926.00</t>
+          <t>75000.00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8715,12 +8715,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>161505.00</t>
+          <t>442633.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8757,12 +8757,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>30500.00</t>
+          <t>159926.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>462180.50</t>
+          <t>167505.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>281196.77</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8905,32 +8905,32 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>96000.00</t>
+          <t>492180.50</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8947,32 +8947,32 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>141500.00</t>
+          <t>283196.77</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8989,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>336120.07</t>
+          <t>96000.00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9009,12 +9009,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>937423.34</t>
+          <t>141500.00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9051,12 +9051,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9073,12 +9073,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>79468.00</t>
+          <t>336120.07</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9093,12 +9093,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>356</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>1835678.47</t>
+          <t>937423.34</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9135,12 +9135,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>79468.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9177,12 +9177,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9199,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>1835678.47</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9219,12 +9219,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9241,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>101400.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9283,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>357366.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>96150.00</t>
+          <t>101400.00</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9345,12 +9345,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9367,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>135338.97</t>
+          <t>357366.00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9387,12 +9387,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>51500.00</t>
+          <t>96150.00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>241695.20</t>
+          <t>135338.97</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>311000.00</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9535,32 +9535,32 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>49078.00</t>
+          <t>241695.20</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9577,32 +9577,32 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>60523.00</t>
+          <t>311000.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>149500.00</t>
+          <t>49078.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9639,12 +9639,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9661,12 +9661,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>429905.00</t>
+          <t>60523.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9681,12 +9681,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>48000.00</t>
+          <t>149500.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>1049983.50</t>
+          <t>429905.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9765,12 +9765,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9787,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>29972.00</t>
+          <t>50000.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9807,12 +9807,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>1051983.50</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9849,12 +9849,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9871,12 +9871,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>35112.00</t>
+          <t>29972.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9891,12 +9891,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>227187.09</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9933,12 +9933,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>82587.00</t>
+          <t>35112.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9975,12 +9975,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9997,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>74600.00</t>
+          <t>227187.09</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10017,12 +10017,12 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>82587.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10059,12 +10059,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10081,19 +10081,19 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>74600.00</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>177270.00</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
       <c r="F232" t="inlineStr">
         <is>
           <t>Pays de la Loire</t>
@@ -10101,12 +10101,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10123,12 +10123,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>147500.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -10165,32 +10165,32 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>51250.00</t>
+          <t>187270.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -10207,32 +10207,32 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>192538.00</t>
+          <t>147500.00</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>347200.00</t>
+          <t>51250.00</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10269,12 +10269,12 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -10291,12 +10291,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>1144583.00</t>
+          <t>192538.00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10311,12 +10311,12 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -10333,12 +10333,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>190788.64</t>
+          <t>347200.00</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10353,12 +10353,12 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -10375,12 +10375,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2642473.62</t>
+          <t>1144583.00</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10395,12 +10395,12 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -10417,12 +10417,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>89500.00</t>
+          <t>190788.64</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10437,12 +10437,12 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -10459,12 +10459,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>842</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>52000.00</t>
+          <t>2642473.62</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10479,12 +10479,12 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -10501,12 +10501,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>160000.00</t>
+          <t>89500.00</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10521,12 +10521,12 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -10543,12 +10543,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>479494.19</t>
+          <t>52000.00</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10563,12 +10563,12 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>300476.00</t>
+          <t>160000.00</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10605,12 +10605,12 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10627,12 +10627,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>205972.92</t>
+          <t>479494.19</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10647,12 +10647,12 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10669,12 +10669,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>66500.00</t>
+          <t>300476.00</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10689,12 +10689,12 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10711,12 +10711,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>322804.77</t>
+          <t>205972.92</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10731,12 +10731,12 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10753,30 +10753,114 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>66500.00</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Santé humaine et action sociale</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>322804.77</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
+      <c r="D250" t="inlineStr">
         <is>
           <t>417103.00</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E250" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="F250" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr">
+      <c r="G250" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
+      <c r="H250" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>338000.00</t>
+          <t>340000.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>40500.00</t>
+          <t>42500.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>88000.00</t>
+          <t>92000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>427908.00</t>
+          <t>457408.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1271388.03</t>
+          <t>1326411.70</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>33653.00</t>
+          <t>41170.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>64971.00</t>
+          <t>66971.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>96034.54</t>
+          <t>116034.54</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>48500.00</t>
+          <t>50500.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>273468.33</t>
+          <t>275468.33</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>503193.00</t>
+          <t>520693.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>63991.00</t>
+          <t>65991.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>433</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1710769.58</t>
+          <t>1740694.99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>248536.08</t>
+          <t>258736.08</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>31555.00</t>
+          <t>49555.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>145495.14</t>
+          <t>158957.14</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>125000.00</t>
+          <t>152445.71</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>243405.00</t>
+          <t>265405.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>45500.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>356902.00</t>
+          <t>387467.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>15500.00</t>
+          <t>17500.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>25000.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>106500.00</t>
+          <t>130500.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>139979.00</t>
+          <t>147979.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>46830.00</t>
+          <t>50830.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>93500.00</t>
+          <t>103500.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>165377.00</t>
+          <t>168877.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>599708.00</t>
+          <t>603708.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>196976.45</t>
+          <t>215531.45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>423</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1712502.18</t>
+          <t>1748149.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>232743.68</t>
+          <t>244743.68</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>272186.75</t>
+          <t>302086.75</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>41280.00</t>
+          <t>44780.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>502120.00</t>
+          <t>552620.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>36500.00</t>
+          <t>38500.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1275146.00</t>
+          <t>1363646.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1748</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4290083.03</t>
+          <t>4677039.93</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>2257</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>4647179.47</t>
+          <t>5633837.29</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2136</t>
+          <t>2419</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>7909171.53</t>
+          <t>10041623.38</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>853003.04</t>
+          <t>962007.04</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>273000.00</t>
+          <t>294500.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>554800.00</t>
+          <t>598800.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>994</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2327443.25</t>
+          <t>2579433.25</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>465</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1192371.49</t>
+          <t>1343454.49</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>803700.16</t>
+          <t>893700.16</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>335000.00</t>
+          <t>353000.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1015421.68</t>
+          <t>1192090.28</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>826</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1868312.82</t>
+          <t>1980242.82</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>130153.50</t>
+          <t>133653.50</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>290000.00</t>
+          <t>292000.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>918288.00</t>
+          <t>930788.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>614</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2193053.66</t>
+          <t>2241053.66</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8737,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>442633.00</t>
+          <t>444633.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>167505.00</t>
+          <t>175005.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>492180.50</t>
+          <t>502180.50</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>283196.77</t>
+          <t>288696.77</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>149500.00</t>
+          <t>153500.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>429905.00</t>
+          <t>431905.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>82587.00</t>
+          <t>84587.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>118753.26</t>
+          <t>122753.26</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>275468.33</t>
+          <t>282968.33</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>46100.00</t>
+          <t>56100.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>876892.59</t>
+          <t>910903.67</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>82500.00</t>
+          <t>96000.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>39000.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>146456.00</t>
+          <t>158456.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>138500.00</t>
+          <t>140500.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>45000.00</t>
+          <t>55000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>210987.00</t>
+          <t>214487.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>65991.00</t>
+          <t>67991.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>445</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1740694.99</t>
+          <t>1831304.99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>95500.00</t>
+          <t>97500.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>241510.00</t>
+          <t>250197.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>21909.00</t>
+          <t>25909.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>34709.84</t>
+          <t>47709.84</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>132360.00</t>
+          <t>145860.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>68850.00</t>
+          <t>83934.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>45913.61</t>
+          <t>49913.61</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>386288.21</t>
+          <t>420236.29</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>54267.00</t>
+          <t>60267.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>49895.00</t>
+          <t>55895.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>23100.00</t>
+          <t>29100.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>76840.92</t>
+          <t>81445.92</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>69197.00</t>
+          <t>77197.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>102500.00</t>
+          <t>106000.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>168877.00</t>
+          <t>170877.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>603708.00</t>
+          <t>633208.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>215531.45</t>
+          <t>236571.45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1748149.06</t>
+          <t>1888880.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>244743.68</t>
+          <t>246743.68</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>39500.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>302086.75</t>
+          <t>335586.75</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>276626.44</t>
+          <t>282626.44</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>552</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1363646.00</t>
+          <t>1371046.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1748</t>
+          <t>1752</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4677039.93</t>
+          <t>4685039.93</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2257</t>
+          <t>2271</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>5633837.29</t>
+          <t>5666808.29</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2419</t>
+          <t>2424</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>10041623.38</t>
+          <t>10078623.38</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>342</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>962007.04</t>
+          <t>964007.04</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>996</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2579433.25</t>
+          <t>2591433.25</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>466</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1343454.49</t>
+          <t>1345454.49</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1192090.28</t>
+          <t>1196090.28</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>827</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1980242.82</t>
+          <t>1982242.82</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8359,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>152300.00</t>
+          <t>154300.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>930788.00</t>
+          <t>936288.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>91574.12</t>
+          <t>101574.12</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>616</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2241053.66</t>
+          <t>2253053.66</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>75000.00</t>
+          <t>77000.00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>159926.00</t>
+          <t>169926.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>175005.00</t>
+          <t>177005.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>502180.50</t>
+          <t>512180.50</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>288696.77</t>
+          <t>292696.77</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>51250.00</t>
+          <t>63250.00</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10291,12 +10291,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>192538.00</t>
+          <t>212538.00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10333,12 +10333,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>347200.00</t>
+          <t>368200.00</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10375,12 +10375,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>484</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>1144583.00</t>
+          <t>1250575.83</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10417,12 +10417,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>190788.64</t>
+          <t>240627.11</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10459,12 +10459,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>937</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2642473.62</t>
+          <t>3329351.77</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10501,12 +10501,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>89500.00</t>
+          <t>99500.00</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10543,12 +10543,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>52000.00</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>160000.00</t>
+          <t>176500.00</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10627,12 +10627,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>479494.19</t>
+          <t>558429.19</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10669,12 +10669,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>300476.00</t>
+          <t>381293.00</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10711,12 +10711,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>205972.92</t>
+          <t>237972.92</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10753,12 +10753,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>66500.00</t>
+          <t>68500.00</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10795,12 +10795,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>322804.77</t>
+          <t>407662.14</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10837,12 +10837,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>417103.00</t>
+          <t>447013.00</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>219620.00</t>
+          <t>229620.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>342</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>893510.82</t>
+          <t>905510.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>121000.00</t>
+          <t>123000.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>645</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1966440.56</t>
+          <t>2094302.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>51600.00</t>
+          <t>53600.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>340000.00</t>
+          <t>351719.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>159400.00</t>
+          <t>161400.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>200688.98</t>
+          <t>204688.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>334861.32</t>
+          <t>348861.32</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>55000.00</t>
+          <t>58500.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>100917.00</t>
+          <t>105079.25</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>214487.00</t>
+          <t>223487.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>520693.00</t>
+          <t>532193.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>67991.00</t>
+          <t>71991.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>455</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1831304.99</t>
+          <t>1899751.63</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>215064.00</t>
+          <t>222657.55</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>258736.08</t>
+          <t>268736.08</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>250197.00</t>
+          <t>262120.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1888880.06</t>
+          <t>1946631.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>246743.68</t>
+          <t>256743.68</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>335586.75</t>
+          <t>345586.75</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>282626.44</t>
+          <t>284626.44</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>552620.00</t>
+          <t>562620.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1371046.00</t>
+          <t>1388046.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1752</t>
+          <t>1764</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4685039.93</t>
+          <t>4721562.93</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2271</t>
+          <t>2306</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>5666808.29</t>
+          <t>5745981.73</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2424</t>
+          <t>2446</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>10078623.38</t>
+          <t>10249836.79</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>964007.04</t>
+          <t>968007.04</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>598800.00</t>
+          <t>600800.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2591433.25</t>
+          <t>2604933.25</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>472</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1345454.49</t>
+          <t>1358044.49</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>361</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>893700.16</t>
+          <t>901700.16</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1196090.28</t>
+          <t>1221932.65</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>830</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1982242.82</t>
+          <t>1988242.82</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7015,12 +7015,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>127500.00</t>
+          <t>132400.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7183,12 +7183,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>201155.00</t>
+          <t>211155.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7603,12 +7603,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>20400.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7645,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>11000.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7665,12 +7665,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7687,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>30400.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7707,12 +7707,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7729,32 +7729,32 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>63441.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7771,32 +7771,32 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>47500.00</t>
+          <t>77406.05</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7813,32 +7813,32 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>124119.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7855,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>400000.00</t>
+          <t>65441.00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7875,12 +7875,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>47500.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7917,12 +7917,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7939,12 +7939,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>986840.94</t>
+          <t>133119.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>50703.43</t>
+          <t>423500.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8001,12 +8001,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8023,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>22000.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>303</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>1083516.14</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8107,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>171058.79</t>
+          <t>52703.43</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8127,12 +8127,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8149,12 +8149,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>50000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8169,12 +8169,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>65650.00</t>
+          <t>39977.46</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>26500.00</t>
+          <t>179558.79</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8253,12 +8253,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8275,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>182307.95</t>
+          <t>57818.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8295,12 +8295,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>155000.00</t>
+          <t>67650.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8337,12 +8337,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8359,32 +8359,32 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>154300.00</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8401,32 +8401,32 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>133653.50</t>
+          <t>204307.95</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8443,32 +8443,32 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>292000.00</t>
+          <t>171000.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>936288.00</t>
+          <t>157800.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8505,12 +8505,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>101574.12</t>
+          <t>137153.50</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2253053.66</t>
+          <t>292000.00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8589,12 +8589,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>348</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>79738.00</t>
+          <t>941788.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8631,12 +8631,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>101574.12</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8673,12 +8673,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>618</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>77000.00</t>
+          <t>2258759.66</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8715,12 +8715,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>444633.00</t>
+          <t>79738.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8757,12 +8757,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>169926.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8821,19 +8821,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>77000.00</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>177005.00</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
       <c r="F202" t="inlineStr">
         <is>
           <t>Nouvelle-Aquitaine</t>
@@ -8841,12 +8841,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>30500.00</t>
+          <t>444633.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>512180.50</t>
+          <t>169926.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>292696.77</t>
+          <t>179005.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8967,12 +8967,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8989,32 +8989,32 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>96000.00</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9031,32 +9031,32 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>141500.00</t>
+          <t>522180.50</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9073,32 +9073,32 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>336120.07</t>
+          <t>292696.77</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>937423.34</t>
+          <t>96000.00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9135,12 +9135,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>79468.00</t>
+          <t>141500.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9177,12 +9177,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9199,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>1835678.47</t>
+          <t>336120.07</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9219,12 +9219,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9241,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>356</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>937423.34</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9283,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>79468.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>101400.00</t>
+          <t>1835678.47</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9345,12 +9345,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9367,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>357366.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9387,12 +9387,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>96150.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>135338.97</t>
+          <t>101400.00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>51500.00</t>
+          <t>357366.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9535,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>241695.20</t>
+          <t>96150.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9555,12 +9555,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>311000.00</t>
+          <t>135338.97</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9597,12 +9597,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9619,32 +9619,32 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>49078.00</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9661,32 +9661,32 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>60523.00</t>
+          <t>241695.20</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9703,32 +9703,32 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>153500.00</t>
+          <t>311000.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>431905.00</t>
+          <t>49078.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9765,12 +9765,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9787,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>50000.00</t>
+          <t>60523.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9807,12 +9807,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1051983.50</t>
+          <t>153500.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9849,12 +9849,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9871,12 +9871,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>29972.00</t>
+          <t>431905.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9891,12 +9891,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>50000.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9933,12 +9933,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>35112.00</t>
+          <t>1051983.50</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9975,12 +9975,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9997,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>227187.09</t>
+          <t>29972.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10017,12 +10017,12 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>84587.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10059,12 +10059,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10081,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>74600.00</t>
+          <t>35112.00</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10101,12 +10101,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10123,12 +10123,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>227187.09</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>187270.00</t>
+          <t>84587.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10185,12 +10185,12 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10207,12 +10207,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>147500.00</t>
+          <t>74600.00</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10227,12 +10227,12 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10249,32 +10249,32 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>63250.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -10291,32 +10291,32 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>212538.00</t>
+          <t>187270.00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -10333,32 +10333,32 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>368200.00</t>
+          <t>147500.00</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -10375,12 +10375,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>1250575.83</t>
+          <t>63250.00</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10395,12 +10395,12 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -10417,12 +10417,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>240627.11</t>
+          <t>212538.00</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10437,12 +10437,12 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -10459,12 +10459,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>3329351.77</t>
+          <t>368200.00</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10479,12 +10479,12 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -10501,12 +10501,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>484</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>99500.00</t>
+          <t>1250575.83</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10521,12 +10521,12 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -10543,12 +10543,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>60000.00</t>
+          <t>240627.11</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10563,12 +10563,12 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>937</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>176500.00</t>
+          <t>3329351.77</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10605,12 +10605,12 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -10627,12 +10627,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>558429.19</t>
+          <t>99500.00</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10647,12 +10647,12 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -10669,12 +10669,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>381293.00</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10689,12 +10689,12 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10711,12 +10711,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>237972.92</t>
+          <t>176500.00</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10731,12 +10731,12 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10753,12 +10753,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>68500.00</t>
+          <t>558429.19</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10773,12 +10773,12 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10795,12 +10795,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>407662.14</t>
+          <t>381293.00</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10815,12 +10815,12 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10837,30 +10837,156 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>237972.92</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Enseignement</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>68500.00</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Santé humaine et action sociale</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>407662.14</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
+      <c r="D253" t="inlineStr">
         <is>
           <t>447013.00</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
+      <c r="E253" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
+      <c r="F253" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G250" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
+      <c r="H253" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2094302.08</t>
+          <t>2104302.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>22500.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>86391.77</t>
+          <t>99891.77</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>113500.00</t>
+          <t>115500.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>344175.00</t>
+          <t>356175.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>31300.00</t>
+          <t>33800.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>960488.74</t>
+          <t>1056257.15</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9000.00</t>
+          <t>11000.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20024.69</t>
+          <t>22024.69</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>103572.00</t>
+          <t>109572.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>33450.00</t>
+          <t>37450.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>21500.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>134557.00</t>
+          <t>174177.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>110000.00</t>
+          <t>114000.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>42500.00</t>
+          <t>46000.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>457408.00</t>
+          <t>469408.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>353</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1326411.70</t>
+          <t>1367857.70</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>41170.00</t>
+          <t>51170.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>116034.54</t>
+          <t>128034.54</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>58500.00</t>
+          <t>62000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>105079.25</t>
+          <t>108579.25</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>532193.00</t>
+          <t>539693.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>457</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1899751.63</t>
+          <t>1919751.63</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>49569.00</t>
+          <t>51569.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>22500.00</t>
+          <t>24500.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>268736.08</t>
+          <t>290456.08</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>262120.00</t>
+          <t>266120.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>106000.00</t>
+          <t>110000.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>633208.00</t>
+          <t>647508.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>236571.45</t>
+          <t>266081.45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>466</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1946631.06</t>
+          <t>2043132.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>256743.68</t>
+          <t>260743.68</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>148579.76</t>
+          <t>152579.76</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>151925.82</t>
+          <t>157425.82</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>39500.00</t>
+          <t>41500.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>345586.75</t>
+          <t>361586.75</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>284626.44</t>
+          <t>286626.44</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -10417,12 +10417,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>212538.00</t>
+          <t>224538.00</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10459,12 +10459,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>368200.00</t>
+          <t>370200.00</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10501,12 +10501,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>492</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>1250575.83</t>
+          <t>1269575.83</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10543,12 +10543,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>240627.11</t>
+          <t>244627.11</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>949</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>3329351.77</t>
+          <t>3390671.19</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10627,12 +10627,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>99500.00</t>
+          <t>101500.00</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10711,12 +10711,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>176500.00</t>
+          <t>178500.00</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10753,12 +10753,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>558429.19</t>
+          <t>560429.19</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10837,12 +10837,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>237972.92</t>
+          <t>251972.92</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10921,12 +10921,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>407662.14</t>
+          <t>425312.14</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10963,12 +10963,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>447013.00</t>
+          <t>457363.00</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>229620.00</t>
+          <t>244620.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>333886.40</t>
+          <t>344886.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>348</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>905510.82</t>
+          <t>919010.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>123000.00</t>
+          <t>125000.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>673</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2104302.08</t>
+          <t>2295274.92</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>73270.00</t>
+          <t>75270.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>351719.00</t>
+          <t>375142.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>161400.00</t>
+          <t>173400.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>204688.98</t>
+          <t>207988.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>35593.58</t>
+          <t>37593.58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>348861.32</t>
+          <t>423480.09</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>364100.00</t>
+          <t>366100.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>355</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1367857.70</t>
+          <t>1382857.70</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>128034.54</t>
+          <t>138034.54</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>258</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>910903.67</t>
+          <t>936903.67</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>158456.00</t>
+          <t>168456.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>108579.25</t>
+          <t>112579.25</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>539693.00</t>
+          <t>541693.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>222657.55</t>
+          <t>226657.55</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>47709.84</t>
+          <t>54209.84</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>145860.00</t>
+          <t>168310.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>83934.00</t>
+          <t>91434.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>49913.61</t>
+          <t>51913.61</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>420236.29</t>
+          <t>487260.82</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>60267.00</t>
+          <t>64267.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>55895.00</t>
+          <t>59895.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>81445.92</t>
+          <t>93445.92</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>77197.00</t>
+          <t>79197.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>647508.00</t>
+          <t>651508.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>562620.00</t>
+          <t>574620.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>560</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1388046.00</t>
+          <t>1401046.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1764</t>
+          <t>1772</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4721562.93</t>
+          <t>4741110.93</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2306</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>5745981.73</t>
+          <t>5950581.55</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2446</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>10249836.79</t>
+          <t>10362367.11</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>968007.04</t>
+          <t>976754.51</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>294500.00</t>
+          <t>296500.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2604933.25</t>
+          <t>2614933.25</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>478</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1358044.49</t>
+          <t>1378044.49</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>364</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>901700.16</t>
+          <t>915700.16</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>353000.00</t>
+          <t>357000.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1221932.65</t>
+          <t>1234932.65</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>835</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1988242.82</t>
+          <t>2011630.82</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>157800.00</t>
+          <t>159800.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>292000.00</t>
+          <t>299000.00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>349</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>941788.00</t>
+          <t>943788.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>628</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2258759.66</t>
+          <t>2307926.16</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8737,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>79738.00</t>
+          <t>81738.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>169926.00</t>
+          <t>181926.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>179005.00</t>
+          <t>181005.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9073,12 +9073,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>292696.77</t>
+          <t>302196.77</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>244620.00</t>
+          <t>248120.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>353</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>919010.82</t>
+          <t>937010.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>125000.00</t>
+          <t>136000.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>697</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2295274.92</t>
+          <t>2448701.92</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>53600.00</t>
+          <t>57100.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25500.00</t>
+          <t>35500.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>75270.00</t>
+          <t>77270.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>375142.00</t>
+          <t>377142.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>207988.98</t>
+          <t>209988.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>423480.09</t>
+          <t>464258.76</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>366100.00</t>
+          <t>380944.87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1382857.70</t>
+          <t>1406311.70</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>51170.00</t>
+          <t>53170.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>167893.00</t>
+          <t>169893.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>50500.00</t>
+          <t>52500.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>282968.33</t>
+          <t>286968.33</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>936903.67</t>
+          <t>969715.67</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>168456.00</t>
+          <t>174656.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>62000.00</t>
+          <t>65500.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>112579.25</t>
+          <t>114579.25</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>223487.00</t>
+          <t>227487.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>541693.00</t>
+          <t>543693.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>226657.55</t>
+          <t>228657.55</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>95127.00</t>
+          <t>104669.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>97500.00</t>
+          <t>99500.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>54209.84</t>
+          <t>58209.84</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>168310.00</t>
+          <t>174310.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>91434.00</t>
+          <t>105434.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>487260.82</t>
+          <t>525071.82</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>64267.00</t>
+          <t>70767.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>59895.00</t>
+          <t>69895.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>170877.00</t>
+          <t>172877.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>651508.00</t>
+          <t>655508.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>266081.45</t>
+          <t>274081.45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>467</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2043132.06</t>
+          <t>2053132.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>260743.68</t>
+          <t>262743.68</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>361586.75</t>
+          <t>369163.75</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>574620.00</t>
+          <t>576620.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1401046.00</t>
+          <t>1406546.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1772</t>
+          <t>1793</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4741110.93</t>
+          <t>4814610.93</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2480</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>5950581.55</t>
+          <t>6201465.94</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2499</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>10362367.11</t>
+          <t>10540285.14</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>976754.51</t>
+          <t>990954.51</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>296500.00</t>
+          <t>304500.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>600800.00</t>
+          <t>610800.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2614933.25</t>
+          <t>2642933.25</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>486</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1378044.49</t>
+          <t>1402044.49</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>915700.16</t>
+          <t>923700.16</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>357000.00</t>
+          <t>361000.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>402</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1234932.65</t>
+          <t>1252348.46</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>841</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2011630.82</t>
+          <t>2026630.82</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>159800.00</t>
+          <t>166300.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>137153.50</t>
+          <t>139153.50</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>350</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>943788.00</t>
+          <t>945788.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>644</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2307926.16</t>
+          <t>2404258.16</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8737,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>81738.00</t>
+          <t>96238.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>77000.00</t>
+          <t>82000.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>444633.00</t>
+          <t>449133.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>181005.00</t>
+          <t>183005.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>522180.50</t>
+          <t>553095.50</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9073,12 +9073,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>302196.77</t>
+          <t>304196.77</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>40000.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>248120.00</t>
+          <t>288198.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>344886.40</t>
+          <t>357386.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>373</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>937010.82</t>
+          <t>995010.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>136000.00</t>
+          <t>165289.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>741</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2448701.92</t>
+          <t>2710893.86</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>57100.00</t>
+          <t>65100.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>77270.00</t>
+          <t>86177.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>377142.00</t>
+          <t>433575.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>173400.00</t>
+          <t>193800.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>209988.98</t>
+          <t>223788.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>37593.58</t>
+          <t>39593.58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>464258.76</t>
+          <t>537507.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>380944.87</t>
+          <t>396444.87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22500.00</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1056257.15</t>
+          <t>1158826.10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>109572.00</t>
+          <t>114572.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>174177.00</t>
+          <t>187060.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>114000.00</t>
+          <t>123310.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>371</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1406311.70</t>
+          <t>1456190.10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>138034.54</t>
+          <t>157715.92</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>286968.33</t>
+          <t>288178.33</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>65500.00</t>
+          <t>77500.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>114579.25</t>
+          <t>116579.25</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>227487.00</t>
+          <t>232987.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>543693.00</t>
+          <t>565693.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>476</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1919751.63</t>
+          <t>2044100.03</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>228657.55</t>
+          <t>236657.55</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>104669.00</t>
+          <t>106669.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>290456.08</t>
+          <t>300956.08</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>266120.00</t>
+          <t>274120.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>49555.00</t>
+          <t>79555.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>158957.14</t>
+          <t>160957.14</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>152445.71</t>
+          <t>168445.71</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>265405.00</t>
+          <t>306355.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>47500.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>387467.00</t>
+          <t>399486.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>17500.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>130500.00</t>
+          <t>138000.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>147979.00</t>
+          <t>157479.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>50830.00</t>
+          <t>59830.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>103500.00</t>
+          <t>107500.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>242</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>655508.00</t>
+          <t>667508.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>274081.45</t>
+          <t>280081.45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>469</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2053132.06</t>
+          <t>2062632.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>152579.76</t>
+          <t>156579.76</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>369163.75</t>
+          <t>379163.75</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>576620.00</t>
+          <t>609550.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>573</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1406546.00</t>
+          <t>1442546.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1793</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4814610.93</t>
+          <t>4932715.93</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2687</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>6201465.94</t>
+          <t>6811637.46</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2673</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>10540285.14</t>
+          <t>11619111.82</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>990954.51</t>
+          <t>1023872.94</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>304500.00</t>
+          <t>321984.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>610800.00</t>
+          <t>681516.33</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2642933.25</t>
+          <t>2776892.25</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>511</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1402044.49</t>
+          <t>1518291.49</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>923700.16</t>
+          <t>957377.83</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>361000.00</t>
+          <t>367500.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>429</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1252348.46</t>
+          <t>1398905.46</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>860</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2026630.82</t>
+          <t>2094695.82</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>166300.00</t>
+          <t>176300.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>945788.00</t>
+          <t>949788.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>649</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2404258.16</t>
+          <t>2443424.58</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>449133.00</t>
+          <t>469133.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>181926.00</t>
+          <t>183926.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>183005.00</t>
+          <t>190720.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>553095.50</t>
+          <t>570888.14</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -10417,12 +10417,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>224538.00</t>
+          <t>228538.00</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10459,12 +10459,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>370200.00</t>
+          <t>374200.00</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10501,12 +10501,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>1269575.83</t>
+          <t>1281575.83</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10543,12 +10543,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>244627.11</t>
+          <t>246627.11</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>959</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>3390671.19</t>
+          <t>3447071.19</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10711,12 +10711,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>178500.00</t>
+          <t>180500.00</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10921,12 +10921,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>425312.14</t>
+          <t>428812.14</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10963,12 +10963,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>457363.00</t>
+          <t>461363.00</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>288198.00</t>
+          <t>296198.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>357386.40</t>
+          <t>361386.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>995010.82</t>
+          <t>1030010.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>165289.00</t>
+          <t>187289.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>773</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2710893.86</t>
+          <t>2891058.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>65100.00</t>
+          <t>80600.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86177.00</t>
+          <t>90177.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>433575.18</t>
+          <t>464316.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>193800.00</t>
+          <t>201300.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>537507.26</t>
+          <t>572717.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>396444.87</t>
+          <t>399089.87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>469408.00</t>
+          <t>471408.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>373</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1456190.10</t>
+          <t>1464941.10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>66971.00</t>
+          <t>68971.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>157715.92</t>
+          <t>164048.92</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>116579.25</t>
+          <t>126579.25</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>565693.00</t>
+          <t>583693.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2044100.03</t>
+          <t>2076939.03</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>236657.55</t>
+          <t>243572.36</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>99500.00</t>
+          <t>101500.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>274120.00</t>
+          <t>277620.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>174310.00</t>
+          <t>176310.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>105434.00</t>
+          <t>115434.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>525071.82</t>
+          <t>528606.82</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>70767.00</t>
+          <t>74767.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>93445.92</t>
+          <t>99068.92</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>32000.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>667508.00</t>
+          <t>673508.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>280081.45</t>
+          <t>288081.45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>476</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2062632.06</t>
+          <t>2119432.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>379163.75</t>
+          <t>381163.75</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>286626.44</t>
+          <t>296136.44</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -8653,12 +8653,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>101574.12</t>
+          <t>111574.12</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>653</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2443424.58</t>
+          <t>2467424.58</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>469133.00</t>
+          <t>479133.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>570888.14</t>
+          <t>582888.14</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -10375,12 +10375,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>63250.00</t>
+          <t>67250.00</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10417,12 +10417,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>228538.00</t>
+          <t>230538.00</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10459,12 +10459,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>374200.00</t>
+          <t>396200.00</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10501,12 +10501,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>510</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>1281575.83</t>
+          <t>1329575.83</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10543,12 +10543,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>246627.11</t>
+          <t>287827.11</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>988</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>3447071.19</t>
+          <t>3592661.86</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10627,12 +10627,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>101500.00</t>
+          <t>103500.00</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10711,12 +10711,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>180500.00</t>
+          <t>182500.00</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10753,12 +10753,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>560429.19</t>
+          <t>566429.19</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10795,12 +10795,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>381293.00</t>
+          <t>401693.00</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10837,12 +10837,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>251972.92</t>
+          <t>259972.92</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10921,12 +10921,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>428812.14</t>
+          <t>446812.14</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10963,12 +10963,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>461363.00</t>
+          <t>478163.00</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40000.00</t>
+          <t>42000.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>296198.00</t>
+          <t>305698.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>361386.40</t>
+          <t>382886.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>412</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1030010.82</t>
+          <t>1077510.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>187289.00</t>
+          <t>273876.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>785</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2891058.81</t>
+          <t>2947058.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>80600.00</t>
+          <t>86600.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>39500.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90177.00</t>
+          <t>96177.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>464316.18</t>
+          <t>488316.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>201300.00</t>
+          <t>222800.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>223788.98</t>
+          <t>227788.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>39593.58</t>
+          <t>41593.58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>572717.26</t>
+          <t>588717.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>399089.87</t>
+          <t>415089.87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1158826.10</t>
+          <t>1161276.10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>471408.00</t>
+          <t>473408.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1464941.10</t>
+          <t>1494941.10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>53170.00</t>
+          <t>55170.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>164048.92</t>
+          <t>176591.53</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>583693.00</t>
+          <t>585693.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2076939.03</t>
+          <t>2081939.03</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>300956.08</t>
+          <t>308536.08</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>79555.00</t>
+          <t>83555.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>160957.14</t>
+          <t>164457.14</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>306355.00</t>
+          <t>328107.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>399486.00</t>
+          <t>445497.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>25000.00</t>
+          <t>33000.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>138000.00</t>
+          <t>150000.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>157479.00</t>
+          <t>188591.04</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>59830.00</t>
+          <t>71330.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>107500.00</t>
+          <t>121492.85</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>172877.00</t>
+          <t>174877.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>673508.00</t>
+          <t>684008.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>288081.45</t>
+          <t>300781.45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>490</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2119432.06</t>
+          <t>2190883.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>70500.00</t>
+          <t>72500.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>262743.68</t>
+          <t>270743.68</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>156579.76</t>
+          <t>158579.76</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>157425.82</t>
+          <t>161425.82</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>381163.75</t>
+          <t>385163.75</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>296136.44</t>
+          <t>304136.44</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2687</t>
+          <t>2691</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>6811637.46</t>
+          <t>6823017.46</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>1055</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2776892.25</t>
+          <t>2780349.25</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>353</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>949788.00</t>
+          <t>951788.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>656</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2467424.58</t>
+          <t>2489424.58</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>479133.00</t>
+          <t>489133.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>582888.14</t>
+          <t>584388.14</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9241,12 +9241,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>937423.34</t>
+          <t>939423.34</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>989</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>3592661.86</t>
+          <t>3594661.86</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:H255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>382886.40</t>
+          <t>384886.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>418</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1077510.82</t>
+          <t>1089510.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>273876.00</t>
+          <t>319041.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>791</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2947058.81</t>
+          <t>2975058.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86600.00</t>
+          <t>88600.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>96177.00</t>
+          <t>100177.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>488316.18</t>
+          <t>523316.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>222800.00</t>
+          <t>226800.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>588717.26</t>
+          <t>598217.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>415089.87</t>
+          <t>419089.87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>122753.26</t>
+          <t>124753.26</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>288178.33</t>
+          <t>298178.33</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>969715.67</t>
+          <t>999890.80</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>26184.00</t>
+          <t>28184.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>53000.00</t>
+          <t>55000.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>140500.00</t>
+          <t>142500.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>486</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2081939.03</t>
+          <t>2121249.03</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>308536.08</t>
+          <t>320536.08</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>150000.00</t>
+          <t>152000.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>684008.00</t>
+          <t>688008.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>492</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2190883.06</t>
+          <t>2202683.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>270743.68</t>
+          <t>276743.68</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>385163.75</t>
+          <t>387163.75</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>304136.44</t>
+          <t>314546.44</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6679,12 +6679,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>23000.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6721,12 +6721,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>63000.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6763,12 +6763,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>39900.00</t>
+          <t>85336.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6805,12 +6805,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>117904.00</t>
+          <t>167876.69</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6847,12 +6847,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>14500.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6889,12 +6889,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6909,12 +6909,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6951,12 +6951,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6978,27 +6978,27 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>32500.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7015,32 +7015,32 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>132400.00</t>
+          <t>36000.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7057,12 +7057,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>119000.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7077,12 +7077,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7099,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>317000.00</t>
+          <t>132400.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7119,12 +7119,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>49500.00</t>
+          <t>119000.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7161,12 +7161,12 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7183,12 +7183,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>211155.00</t>
+          <t>317000.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7225,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>49500.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7245,12 +7245,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7267,12 +7267,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>211155.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7287,12 +7287,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7309,12 +7309,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7329,12 +7329,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7351,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>113800.00</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7393,12 +7393,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>79484.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7413,12 +7413,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7435,12 +7435,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>29500.00</t>
+          <t>113800.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7455,12 +7455,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7477,12 +7477,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>79484.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7497,12 +7497,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7519,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>38500.00</t>
+          <t>29500.00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7539,12 +7539,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7561,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>124000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7603,32 +7603,32 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>38500.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7645,32 +7645,32 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>11000.00</t>
+          <t>124000.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7687,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>30400.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7707,12 +7707,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7734,7 +7734,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>11000.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7749,12 +7749,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7771,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>77406.05</t>
+          <t>30400.00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7791,12 +7791,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7813,12 +7813,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7833,12 +7833,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7855,32 +7855,32 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>65441.00</t>
+          <t>77406.05</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7897,32 +7897,32 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>47500.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7939,12 +7939,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>133119.00</t>
+          <t>65441.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>423500.00</t>
+          <t>47500.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8001,12 +8001,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8023,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>133119.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1083516.14</t>
+          <t>423500.00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8107,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>52703.43</t>
+          <t>22000.00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8127,12 +8127,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8149,12 +8149,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>303</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>1083516.14</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8169,12 +8169,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>39977.46</t>
+          <t>52703.43</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>179558.79</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8253,12 +8253,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8275,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>57818.00</t>
+          <t>39977.46</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8295,12 +8295,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>67650.00</t>
+          <t>179558.79</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8337,12 +8337,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8359,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>57818.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8379,12 +8379,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>204307.95</t>
+          <t>67650.00</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8421,12 +8421,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>171000.00</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8485,32 +8485,32 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>176300.00</t>
+          <t>204307.95</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8527,32 +8527,32 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>139153.50</t>
+          <t>171000.00</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>299000.00</t>
+          <t>176300.00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8589,12 +8589,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>951788.00</t>
+          <t>139153.50</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8631,12 +8631,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>111574.12</t>
+          <t>299000.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8673,12 +8673,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>353</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2489424.58</t>
+          <t>951788.00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8715,12 +8715,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>96238.00</t>
+          <t>113574.12</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8757,12 +8757,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>660</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>2510317.58</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>82000.00</t>
+          <t>96238.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>489133.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>183926.00</t>
+          <t>82000.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>190720.00</t>
+          <t>489133.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8967,12 +8967,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8989,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>30500.00</t>
+          <t>193926.00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9009,12 +9009,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>584388.14</t>
+          <t>190720.00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9051,12 +9051,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9073,12 +9073,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>304196.77</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9093,12 +9093,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9115,32 +9115,32 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>96000.00</t>
+          <t>593388.14</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9157,32 +9157,32 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>141500.00</t>
+          <t>313306.36</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9199,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>336120.07</t>
+          <t>96000.00</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9219,12 +9219,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9241,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>939423.34</t>
+          <t>141500.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9283,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>79468.00</t>
+          <t>336120.07</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>1835678.47</t>
+          <t>939423.34</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9345,12 +9345,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9367,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>79468.00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9387,12 +9387,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>1835678.47</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>101400.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>357366.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9535,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>96150.00</t>
+          <t>101400.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9555,12 +9555,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>135338.97</t>
+          <t>357366.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9597,12 +9597,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>51500.00</t>
+          <t>96150.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9639,12 +9639,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9661,12 +9661,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>241695.20</t>
+          <t>135338.97</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9681,12 +9681,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>311000.00</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9745,32 +9745,32 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>49078.00</t>
+          <t>241695.20</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9787,32 +9787,32 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>60523.00</t>
+          <t>311000.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>153500.00</t>
+          <t>49078.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9849,12 +9849,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9871,12 +9871,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>431905.00</t>
+          <t>60523.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9891,12 +9891,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>50000.00</t>
+          <t>153500.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9933,12 +9933,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>1051983.50</t>
+          <t>431905.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9975,12 +9975,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9997,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>29972.00</t>
+          <t>50000.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10017,12 +10017,12 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>1051983.50</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10059,12 +10059,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -10081,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>35112.00</t>
+          <t>29972.00</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10101,12 +10101,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -10123,12 +10123,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>227187.09</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>84587.00</t>
+          <t>35112.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10185,12 +10185,12 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10207,12 +10207,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>74600.00</t>
+          <t>227187.09</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10227,12 +10227,12 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>84587.00</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10269,12 +10269,12 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10291,12 +10291,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>187270.00</t>
+          <t>74600.00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10311,12 +10311,12 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10333,12 +10333,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>147500.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10353,12 +10353,12 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -10375,32 +10375,32 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>67250.00</t>
+          <t>187270.00</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -10417,32 +10417,32 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>230538.00</t>
+          <t>147500.00</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -10459,12 +10459,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>396200.00</t>
+          <t>67250.00</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10479,12 +10479,12 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -10501,12 +10501,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>1329575.83</t>
+          <t>236538.00</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10521,12 +10521,12 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -10543,12 +10543,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>287827.11</t>
+          <t>404200.00</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10563,12 +10563,12 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>3594661.86</t>
+          <t>1365575.83</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10605,12 +10605,12 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -10627,12 +10627,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>103500.00</t>
+          <t>295827.11</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10647,12 +10647,12 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -10669,12 +10669,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>999</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>60000.00</t>
+          <t>3657157.86</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10689,12 +10689,12 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -10711,12 +10711,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>182500.00</t>
+          <t>105500.00</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10731,12 +10731,12 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -10753,12 +10753,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>566429.19</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10773,12 +10773,12 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10795,12 +10795,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>401693.00</t>
+          <t>186500.00</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10815,12 +10815,12 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10837,12 +10837,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>259972.92</t>
+          <t>576429.19</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10857,12 +10857,12 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10879,12 +10879,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>68500.00</t>
+          <t>403693.00</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10899,12 +10899,12 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10921,12 +10921,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>446812.14</t>
+          <t>263972.92</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10941,12 +10941,12 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10963,12 +10963,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>478163.00</t>
+          <t>72500.00</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -10983,10 +10983,94 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Santé humaine et action sociale</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>469264.66</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>483863.00</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
+      <c r="H255" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>384886.40</t>
+          <t>394886.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>422</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1089510.82</t>
+          <t>1097510.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>319041.00</t>
+          <t>339041.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>797</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2975058.81</t>
+          <t>3004058.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>523316.18</t>
+          <t>527316.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>226800.00</t>
+          <t>230800.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>227788.98</t>
+          <t>229788.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>419089.87</t>
+          <t>421089.87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>30500.00</t>
+          <t>54000.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>99891.77</t>
+          <t>101891.77</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>356175.00</t>
+          <t>366175.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>33800.00</t>
+          <t>35800.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1161276.10</t>
+          <t>1285511.12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11000.00</t>
+          <t>13000.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>39500.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>21500.00</t>
+          <t>23500.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>187060.00</t>
+          <t>213018.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>123310.00</t>
+          <t>137310.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>473408.00</t>
+          <t>475408.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1494941.10</t>
+          <t>1499848.18</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>75000.00</t>
+          <t>78500.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>169893.00</t>
+          <t>171893.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>77500.00</t>
+          <t>79400.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>232987.00</t>
+          <t>238487.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>585693.00</t>
+          <t>587693.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>491</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2121249.03</t>
+          <t>2147734.03</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>39000.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>17000.00</t>
+          <t>23500.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>51569.00</t>
+          <t>58069.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>243572.36</t>
+          <t>255072.36</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>106669.00</t>
+          <t>116669.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>320536.08</t>
+          <t>333636.08</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>300781.45</t>
+          <t>304781.45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>496</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2202683.06</t>
+          <t>2224983.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>25000.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>72500.00</t>
+          <t>74500.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>158579.76</t>
+          <t>166579.76</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>161425.82</t>
+          <t>165793.82</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>314546.44</t>
+          <t>328364.44</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>662</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2510317.58</t>
+          <t>2525282.58</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>394886.40</t>
+          <t>398886.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>430</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1097510.82</t>
+          <t>1117510.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>339041.00</t>
+          <t>351041.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3004058.81</t>
+          <t>3040058.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>230800.00</t>
+          <t>236800.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>598217.26</t>
+          <t>606217.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1499848.18</t>
+          <t>1509848.18</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>68971.00</t>
+          <t>78971.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>999890.80</t>
+          <t>1006390.80</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>96000.00</t>
+          <t>100000.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>174656.00</t>
+          <t>184656.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>587693.00</t>
+          <t>589693.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>492</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2147734.03</t>
+          <t>2149734.03</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>25909.00</t>
+          <t>35909.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>176310.00</t>
+          <t>180310.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>115434.00</t>
+          <t>125434.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>51913.61</t>
+          <t>55913.61</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>528606.82</t>
+          <t>532606.82</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>23500.00</t>
+          <t>25500.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>74767.00</t>
+          <t>83620.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>69895.00</t>
+          <t>71895.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>29100.00</t>
+          <t>33100.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5209,12 +5209,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>17000.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>79197.00</t>
+          <t>83197.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>498</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2224983.06</t>
+          <t>2240983.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>328364.44</t>
+          <t>335995.68</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>664</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2525282.58</t>
+          <t>2541782.58</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>96238.00</t>
+          <t>98238.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -11005,12 +11005,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>469264.66</t>
+          <t>471264.66</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>398886.40</t>
+          <t>404886.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1117510.82</t>
+          <t>1149510.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>351041.00</t>
+          <t>411041.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>809</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3040058.81</t>
+          <t>3074189.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88600.00</t>
+          <t>90600.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>39500.00</t>
+          <t>41500.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>236800.00</t>
+          <t>240800.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>229788.98</t>
+          <t>231788.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>606217.26</t>
+          <t>616217.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>421089.87</t>
+          <t>423089.87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1285511.12</t>
+          <t>1293680.35</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1509848.18</t>
+          <t>1511848.18</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>79400.00</t>
+          <t>89400.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>589693.00</t>
+          <t>595693.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>71991.00</t>
+          <t>73991.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>497</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2149734.03</t>
+          <t>2181324.03</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>58069.00</t>
+          <t>60069.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>116669.00</t>
+          <t>118669.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>101500.00</t>
+          <t>103500.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>277620.00</t>
+          <t>279620.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>35909.00</t>
+          <t>37909.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>58209.84</t>
+          <t>62209.84</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>125434.00</t>
+          <t>128534.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>55913.61</t>
+          <t>63913.61</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>25500.00</t>
+          <t>34499.26</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>71895.00</t>
+          <t>73895.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>33100.00</t>
+          <t>37100.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>110000.00</t>
+          <t>130000.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>174877.00</t>
+          <t>176877.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>688008.00</t>
+          <t>706508.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>304781.45</t>
+          <t>321012.45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>506</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2240983.06</t>
+          <t>2299836.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>276743.68</t>
+          <t>278743.68</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>335995.68</t>
+          <t>343995.68</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>577</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1442546.00</t>
+          <t>1453546.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4932715.93</t>
+          <t>4965715.93</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2691</t>
+          <t>2723</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>6823017.46</t>
+          <t>6892397.55</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2673</t>
+          <t>2698</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>11619111.82</t>
+          <t>11810211.82</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1023872.94</t>
+          <t>1047658.94</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>258</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>681516.33</t>
+          <t>685516.33</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2780349.25</t>
+          <t>2803349.25</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1518291.49</t>
+          <t>1553313.66</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>957377.83</t>
+          <t>965377.83</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>367500.00</t>
+          <t>369500.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>434</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1398905.46</t>
+          <t>1421905.46</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>864</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2094695.82</t>
+          <t>2104195.82</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>139153.50</t>
+          <t>141153.50</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>354</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>951788.00</t>
+          <t>953788.00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>404886.40</t>
+          <t>408886.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>445</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1149510.82</t>
+          <t>1153510.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>411041.00</t>
+          <t>439041.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>811</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3074189.81</t>
+          <t>3083688.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>527316.18</t>
+          <t>533316.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>240800.00</t>
+          <t>242800.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>423089.87</t>
+          <t>431089.87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>54000.00</t>
+          <t>56000.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>115500.00</t>
+          <t>121000.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>366175.00</t>
+          <t>376175.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>325</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1293680.35</t>
+          <t>1358916.35</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13000.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>22024.69</t>
+          <t>24024.69</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>114572.00</t>
+          <t>116572.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>39500.00</t>
+          <t>45500.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>37450.00</t>
+          <t>41450.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>137310.00</t>
+          <t>139310.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>92000.00</t>
+          <t>102000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>475408.00</t>
+          <t>477408.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1511848.18</t>
+          <t>1517848.18</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>171893.00</t>
+          <t>176768.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>298178.33</t>
+          <t>301028.33</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>184656.00</t>
+          <t>194656.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>126579.25</t>
+          <t>128579.25</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>595693.00</t>
+          <t>601575.19</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>499</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2181324.03</t>
+          <t>2188776.03</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>118669.00</t>
+          <t>123669.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>333636.08</t>
+          <t>340136.08</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>130000.00</t>
+          <t>136158.69</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>254</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>706508.00</t>
+          <t>708508.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>321012.45</t>
+          <t>329012.45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>512</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2299836.06</t>
+          <t>2325836.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>278743.68</t>
+          <t>280743.68</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>166579.76</t>
+          <t>178579.76</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6805,12 +6805,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>167876.69</t>
+          <t>177876.69</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>408886.40</t>
+          <t>416386.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1153510.82</t>
+          <t>1167510.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>439041.00</t>
+          <t>483041.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>814</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3083688.81</t>
+          <t>3097688.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90600.00</t>
+          <t>94600.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>533316.18</t>
+          <t>542816.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>242800.00</t>
+          <t>250800.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>231788.98</t>
+          <t>237788.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>616217.26</t>
+          <t>626217.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>431089.87</t>
+          <t>440089.87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>238487.00</t>
+          <t>240487.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>601575.19</t>
+          <t>605075.19</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2188776.03</t>
+          <t>2198776.03</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>708508.00</t>
+          <t>712508.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>329012.45</t>
+          <t>331012.45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>515</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2325836.06</t>
+          <t>2345836.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>387163.75</t>
+          <t>396663.75</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>578</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1453546.00</t>
+          <t>1457046.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2723</t>
+          <t>2724</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>6892397.55</t>
+          <t>6894397.55</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2698</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>11810211.82</t>
+          <t>11816211.82</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2803349.25</t>
+          <t>2805349.25</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1421905.46</t>
+          <t>1433905.46</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>865</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2104195.82</t>
+          <t>2106195.82</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6931,12 +6931,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>15500.00</t>
+          <t>21900.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>669</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2541782.58</t>
+          <t>2567782.58</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>98238.00</t>
+          <t>100238.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>190720.00</t>
+          <t>192720.00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>313306.36</t>
+          <t>323306.36</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9829,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>49078.00</t>
+          <t>60578.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>153500.00</t>
+          <t>155500.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>431905.00</t>
+          <t>461905.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9997,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>50000.00</t>
+          <t>57403.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>1051983.50</t>
+          <t>1213037.07</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10081,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>29972.00</t>
+          <t>31972.00</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>35112.00</t>
+          <t>40612.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10207,12 +10207,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>227187.09</t>
+          <t>250687.09</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>84587.00</t>
+          <t>90323.00</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10291,12 +10291,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>74600.00</t>
+          <t>89100.00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10375,12 +10375,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>187270.00</t>
+          <t>291949.36</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10417,12 +10417,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>147500.00</t>
+          <t>149500.00</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10543,12 +10543,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>404200.00</t>
+          <t>419700.00</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>541</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>1365575.83</t>
+          <t>1410575.83</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10627,12 +10627,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>295827.11</t>
+          <t>342727.11</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10669,12 +10669,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>3657157.86</t>
+          <t>3766966.46</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10711,12 +10711,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>105500.00</t>
+          <t>116077.85</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10753,12 +10753,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>60000.00</t>
+          <t>62000.00</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10795,12 +10795,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>186500.00</t>
+          <t>188500.00</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10837,12 +10837,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>576429.19</t>
+          <t>587139.19</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10879,12 +10879,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>403693.00</t>
+          <t>414193.00</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10921,12 +10921,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>263972.92</t>
+          <t>273972.92</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -11005,12 +11005,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>471264.66</t>
+          <t>502835.82</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -11047,12 +11047,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>483863.00</t>
+          <t>495863.00</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42000.00</t>
+          <t>44000.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>305698.00</t>
+          <t>315698.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>455</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1167510.82</t>
+          <t>1173510.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>483041.00</t>
+          <t>517041.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>824</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3097688.81</t>
+          <t>3141614.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>542816.18</t>
+          <t>544816.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>250800.00</t>
+          <t>252800.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>626217.26</t>
+          <t>628217.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>326</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1358916.35</t>
+          <t>1366916.35</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>240487.00</t>
+          <t>243987.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>505</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2198776.03</t>
+          <t>2236814.03</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>23500.00</t>
+          <t>33500.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>255072.36</t>
+          <t>265072.36</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>340136.08</t>
+          <t>342136.08</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>712508.00</t>
+          <t>717508.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>331012.45</t>
+          <t>349012.45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2345836.06</t>
+          <t>2376356.06</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>176300.00</t>
+          <t>178300.00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>670</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2567782.58</t>
+          <t>2574882.58</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>489133.00</t>
+          <t>491133.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9115,12 +9115,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>593388.14</t>
+          <t>599185.14</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -10627,12 +10627,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>342727.11</t>
+          <t>344727.11</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H255"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>416386.40</t>
+          <t>418386.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>456</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1173510.82</t>
+          <t>1175510.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>102000.00</t>
+          <t>105500.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>25000.00</t>
+          <t>31000.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>51449.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>67000.00</t>
+          <t>71000.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>148500.00</t>
+          <t>177000.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>274836.66</t>
+          <t>427437.09</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>27500.00</t>
+          <t>6845.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>92000.00</t>
+          <t>39500.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>26500.00</t>
+          <t>134773.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>43561.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>18500.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>23000.00</t>
+          <t>38821.60</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -3445,32 +3445,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>89400.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>128579.25</t>
+          <t>89400.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>130579.25</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>243987.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>605075.19</t>
+          <t>243987.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>73991.00</t>
+          <t>607075.19</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2236814.03</t>
+          <t>73991.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>510</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>39000.00</t>
+          <t>2273814.03</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>33500.00</t>
+          <t>39000.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>60069.00</t>
+          <t>33500.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>265072.36</t>
+          <t>60069.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>123669.00</t>
+          <t>265072.36</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>103500.00</t>
+          <t>123669.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>24500.00</t>
+          <t>103500.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>342136.08</t>
+          <t>24500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>279620.00</t>
+          <t>342136.08</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -4117,32 +4117,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>83555.00</t>
+          <t>279620.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>164457.14</t>
+          <t>83555.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>168445.71</t>
+          <t>164457.14</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>328107.00</t>
+          <t>168445.71</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>47500.00</t>
+          <t>328107.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>445497.00</t>
+          <t>47500.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>24500.00</t>
+          <t>445497.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>24500.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>33000.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>152000.00</t>
+          <t>33000.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>188591.04</t>
+          <t>152000.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>47700.00</t>
+          <t>188591.04</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>47700.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4641,12 +4641,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>71330.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>121492.85</t>
+          <t>71330.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -4747,32 +4747,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>37909.00</t>
+          <t>121492.85</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>62209.84</t>
+          <t>41909.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>180310.00</t>
+          <t>62209.84</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>128534.00</t>
+          <t>196810.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>63913.61</t>
+          <t>160172.01</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4935,12 +4935,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>532606.82</t>
+          <t>63913.61</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4977,12 +4977,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>34499.26</t>
+          <t>575906.82</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5019,12 +5019,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>34499.26</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>83620.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>73895.00</t>
+          <t>96910.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5145,12 +5145,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>37100.00</t>
+          <t>81895.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5187,12 +5187,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5209,12 +5209,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>17000.00</t>
+          <t>47100.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>99068.92</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5271,12 +5271,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>83197.00</t>
+          <t>99068.92</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5313,12 +5313,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5335,32 +5335,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>85197.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>136158.69</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5397,12 +5397,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>176877.00</t>
+          <t>136158.69</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5439,12 +5439,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>717508.00</t>
+          <t>176877.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5481,12 +5481,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>349012.45</t>
+          <t>737508.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5523,12 +5523,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2376356.06</t>
+          <t>359012.45</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5565,12 +5565,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>533</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>2495378.06</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5607,12 +5607,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>40017.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5649,12 +5649,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5671,19 +5671,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>40017.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>74500.00</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="F127" t="inlineStr">
         <is>
           <t>Hauts-de-France</t>
@@ -5691,12 +5691,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>280743.68</t>
+          <t>76500.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>178579.76</t>
+          <t>290743.68</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>165793.82</t>
+          <t>178579.76</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5817,12 +5817,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>41500.00</t>
+          <t>165793.82</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5859,12 +5859,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>396663.75</t>
+          <t>41500.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5901,12 +5901,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>343995.68</t>
+          <t>396663.75</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5943,12 +5943,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5965,32 +5965,32 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>44780.00</t>
+          <t>343995.68</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>609550.00</t>
+          <t>44780.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6027,12 +6027,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -6049,12 +6049,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>609550.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -6091,12 +6091,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>38500.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6111,12 +6111,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
     </row>
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1457046.00</t>
+          <t>38500.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6153,12 +6153,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>578</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4965715.93</t>
+          <t>1457046.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6195,12 +6195,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2724</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>6894397.55</t>
+          <t>4965715.93</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6237,12 +6237,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>2725</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>11816211.82</t>
+          <t>6896397.55</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6279,12 +6279,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1047658.94</t>
+          <t>11816211.82</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6321,12 +6321,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>321984.00</t>
+          <t>1047658.94</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6363,12 +6363,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>685516.33</t>
+          <t>323984.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6405,12 +6405,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>258</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2805349.25</t>
+          <t>685516.33</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6447,12 +6447,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1553313.66</t>
+          <t>2805349.25</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6489,12 +6489,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>965377.83</t>
+          <t>1553313.66</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>369500.00</t>
+          <t>965377.83</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6573,12 +6573,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1433905.46</t>
+          <t>369500.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6615,12 +6615,12 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2106195.82</t>
+          <t>1433905.46</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6657,12 +6657,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6679,32 +6679,32 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>865</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>23000.00</t>
+          <t>2106195.82</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6721,12 +6721,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>63000.00</t>
+          <t>23000.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6741,12 +6741,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -6763,12 +6763,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>85336.00</t>
+          <t>63000.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6783,12 +6783,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6805,12 +6805,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>177876.69</t>
+          <t>85336.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6825,12 +6825,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6847,12 +6847,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>14500.00</t>
+          <t>177876.69</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6889,12 +6889,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>14500.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6909,12 +6909,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>21900.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6951,12 +6951,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6973,12 +6973,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>32500.00</t>
+          <t>21900.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6993,12 +6993,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7015,12 +7015,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>36000.00</t>
+          <t>32500.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7035,12 +7035,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7057,32 +7057,32 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>36000.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7099,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>132400.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7119,12 +7119,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>119000.00</t>
+          <t>132400.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7161,12 +7161,12 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7183,12 +7183,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>317000.00</t>
+          <t>119000.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7225,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>49500.00</t>
+          <t>317000.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7245,12 +7245,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7267,12 +7267,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>211155.00</t>
+          <t>49500.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7287,12 +7287,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7309,12 +7309,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>211155.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7329,12 +7329,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7351,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7393,12 +7393,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7413,12 +7413,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7435,12 +7435,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>113800.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7455,12 +7455,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7477,12 +7477,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>79484.00</t>
+          <t>113800.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7497,12 +7497,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7519,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>29500.00</t>
+          <t>79484.00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7539,12 +7539,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7561,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>29500.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7603,12 +7603,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>38500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7645,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>124000.00</t>
+          <t>38500.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7665,12 +7665,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7687,32 +7687,32 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>124000.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7729,12 +7729,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>11000.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7749,12 +7749,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7771,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>30400.00</t>
+          <t>11000.00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7791,12 +7791,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7813,12 +7813,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>30400.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7833,12 +7833,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7855,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>77406.05</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7875,12 +7875,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>77406.05</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7917,12 +7917,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7939,32 +7939,32 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>65441.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>47500.00</t>
+          <t>75441.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8001,12 +8001,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8023,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>133119.00</t>
+          <t>51000.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>423500.00</t>
+          <t>135119.00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8107,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>453000.00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8127,12 +8127,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8149,12 +8149,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1083516.14</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8169,12 +8169,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>52703.43</t>
+          <t>1287043.24</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>54703.43</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8253,12 +8253,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8275,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>39977.46</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8295,12 +8295,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>179558.79</t>
+          <t>39977.46</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8337,12 +8337,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8359,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>57818.00</t>
+          <t>211258.79</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8379,12 +8379,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>67650.00</t>
+          <t>76510.00</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8421,12 +8421,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>83650.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>204307.95</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8505,12 +8505,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>171000.00</t>
+          <t>263307.95</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8569,32 +8569,32 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>178300.00</t>
+          <t>185000.00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8616,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>141153.50</t>
+          <t>178300.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8631,12 +8631,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>299000.00</t>
+          <t>141153.50</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8673,12 +8673,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>953788.00</t>
+          <t>299000.00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8715,12 +8715,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>354</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>113574.12</t>
+          <t>953788.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8757,12 +8757,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2574882.58</t>
+          <t>113574.12</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>670</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>100238.00</t>
+          <t>2574882.58</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>100238.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>82000.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>491133.00</t>
+          <t>82000.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8967,12 +8967,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8989,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>193926.00</t>
+          <t>491133.00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9009,12 +9009,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>192720.00</t>
+          <t>193926.00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9051,12 +9051,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9073,12 +9073,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>30500.00</t>
+          <t>192720.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9093,12 +9093,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>599185.14</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9135,12 +9135,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>323306.36</t>
+          <t>599185.14</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9177,12 +9177,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9199,32 +9199,32 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>96000.00</t>
+          <t>323306.36</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9241,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>141500.00</t>
+          <t>96000.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9283,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>336120.07</t>
+          <t>141500.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>939423.34</t>
+          <t>336120.07</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9345,12 +9345,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9367,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>79468.00</t>
+          <t>939423.34</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9387,12 +9387,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1835678.47</t>
+          <t>79468.00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>1835678.47</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9535,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>101400.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9555,12 +9555,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>357366.00</t>
+          <t>101400.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9597,12 +9597,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>96150.00</t>
+          <t>357366.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9639,12 +9639,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9661,12 +9661,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>135338.97</t>
+          <t>96150.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9681,12 +9681,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>51500.00</t>
+          <t>135338.97</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>241695.20</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9765,12 +9765,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9787,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>311000.00</t>
+          <t>241695.20</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9807,12 +9807,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9829,32 +9829,32 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>60578.00</t>
+          <t>311000.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9871,12 +9871,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>60523.00</t>
+          <t>60578.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9891,12 +9891,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>155500.00</t>
+          <t>60523.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9933,12 +9933,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>461905.00</t>
+          <t>155500.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9975,12 +9975,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9997,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>57403.00</t>
+          <t>461905.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10017,12 +10017,12 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>1213037.07</t>
+          <t>57403.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10059,12 +10059,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -10081,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>31972.00</t>
+          <t>1213037.07</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10101,12 +10101,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -10123,12 +10123,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>31972.00</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>40612.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10185,12 +10185,12 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10207,12 +10207,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>250687.09</t>
+          <t>40612.00</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10227,12 +10227,12 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>90323.00</t>
+          <t>250687.09</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10269,12 +10269,12 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10291,12 +10291,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>89100.00</t>
+          <t>90323.00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10311,12 +10311,12 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10333,12 +10333,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>89100.00</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10353,12 +10353,12 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10375,12 +10375,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>291949.36</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10395,12 +10395,12 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -10417,12 +10417,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>149500.00</t>
+          <t>291949.36</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10437,12 +10437,12 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -10459,32 +10459,32 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>67250.00</t>
+          <t>149500.00</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -10501,12 +10501,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>236538.00</t>
+          <t>67250.00</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10521,12 +10521,12 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -10543,12 +10543,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>419700.00</t>
+          <t>236538.00</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10563,12 +10563,12 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>1410575.83</t>
+          <t>419700.00</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10605,12 +10605,12 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -10627,12 +10627,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>541</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>344727.11</t>
+          <t>1410575.83</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10647,12 +10647,12 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -10669,12 +10669,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>3766966.46</t>
+          <t>344727.11</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10689,12 +10689,12 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -10711,12 +10711,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>116077.85</t>
+          <t>3766966.46</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10731,12 +10731,12 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -10753,12 +10753,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>62000.00</t>
+          <t>116077.85</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10773,12 +10773,12 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -10795,12 +10795,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>188500.00</t>
+          <t>62000.00</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10815,12 +10815,12 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10837,12 +10837,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>587139.19</t>
+          <t>188500.00</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10857,12 +10857,12 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10879,12 +10879,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>414193.00</t>
+          <t>587139.19</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10899,12 +10899,12 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10921,12 +10921,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>273972.92</t>
+          <t>414193.00</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10941,12 +10941,12 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10963,12 +10963,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>72500.00</t>
+          <t>273972.92</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -10983,12 +10983,12 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -11005,12 +11005,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>502835.82</t>
+          <t>72500.00</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -11025,12 +11025,12 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -11047,30 +11047,72 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>502835.82</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
           <t>222</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
+      <c r="D256" t="inlineStr">
         <is>
           <t>495863.00</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
+      <c r="E256" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
+      <c r="F256" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
+      <c r="H256" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -525,12 +525,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
     </row>
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>418386.40</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -567,12 +567,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1175510.82</t>
+          <t>422386.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>463</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>517041.00</t>
+          <t>1189510.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -651,12 +651,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3141614.81</t>
+          <t>555041.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>826</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94600.00</t>
+          <t>3149914.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>41500.00</t>
+          <t>94600.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -777,12 +777,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>100177.00</t>
+          <t>41500.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -819,12 +819,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>544816.18</t>
+          <t>100177.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>252800.00</t>
+          <t>546816.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>237788.98</t>
+          <t>254800.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -945,12 +945,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>41593.58</t>
+          <t>237788.98</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>628217.26</t>
+          <t>43593.58</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>440089.87</t>
+          <t>630217.26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -1093,32 +1093,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>56000.00</t>
+          <t>446089.87</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bourgogne-Franche-Comté</t>
+          <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>101891.77</t>
+          <t>56000.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>121000.00</t>
+          <t>101891.77</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1197,12 +1197,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>376175.00</t>
+          <t>121000.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>35800.00</t>
+          <t>376175.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1366916.35</t>
+          <t>35800.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>326</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>1366916.35</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>24024.69</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1407,12 +1407,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>116572.00</t>
+          <t>24024.69</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>116572.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>41450.00</t>
+          <t>45500.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1533,12 +1533,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23500.00</t>
+          <t>41450.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>213018.00</t>
+          <t>23500.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>139310.00</t>
+          <t>213018.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1659,12 +1659,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -1681,32 +1681,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>46000.00</t>
+          <t>139310.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bretagne</t>
+          <t>Bourgogne-Franche-Comté</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>105500.00</t>
+          <t>46000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>85945.00</t>
+          <t>105500.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>477408.00</t>
+          <t>85945.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>23500.00</t>
+          <t>477408.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1517848.18</t>
+          <t>23500.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>1517848.18</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1953,12 +1953,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>55170.00</t>
+          <t>32200.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2037,12 +2037,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>125000.00</t>
+          <t>55170.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>78500.00</t>
+          <t>125000.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>78971.00</t>
+          <t>78500.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>78971.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>176591.53</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2247,12 +2247,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>176768.00</t>
+          <t>176591.53</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -2311,32 +2311,32 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>52500.00</t>
+          <t>176768.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Centre-Val de Loire</t>
+          <t>Bretagne</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>52500.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>124753.26</t>
+          <t>63500.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2415,12 +2415,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>301028.33</t>
+          <t>124753.26</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>56100.00</t>
+          <t>301028.33</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1006390.80</t>
+          <t>56100.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>28184.00</t>
+          <t>1014390.80</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>28184.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2625,12 +2625,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -2667,12 +2667,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>100000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>39000.00</t>
+          <t>100000.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>55000.00</t>
+          <t>39000.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>55000.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>194656.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>142500.00</t>
+          <t>194656.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -2941,32 +2941,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>31000.00</t>
+          <t>142500.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Corse</t>
+          <t>Centre-Val de Loire</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>51449.00</t>
+          <t>31000.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>71000.00</t>
+          <t>51449.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>177000.00</t>
+          <t>71000.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>427437.09</t>
+          <t>177000.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>427437.09</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6845.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>39500.00</t>
+          <t>6845.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>134773.00</t>
+          <t>39500.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>43561.00</t>
+          <t>134773.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>43561.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>38821.60</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>38821.60</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -3487,32 +3487,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>89400.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -3529,19 +3529,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>89400.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>130579.25</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>Grand Est</t>
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>142579.25</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>243987.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>607075.19</t>
+          <t>243987.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>73991.00</t>
+          <t>609075.19</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2273814.03</t>
+          <t>77991.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>521</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>39000.00</t>
+          <t>2345768.47</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>33500.00</t>
+          <t>39000.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>60069.00</t>
+          <t>33500.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>265072.36</t>
+          <t>60069.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>123669.00</t>
+          <t>275774.36</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>103500.00</t>
+          <t>123669.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>24500.00</t>
+          <t>105500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>342136.08</t>
+          <t>24500.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>279620.00</t>
+          <t>342136.08</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -4159,32 +4159,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>83555.00</t>
+          <t>283620.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>164457.14</t>
+          <t>113555.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>168445.71</t>
+          <t>177957.14</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>328107.00</t>
+          <t>194205.71</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>47500.00</t>
+          <t>407862.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>445497.00</t>
+          <t>49500.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>24500.00</t>
+          <t>502497.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>24500.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>33000.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>152000.00</t>
+          <t>35000.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>188591.04</t>
+          <t>158000.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>47700.00</t>
+          <t>211902.04</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4641,12 +4641,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>47700.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>71330.00</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>121492.85</t>
+          <t>73330.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4767,12 +4767,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -4789,32 +4789,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>41909.00</t>
+          <t>131492.85</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>62209.84</t>
+          <t>43909.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>196810.00</t>
+          <t>64209.84</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>160172.01</t>
+          <t>200810.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4935,12 +4935,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>63913.61</t>
+          <t>162172.01</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4977,12 +4977,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>575906.82</t>
+          <t>65913.61</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5019,12 +5019,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>34499.26</t>
+          <t>583906.82</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>34499.26</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>96910.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5145,12 +5145,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>81895.00</t>
+          <t>102910.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5187,12 +5187,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5209,12 +5209,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>47100.00</t>
+          <t>83895.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>49100.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5271,12 +5271,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>99068.92</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5313,12 +5313,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>85197.00</t>
+          <t>99068.92</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5355,12 +5355,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5377,32 +5377,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>85197.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>136158.69</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5439,12 +5439,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>176877.00</t>
+          <t>136158.69</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5481,12 +5481,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>737508.00</t>
+          <t>176877.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5523,12 +5523,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>359012.45</t>
+          <t>737508.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5565,12 +5565,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2495378.06</t>
+          <t>359012.45</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5607,12 +5607,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>533</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>2495378.06</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5649,12 +5649,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5671,12 +5671,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>40017.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>76500.00</t>
+          <t>40017.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>290743.68</t>
+          <t>76500.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>178579.76</t>
+          <t>290743.68</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5817,12 +5817,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>165793.82</t>
+          <t>178579.76</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5859,12 +5859,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>41500.00</t>
+          <t>165793.82</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5901,12 +5901,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>396663.75</t>
+          <t>41500.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5943,12 +5943,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>343995.68</t>
+          <t>396663.75</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5985,12 +5985,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6007,32 +6007,32 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>44780.00</t>
+          <t>343995.68</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6049,12 +6049,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>609550.00</t>
+          <t>44780.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -6091,12 +6091,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>609550.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6111,12 +6111,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>38500.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6153,12 +6153,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
     </row>
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1457046.00</t>
+          <t>38500.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6195,12 +6195,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>578</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>4965715.93</t>
+          <t>1457046.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6237,12 +6237,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>6896397.55</t>
+          <t>4965715.93</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6279,12 +6279,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>2725</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>11816211.82</t>
+          <t>6896397.55</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6321,12 +6321,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1047658.94</t>
+          <t>11816211.82</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6363,12 +6363,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>323984.00</t>
+          <t>1047658.94</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6405,12 +6405,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>685516.33</t>
+          <t>323984.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6447,12 +6447,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>258</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2805349.25</t>
+          <t>685516.33</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6489,12 +6489,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1553313.66</t>
+          <t>2805349.25</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>965377.83</t>
+          <t>1553313.66</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6573,12 +6573,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>369500.00</t>
+          <t>965377.83</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6615,12 +6615,12 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1433905.46</t>
+          <t>369500.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6657,12 +6657,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -6679,12 +6679,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2106195.82</t>
+          <t>1433905.46</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6699,12 +6699,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6721,32 +6721,32 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>865</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>23000.00</t>
+          <t>2106195.82</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6763,12 +6763,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>63000.00</t>
+          <t>23000.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6783,12 +6783,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -6805,12 +6805,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>85336.00</t>
+          <t>63000.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6825,12 +6825,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6847,12 +6847,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>177876.69</t>
+          <t>85336.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6889,12 +6889,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>14500.00</t>
+          <t>177876.69</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6909,12 +6909,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>14500.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6951,12 +6951,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6973,12 +6973,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>21900.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6993,12 +6993,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7015,12 +7015,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>32500.00</t>
+          <t>21900.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7035,12 +7035,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7057,12 +7057,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>36000.00</t>
+          <t>32500.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7077,12 +7077,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7099,32 +7099,32 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>36000.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>132400.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7161,12 +7161,12 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7183,12 +7183,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>119000.00</t>
+          <t>132400.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7225,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>317000.00</t>
+          <t>119000.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7245,12 +7245,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7267,12 +7267,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>49500.00</t>
+          <t>317000.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7287,12 +7287,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7309,12 +7309,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>211155.00</t>
+          <t>49500.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7329,12 +7329,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7351,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>211155.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7393,12 +7393,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7413,12 +7413,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7435,12 +7435,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7455,12 +7455,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7477,12 +7477,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>113800.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7497,12 +7497,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7519,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>79484.00</t>
+          <t>113800.00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7539,12 +7539,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7561,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>29500.00</t>
+          <t>79484.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7603,12 +7603,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>29500.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7645,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>38500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7665,12 +7665,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7687,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>124000.00</t>
+          <t>38500.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7707,12 +7707,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7729,32 +7729,32 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>124000.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7771,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>11000.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7791,12 +7791,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7813,12 +7813,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>30400.00</t>
+          <t>13000.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7833,12 +7833,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7855,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>44400.00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7875,12 +7875,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>77406.05</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7917,12 +7917,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7939,12 +7939,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>95956.05</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7981,32 +7981,32 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>75441.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8023,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>51000.00</t>
+          <t>75441.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>135119.00</t>
+          <t>51000.00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8107,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>453000.00</t>
+          <t>135119.00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8127,12 +8127,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8149,12 +8149,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>453000.00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8169,12 +8169,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>1287043.24</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>54703.43</t>
+          <t>1287043.24</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8253,12 +8253,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8275,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>54703.43</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8295,12 +8295,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>39977.46</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8337,12 +8337,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8359,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>211258.79</t>
+          <t>39977.46</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8379,12 +8379,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>76510.00</t>
+          <t>211258.79</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8421,12 +8421,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>83650.00</t>
+          <t>76510.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>83650.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8505,12 +8505,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>263307.95</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>185000.00</t>
+          <t>263307.95</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8589,12 +8589,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8611,32 +8611,32 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>178300.00</t>
+          <t>185000.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8658,7 +8658,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>141153.50</t>
+          <t>178300.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8673,12 +8673,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>299000.00</t>
+          <t>143153.50</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8715,12 +8715,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>953788.00</t>
+          <t>299000.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8757,12 +8757,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>355</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>113574.12</t>
+          <t>955788.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2574882.58</t>
+          <t>113574.12</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>674</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>100238.00</t>
+          <t>2607482.58</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>102238.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>82000.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8967,12 +8967,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8989,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>491133.00</t>
+          <t>82000.00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9009,12 +9009,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>193926.00</t>
+          <t>493133.00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9051,12 +9051,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9073,12 +9073,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>192720.00</t>
+          <t>195926.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9093,12 +9093,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>30500.00</t>
+          <t>194720.00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9135,12 +9135,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>599185.14</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9177,12 +9177,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9199,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>323306.36</t>
+          <t>611185.14</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9219,12 +9219,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9241,32 +9241,32 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>96000.00</t>
+          <t>323306.36</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9283,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>141500.00</t>
+          <t>96000.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>336120.07</t>
+          <t>141500.00</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9345,12 +9345,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9367,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>939423.34</t>
+          <t>336120.07</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9387,12 +9387,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>79468.00</t>
+          <t>939423.34</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>1835678.47</t>
+          <t>79468.00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>1835678.47</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9535,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9555,12 +9555,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>101400.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9597,12 +9597,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>357366.00</t>
+          <t>101400.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9639,12 +9639,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9661,12 +9661,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>96150.00</t>
+          <t>357366.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9681,12 +9681,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>135338.97</t>
+          <t>96150.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>51500.00</t>
+          <t>135338.97</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9765,12 +9765,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9787,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>241695.20</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9807,12 +9807,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>311000.00</t>
+          <t>241695.20</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9849,12 +9849,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9871,32 +9871,32 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>60578.00</t>
+          <t>311000.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9913,12 +9913,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>60523.00</t>
+          <t>60578.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9933,12 +9933,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9955,12 +9955,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>155500.00</t>
+          <t>60523.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9975,12 +9975,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9997,12 +9997,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>461905.00</t>
+          <t>155500.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10017,12 +10017,12 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>57403.00</t>
+          <t>461905.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10059,12 +10059,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -10081,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>1213037.07</t>
+          <t>57403.00</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10101,12 +10101,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -10123,12 +10123,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>31972.00</t>
+          <t>1213037.07</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>31972.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10185,12 +10185,12 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -10207,12 +10207,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>40612.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10227,12 +10227,12 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>250687.09</t>
+          <t>40612.00</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10269,12 +10269,12 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10291,12 +10291,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>90323.00</t>
+          <t>250687.09</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10311,12 +10311,12 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10333,12 +10333,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>89100.00</t>
+          <t>90323.00</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10353,12 +10353,12 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10375,12 +10375,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>89100.00</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10395,12 +10395,12 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10417,12 +10417,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>291949.36</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10437,12 +10437,12 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -10459,12 +10459,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>149500.00</t>
+          <t>291949.36</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10479,12 +10479,12 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -10501,32 +10501,32 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>67250.00</t>
+          <t>149500.00</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -10543,12 +10543,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>236538.00</t>
+          <t>67250.00</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10563,12 +10563,12 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>419700.00</t>
+          <t>236538.00</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10605,12 +10605,12 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -10627,12 +10627,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>1410575.83</t>
+          <t>419700.00</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10647,12 +10647,12 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -10669,12 +10669,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>541</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>344727.11</t>
+          <t>1410575.83</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10689,12 +10689,12 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -10711,12 +10711,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>3766966.46</t>
+          <t>344727.11</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10731,12 +10731,12 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -10753,12 +10753,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>116077.85</t>
+          <t>3766966.46</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10773,12 +10773,12 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -10795,12 +10795,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>62000.00</t>
+          <t>116077.85</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10815,12 +10815,12 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -10837,12 +10837,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>188500.00</t>
+          <t>62000.00</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10857,12 +10857,12 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10879,12 +10879,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>587139.19</t>
+          <t>188500.00</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10899,12 +10899,12 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10921,12 +10921,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>414193.00</t>
+          <t>587139.19</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10941,12 +10941,12 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10963,12 +10963,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>273972.92</t>
+          <t>414193.00</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -10983,12 +10983,12 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -11005,12 +11005,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>72500.00</t>
+          <t>273972.92</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -11025,12 +11025,12 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -11047,12 +11047,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>502835.82</t>
+          <t>72500.00</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11067,12 +11067,12 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -11089,30 +11089,72 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>502835.82</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
           <t>222</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
+      <c r="D257" t="inlineStr">
         <is>
           <t>495863.00</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
+      <c r="F257" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
+      <c r="H257" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>315698.00</t>
+          <t>317698.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>422386.40</t>
+          <t>424386.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>471</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1189510.82</t>
+          <t>1205510.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>555041.00</t>
+          <t>577041.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>828</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3149914.81</t>
+          <t>3153914.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>546816.18</t>
+          <t>552816.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>254800.00</t>
+          <t>256800.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>446089.87</t>
+          <t>450089.87</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>477408.00</t>
+          <t>480908.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>382</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1517848.18</t>
+          <t>1527848.18</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>125000.00</t>
+          <t>127000.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>78971.00</t>
+          <t>80971.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>176591.53</t>
+          <t>180591.53</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>177000.00</t>
+          <t>179000.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>427437.09</t>
+          <t>449437.09</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>134773.00</t>
+          <t>136773.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>38821.60</t>
+          <t>53071.60</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>243987.00</t>
+          <t>247487.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>523</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2345768.47</t>
+          <t>2357768.47</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>123669.00</t>
+          <t>125669.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>283620.00</t>
+          <t>285620.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>113555.00</t>
+          <t>115555.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>177957.14</t>
+          <t>179957.14</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>194205.71</t>
+          <t>196205.71</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>502497.00</t>
+          <t>520997.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>35000.00</t>
+          <t>38500.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>158000.00</t>
+          <t>164427.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>131492.85</t>
+          <t>141492.85</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>136158.69</t>
+          <t>138158.69</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>359012.45</t>
+          <t>376379.45</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>539</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2495378.06</t>
+          <t>2552898.06</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>40017.00</t>
+          <t>45872.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>76500.00</t>
+          <t>81572.10</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>1843</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>4965715.93</t>
+          <t>4969215.93</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>2727</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>6896397.55</t>
+          <t>6900397.55</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>366</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1047658.94</t>
+          <t>1057658.94</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1553313.66</t>
+          <t>1555313.66</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6763,12 +6763,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>23000.00</t>
+          <t>41000.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6805,12 +6805,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>63000.00</t>
+          <t>92000.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6847,12 +6847,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>85336.00</t>
+          <t>152336.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6889,12 +6889,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>177876.69</t>
+          <t>11000.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6909,12 +6909,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>14500.00</t>
+          <t>238376.69</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6951,12 +6951,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6973,12 +6973,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6993,12 +6993,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7020,7 +7020,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>21900.00</t>
+          <t>20500.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7035,12 +7035,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>32500.00</t>
+          <t>23000.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7077,12 +7077,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7099,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>36000.00</t>
+          <t>36249.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7119,12 +7119,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7141,32 +7141,32 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7183,32 +7183,32 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>132400.00</t>
+          <t>40000.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7225,32 +7225,32 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>119000.00</t>
+          <t>69500.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7267,12 +7267,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>317000.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7287,12 +7287,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7309,12 +7309,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>49500.00</t>
+          <t>132400.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7329,12 +7329,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7351,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>211155.00</t>
+          <t>119000.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7393,12 +7393,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>317000.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7413,12 +7413,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7435,12 +7435,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>49500.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7455,12 +7455,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7477,12 +7477,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>211155.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7497,12 +7497,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7519,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>113800.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7539,12 +7539,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7561,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>79484.00</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7581,12 +7581,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7603,12 +7603,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>29500.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7645,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>113800.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7665,12 +7665,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7687,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>38500.00</t>
+          <t>79484.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7707,12 +7707,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7729,12 +7729,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>124000.00</t>
+          <t>29500.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7749,12 +7749,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7771,32 +7771,32 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7813,32 +7813,32 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>13000.00</t>
+          <t>38500.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7855,32 +7855,32 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>44400.00</t>
+          <t>124000.00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7917,12 +7917,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7939,12 +7939,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>95956.05</t>
+          <t>13000.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>44400.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8001,12 +8001,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8023,32 +8023,32 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>75441.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8065,32 +8065,32 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>51000.00</t>
+          <t>95956.05</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8107,32 +8107,32 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>135119.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8149,12 +8149,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>453000.00</t>
+          <t>75441.00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8169,12 +8169,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>51000.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>1287043.24</t>
+          <t>135119.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8253,12 +8253,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8275,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>54703.43</t>
+          <t>453000.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8295,12 +8295,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8337,12 +8337,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8359,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>39977.46</t>
+          <t>1287043.24</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8379,12 +8379,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>211258.79</t>
+          <t>54703.43</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8421,12 +8421,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>76510.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>83650.00</t>
+          <t>39977.46</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8505,12 +8505,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>211258.79</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>263307.95</t>
+          <t>76510.00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8589,12 +8589,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>185000.00</t>
+          <t>83650.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8631,12 +8631,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8653,32 +8653,32 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>178300.00</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8695,32 +8695,32 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>143153.50</t>
+          <t>263307.95</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8737,32 +8737,32 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>299000.00</t>
+          <t>185000.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>955788.00</t>
+          <t>178300.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>113574.12</t>
+          <t>143153.50</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2607482.58</t>
+          <t>299000.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>356</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>102238.00</t>
+          <t>957788.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>113574.12</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8967,12 +8967,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8989,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>676</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>82000.00</t>
+          <t>2620482.58</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9009,12 +9009,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>493133.00</t>
+          <t>102238.00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9051,12 +9051,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9073,12 +9073,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>195926.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9093,12 +9093,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>194720.00</t>
+          <t>84000.00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9135,12 +9135,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>30500.00</t>
+          <t>493133.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9177,12 +9177,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9199,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>611185.14</t>
+          <t>195926.00</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9219,12 +9219,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9241,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>323306.36</t>
+          <t>196720.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9283,32 +9283,32 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>96000.00</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9325,32 +9325,32 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>141500.00</t>
+          <t>623185.14</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9367,32 +9367,32 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>336120.07</t>
+          <t>333630.36</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>939423.34</t>
+          <t>96000.00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>79468.00</t>
+          <t>141500.00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>1835678.47</t>
+          <t>336120.07</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9535,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>939423.34</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9555,12 +9555,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>79468.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9597,12 +9597,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>101400.00</t>
+          <t>1835678.47</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9639,12 +9639,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9661,12 +9661,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>357366.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9681,12 +9681,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9703,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>96150.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>135338.97</t>
+          <t>101400.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9765,12 +9765,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9787,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>51500.00</t>
+          <t>357366.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9807,12 +9807,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9829,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>241695.20</t>
+          <t>96150.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9849,12 +9849,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9871,12 +9871,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>311000.00</t>
+          <t>135338.97</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9891,12 +9891,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9913,32 +9913,32 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>60578.00</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9955,32 +9955,32 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>60523.00</t>
+          <t>241695.20</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9997,32 +9997,32 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>155500.00</t>
+          <t>311000.00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -10039,12 +10039,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>461905.00</t>
+          <t>60578.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10059,12 +10059,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -10081,12 +10081,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>57403.00</t>
+          <t>60523.00</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10101,12 +10101,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -10123,12 +10123,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>1213037.07</t>
+          <t>155500.00</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>31972.00</t>
+          <t>461905.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10185,12 +10185,12 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -10207,12 +10207,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>57403.00</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10227,12 +10227,12 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>40612.00</t>
+          <t>1213037.07</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10269,12 +10269,12 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -10291,12 +10291,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>250687.09</t>
+          <t>31972.00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10311,12 +10311,12 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -10333,12 +10333,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>90323.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10353,12 +10353,12 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -10375,12 +10375,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>89100.00</t>
+          <t>40612.00</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10395,12 +10395,12 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -10417,12 +10417,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>250687.09</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10437,12 +10437,12 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -10459,12 +10459,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>291949.36</t>
+          <t>90323.00</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10479,12 +10479,12 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -10501,12 +10501,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>149500.00</t>
+          <t>89100.00</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10521,12 +10521,12 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -10543,32 +10543,32 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>67250.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -10585,32 +10585,32 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>236538.00</t>
+          <t>291949.36</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -10627,32 +10627,32 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>419700.00</t>
+          <t>149500.00</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -10669,12 +10669,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>1410575.83</t>
+          <t>67250.00</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10689,12 +10689,12 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -10711,12 +10711,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>344727.11</t>
+          <t>236538.00</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10731,12 +10731,12 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -10753,12 +10753,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>3766966.46</t>
+          <t>419700.00</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10773,12 +10773,12 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -10795,12 +10795,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>541</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>116077.85</t>
+          <t>1410575.83</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10815,12 +10815,12 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -10837,12 +10837,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>62000.00</t>
+          <t>344727.11</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10857,12 +10857,12 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -10879,12 +10879,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>188500.00</t>
+          <t>3766966.46</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10899,12 +10899,12 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -10921,12 +10921,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>587139.19</t>
+          <t>116077.85</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10941,12 +10941,12 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -10963,12 +10963,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>414193.00</t>
+          <t>62000.00</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -10983,12 +10983,12 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -11005,12 +11005,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>273972.92</t>
+          <t>188500.00</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -11025,12 +11025,12 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -11047,12 +11047,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>72500.00</t>
+          <t>587139.19</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11067,12 +11067,12 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -11089,12 +11089,12 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>502835.82</t>
+          <t>414193.00</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -11109,12 +11109,12 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -11131,30 +11131,156 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>273972.92</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Enseignement</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>72500.00</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Santé humaine et action sociale</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>502835.82</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
           <t>222</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
+      <c r="D260" t="inlineStr">
         <is>
           <t>495863.00</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E260" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
+      <c r="F260" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
+      <c r="H260" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>609075.19</t>
+          <t>611075.19</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>275774.36</t>
+          <t>277774.36</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>317698.00</t>
+          <t>321698.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>424386.40</t>
+          <t>440386.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>488</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1205510.82</t>
+          <t>1241509.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>577041.00</t>
+          <t>699041.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>851</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3153914.81</t>
+          <t>3285781.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94600.00</t>
+          <t>103600.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>100177.00</t>
+          <t>104177.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>552816.18</t>
+          <t>571948.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>256800.00</t>
+          <t>270745.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>237788.98</t>
+          <t>239788.98</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>450089.87</t>
+          <t>460769.87</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>101891.77</t>
+          <t>109891.77</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>376175.00</t>
+          <t>382175.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1366916.35</t>
+          <t>1387416.35</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>116572.00</t>
+          <t>124572.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>54000.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>41450.00</t>
+          <t>43450.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>213018.00</t>
+          <t>219518.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>525</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2357768.47</t>
+          <t>2377768.47</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>64209.84</t>
+          <t>66209.84</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>200810.00</t>
+          <t>204310.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>65913.61</t>
+          <t>67913.61</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>34499.26</t>
+          <t>36499.26</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>49100.00</t>
+          <t>53100.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>99068.92</t>
+          <t>101068.92</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>138158.69</t>
+          <t>156158.69</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>176877.00</t>
+          <t>178877.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>546</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2552898.06</t>
+          <t>2596098.06</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>45872.00</t>
+          <t>49872.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>396663.75</t>
+          <t>408663.75</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2727</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>6900397.55</t>
+          <t>6908397.55</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>2701</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>11816211.82</t>
+          <t>11826211.82</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7267,12 +7267,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>15800.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7309,12 +7309,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>132400.00</t>
+          <t>134550.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7393,12 +7393,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>317000.00</t>
+          <t>325000.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7477,12 +7477,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>211155.00</t>
+          <t>215004.88</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7645,12 +7645,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>113800.00</t>
+          <t>116030.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7687,12 +7687,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>79484.00</t>
+          <t>83410.60</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>143153.50</t>
+          <t>145153.50</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>957788.00</t>
+          <t>962788.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8989,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>680</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2620482.58</t>
+          <t>2644482.58</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>493133.00</t>
+          <t>499314.91</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>623185.14</t>
+          <t>625185.14</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9367,12 +9367,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>333630.36</t>
+          <t>335630.36</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>461905.00</t>
+          <t>463905.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10207,12 +10207,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>57403.00</t>
+          <t>59403.00</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>358</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>1213037.07</t>
+          <t>1274255.08</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10417,12 +10417,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>250687.09</t>
+          <t>256187.09</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10459,12 +10459,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>90323.00</t>
+          <t>92323.00</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10501,12 +10501,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>89100.00</t>
+          <t>99100.00</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>291949.36</t>
+          <t>306266.36</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>490</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1241509.82</t>
+          <t>1245509.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>699041.00</t>
+          <t>713041.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>860</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3285781.81</t>
+          <t>3348728.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>41500.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>571948.18</t>
+          <t>573948.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>270745.00</t>
+          <t>274745.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>630217.26</t>
+          <t>640217.26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>460769.87</t>
+          <t>464769.87</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>301028.33</t>
+          <t>309228.33</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>56100.00</t>
+          <t>62300.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1014390.80</t>
+          <t>1042723.80</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>55000.00</t>
+          <t>57000.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>194656.00</t>
+          <t>212006.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>142500.00</t>
+          <t>152500.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>611075.19</t>
+          <t>613075.19</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>43909.00</t>
+          <t>51909.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>204310.00</t>
+          <t>208310.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>162172.01</t>
+          <t>190772.01</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>67913.61</t>
+          <t>69913.61</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>583906.82</t>
+          <t>611906.82</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>19910.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>102910.00</t>
+          <t>112910.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>101068.92</t>
+          <t>113068.92</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>376379.45</t>
+          <t>391879.45</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2596098.06</t>
+          <t>2620098.06</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>49872.00</t>
+          <t>59872.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>290743.68</t>
+          <t>295740.68</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2701</t>
+          <t>2702</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>11826211.82</t>
+          <t>11831211.82</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -8989,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>681</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2644482.58</t>
+          <t>2646482.58</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>102238.00</t>
+          <t>110238.00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -10669,12 +10669,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>67250.00</t>
+          <t>68095.28</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10711,12 +10711,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>236538.00</t>
+          <t>274838.00</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10753,12 +10753,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>419700.00</t>
+          <t>428700.00</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10795,12 +10795,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>566</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>1410575.83</t>
+          <t>1491991.59</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10837,12 +10837,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>344727.11</t>
+          <t>373627.11</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10879,12 +10879,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>3766966.46</t>
+          <t>4047299.06</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10921,12 +10921,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>116077.85</t>
+          <t>138503.19</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10963,12 +10963,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>62000.00</t>
+          <t>64900.00</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -11005,12 +11005,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>188500.00</t>
+          <t>196500.00</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -11047,12 +11047,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>587139.19</t>
+          <t>600068.19</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11089,12 +11089,12 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>414193.00</t>
+          <t>464393.00</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -11131,12 +11131,12 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>273972.92</t>
+          <t>275972.92</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -11215,12 +11215,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>502835.82</t>
+          <t>556875.09</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11257,12 +11257,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>229</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>495863.00</t>
+          <t>523863.00</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>440386.40</t>
+          <t>445886.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1245509.82</t>
+          <t>1280809.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>713041.00</t>
+          <t>779041.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>877</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3348728.81</t>
+          <t>3419781.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>103600.00</t>
+          <t>105600.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>104177.00</t>
+          <t>108177.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>573948.18</t>
+          <t>594760.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>274745.00</t>
+          <t>286745.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>239788.98</t>
+          <t>241788.98</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>43593.58</t>
+          <t>45593.58</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>464769.87</t>
+          <t>488769.87</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>109891.77</t>
+          <t>111891.77</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1387416.35</t>
+          <t>1417916.35</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24024.69</t>
+          <t>27524.69</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>219518.00</t>
+          <t>222527.92</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>139310.00</t>
+          <t>143310.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>46000.00</t>
+          <t>49500.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>105500.00</t>
+          <t>109500.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>85945.00</t>
+          <t>87945.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>480908.00</t>
+          <t>490408.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>23500.00</t>
+          <t>25500.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1527848.18</t>
+          <t>1573340.18</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>55170.00</t>
+          <t>57170.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>78500.00</t>
+          <t>80851.86</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>80971.00</t>
+          <t>86971.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>180591.53</t>
+          <t>205465.53</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>176768.00</t>
+          <t>189125.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>309228.33</t>
+          <t>313228.33</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>62300.00</t>
+          <t>64300.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1042723.80</t>
+          <t>1044723.80</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>57000.00</t>
+          <t>65000.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>247487.00</t>
+          <t>252987.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>613075.19</t>
+          <t>626075.19</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>77991.00</t>
+          <t>82991.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>549</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2377768.47</t>
+          <t>2551881.47</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>60069.00</t>
+          <t>62069.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>277774.36</t>
+          <t>295474.36</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>125669.00</t>
+          <t>127669.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>105500.00</t>
+          <t>117500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>342136.08</t>
+          <t>352136.08</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>115555.00</t>
+          <t>151555.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>179957.14</t>
+          <t>192857.14</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>196205.71</t>
+          <t>218890.71</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>407862.00</t>
+          <t>495388.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>520997.00</t>
+          <t>576723.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>38500.00</t>
+          <t>42000.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>164427.00</t>
+          <t>191838.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>211902.04</t>
+          <t>233902.04</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>47700.00</t>
+          <t>56087.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>38000.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>73330.00</t>
+          <t>78830.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>141492.85</t>
+          <t>147492.85</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>51909.00</t>
+          <t>55909.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>208310.00</t>
+          <t>220310.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>190772.01</t>
+          <t>196472.01</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>69913.61</t>
+          <t>73283.61</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>611906.82</t>
+          <t>626077.82</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>112910.00</t>
+          <t>114910.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5209,12 +5209,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>83895.00</t>
+          <t>93895.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>113068.92</t>
+          <t>115068.92</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>85197.00</t>
+          <t>93397.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>156158.69</t>
+          <t>168158.69</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>178877.00</t>
+          <t>180877.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>737508.00</t>
+          <t>759508.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>391879.45</t>
+          <t>452591.18</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>584</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2620098.06</t>
+          <t>2925920.06</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>39000.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>59872.00</t>
+          <t>63872.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>295740.68</t>
+          <t>318399.89</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>178579.76</t>
+          <t>183279.76</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>408663.75</t>
+          <t>425663.75</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>343995.68</t>
+          <t>353995.68</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>609550.00</t>
+          <t>693644.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>30100.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>38500.00</t>
+          <t>62500.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>650</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1457046.00</t>
+          <t>1629642.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>2062</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>4969215.93</t>
+          <t>5770430.88</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2731</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>6908397.55</t>
+          <t>10594706.23</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2702</t>
+          <t>3076</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>11831211.82</t>
+          <t>14616300.71</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>423</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1057658.94</t>
+          <t>1275822.83</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>323984.00</t>
+          <t>354984.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>685516.33</t>
+          <t>741501.33</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2805349.25</t>
+          <t>3176201.93</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>600</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1555313.66</t>
+          <t>1872107.66</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>429</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>965377.83</t>
+          <t>1085153.83</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>369500.00</t>
+          <t>416900.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6679,12 +6679,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>551</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1433905.46</t>
+          <t>1804370.55</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6721,12 +6721,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>960</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2106195.82</t>
+          <t>2390990.19</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6805,12 +6805,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>92000.00</t>
+          <t>99500.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6847,12 +6847,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>152336.00</t>
+          <t>187236.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6889,12 +6889,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>11000.00</t>
+          <t>13000.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6931,12 +6931,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>238376.69</t>
+          <t>350083.90</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6973,12 +6973,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7015,12 +7015,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>20500.00</t>
+          <t>35500.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7057,12 +7057,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>23000.00</t>
+          <t>31000.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7099,12 +7099,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>36249.00</t>
+          <t>43742.20</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7183,12 +7183,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>40000.00</t>
+          <t>94000.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7225,12 +7225,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>69500.00</t>
+          <t>97992.55</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8653,12 +8653,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8779,12 +8779,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>178300.00</t>
+          <t>188300.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>358</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>962788.00</t>
+          <t>964788.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8989,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>690</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2646482.58</t>
+          <t>2698959.58</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>499314.91</t>
+          <t>532314.91</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>625185.14</t>
+          <t>642021.14</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9367,12 +9367,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>335630.36</t>
+          <t>339630.36</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -10123,12 +10123,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>155500.00</t>
+          <t>159500.00</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10165,12 +10165,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>463905.00</t>
+          <t>475905.00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>1274255.08</t>
+          <t>1321297.36</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10291,12 +10291,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>31972.00</t>
+          <t>33972.00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10459,12 +10459,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>92323.00</t>
+          <t>96323.00</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>306266.36</t>
+          <t>324277.36</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10627,12 +10627,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>149500.00</t>
+          <t>151500.00</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10795,12 +10795,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>567</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>1491991.59</t>
+          <t>1494116.59</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10837,12 +10837,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>373627.11</t>
+          <t>375627.11</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>321698.00</t>
+          <t>329198.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>445886.40</t>
+          <t>459886.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>524</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1280809.82</t>
+          <t>1328809.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>434</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>779041.00</t>
+          <t>924541.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>918</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3419781.47</t>
+          <t>3836643.29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>105600.00</t>
+          <t>107600.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>108177.00</t>
+          <t>112177.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>594760.18</t>
+          <t>732260.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>286745.00</t>
+          <t>354245.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>241788.98</t>
+          <t>243788.98</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45593.58</t>
+          <t>51593.58</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>640217.26</t>
+          <t>796260.68</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>488769.87</t>
+          <t>537669.87</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>111891.77</t>
+          <t>115891.77</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>121000.00</t>
+          <t>125000.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>382175.00</t>
+          <t>391175.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1417916.35</t>
+          <t>1453307.35</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>124572.00</t>
+          <t>169572.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>43450.00</t>
+          <t>73450.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>222527.92</t>
+          <t>265096.92</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>143310.00</t>
+          <t>145310.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>52500.00</t>
+          <t>56000.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>71236.03</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>124753.26</t>
+          <t>126753.26</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>313228.33</t>
+          <t>317228.33</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1044723.80</t>
+          <t>1254041.10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>100000.00</t>
+          <t>170585.02</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>65000.00</t>
+          <t>75000.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>31000.00</t>
+          <t>33000.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>71000.00</t>
+          <t>75000.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>179000.00</t>
+          <t>191000.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>449437.09</t>
+          <t>469437.09</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>136773.00</t>
+          <t>146773.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>252987.00</t>
+          <t>266487.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>626075.19</t>
+          <t>635575.19</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>82991.00</t>
+          <t>92991.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>560</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2551881.47</t>
+          <t>2687144.47</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>62069.00</t>
+          <t>65569.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>295474.36</t>
+          <t>299474.36</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>117500.00</t>
+          <t>119500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>352136.08</t>
+          <t>372136.08</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>285620.00</t>
+          <t>289620.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>56087.00</t>
+          <t>58087.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>55909.00</t>
+          <t>61800.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>66209.84</t>
+          <t>71533.84</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>220310.00</t>
+          <t>254810.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>196472.01</t>
+          <t>220472.01</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>73283.61</t>
+          <t>89944.61</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>626077.82</t>
+          <t>698577.82</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>114910.00</t>
+          <t>124910.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5209,12 +5209,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>93895.00</t>
+          <t>116395.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>53100.00</t>
+          <t>57470.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5293,12 +5293,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>115068.92</t>
+          <t>152068.92</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>93397.00</t>
+          <t>104297.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>274</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>759508.00</t>
+          <t>793824.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5587,12 +5587,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>452591.18</t>
+          <t>603728.39</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>630</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2925920.06</t>
+          <t>3370153.67</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>39000.00</t>
+          <t>41000.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>63872.00</t>
+          <t>72959.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>318399.89</t>
+          <t>345896.86</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>183279.76</t>
+          <t>218279.76</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>165793.82</t>
+          <t>169793.82</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>425663.75</t>
+          <t>527762.28</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>353995.68</t>
+          <t>406405.33</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>693644.00</t>
+          <t>732644.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>30100.00</t>
+          <t>40600.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>62500.00</t>
+          <t>66500.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>670</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1629642.00</t>
+          <t>1696212.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2062</t>
+          <t>2158</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>5770430.88</t>
+          <t>6097216.20</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>10594706.23</t>
+          <t>12300053.02</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>3076</t>
+          <t>3223</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>14616300.71</t>
+          <t>15821367.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>445</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1275822.83</t>
+          <t>1362302.83</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>354984.00</t>
+          <t>370884.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>741501.33</t>
+          <t>769501.33</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>1251</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>3176201.93</t>
+          <t>3299411.93</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6553,12 +6553,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>637</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1872107.66</t>
+          <t>2076700.66</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1085153.83</t>
+          <t>1103653.83</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6637,12 +6637,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>416900.00</t>
+          <t>427200.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6679,12 +6679,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>584</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1804370.55</t>
+          <t>1982725.55</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6721,12 +6721,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>997</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2390990.19</t>
+          <t>2497319.71</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6805,12 +6805,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>99500.00</t>
+          <t>101500.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6847,12 +6847,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>187236.00</t>
+          <t>197236.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6931,12 +6931,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>350083.90</t>
+          <t>354222.37</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7099,12 +7099,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>43742.20</t>
+          <t>45742.20</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7225,12 +7225,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>97992.55</t>
+          <t>106457.55</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7939,12 +7939,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>13000.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7981,12 +7981,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>44400.00</t>
+          <t>58800.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8023,12 +8023,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8065,12 +8065,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>95956.05</t>
+          <t>113456.05</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8107,12 +8107,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8149,32 +8149,32 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>75441.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>51000.00</t>
+          <t>75441.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>135119.00</t>
+          <t>51000.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8253,12 +8253,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8275,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>453000.00</t>
+          <t>135119.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8295,12 +8295,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>453000.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8337,12 +8337,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8359,12 +8359,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1287043.24</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8379,12 +8379,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8401,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>54703.43</t>
+          <t>1287043.24</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8421,12 +8421,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>54703.43</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>39977.46</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8505,12 +8505,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>211258.79</t>
+          <t>39977.46</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8569,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>76510.00</t>
+          <t>211258.79</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8589,12 +8589,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>83650.00</t>
+          <t>76510.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8631,12 +8631,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>30500.00</t>
+          <t>83650.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8673,12 +8673,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>263307.95</t>
+          <t>30500.00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8715,12 +8715,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8737,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>185000.00</t>
+          <t>263307.95</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8757,12 +8757,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8779,32 +8779,32 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>188300.00</t>
+          <t>185000.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>145153.50</t>
+          <t>192300.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>299000.00</t>
+          <t>158653.50</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8905,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>964788.00</t>
+          <t>299000.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8947,12 +8947,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>113574.12</t>
+          <t>1011288.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8967,12 +8967,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8989,12 +8989,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2698959.58</t>
+          <t>113574.12</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9009,12 +9009,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>705</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>110238.00</t>
+          <t>3010474.95</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9051,12 +9051,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9073,12 +9073,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>110238.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9093,12 +9093,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>84000.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9135,12 +9135,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9157,12 +9157,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>532314.91</t>
+          <t>84000.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9177,12 +9177,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9199,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>195926.00</t>
+          <t>542314.91</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9219,12 +9219,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9241,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>196720.00</t>
+          <t>205926.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       